--- a/20_営業/10_マスタ/TE030/T_TE030_CMM_002_A11_06_社員データIF_OIC統合.xlsx
+++ b/20_営業/10_マスタ/TE030/T_TE030_CMM_002_A11_06_社員データIF_OIC統合.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19701～19800\E_本稼動_19736【マスタ】従業員マスタ_IF取込(言語設定)\20_成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19301～19400\E_本稼動_19390_再【マスタ】従業員IF性能検証\20_成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="23040" windowHeight="8940" tabRatio="844"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="23040" windowHeight="8940" tabRatio="844"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="作成上の注意点" sheetId="4" r:id="rId3"/>
     <sheet name="テスト・シナリオ一覧" sheetId="22" r:id="rId4"/>
     <sheet name="テスト仕様_データ・プロファイル" sheetId="5" r:id="rId5"/>
-    <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)" sheetId="40" r:id="rId6"/>
-    <sheet name="テスト・シナリオ1_別紙" sheetId="41" r:id="rId7"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)" sheetId="44" r:id="rId6"/>
+    <sheet name="テスト・シナリオ1_別紙" sheetId="45" r:id="rId7"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ2)" sheetId="6" r:id="rId8"/>
     <sheet name="テスト・シナリオ2_別紙" sheetId="35" r:id="rId9"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ3)" sheetId="36" r:id="rId10"/>
@@ -28,30 +28,34 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ5)" sheetId="17" r:id="rId14"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ6)" sheetId="20" r:id="rId15"/>
     <sheet name="テスト・シナリオ6_別紙" sheetId="34" r:id="rId16"/>
-    <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)_20231221" sheetId="42" r:id="rId17"/>
-    <sheet name="テスト・シナリオ1_20231221" sheetId="43" r:id="rId18"/>
-    <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)_20230728" sheetId="13" r:id="rId19"/>
-    <sheet name="テスト・シナリオ1_別紙 _20230728" sheetId="14" r:id="rId20"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId21"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId22"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)20240123" sheetId="40" r:id="rId17"/>
+    <sheet name="テスト・シナリオ1_別紙20240123" sheetId="41" r:id="rId18"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)_20231221" sheetId="42" r:id="rId19"/>
+    <sheet name="テスト・シナリオ1_20231221" sheetId="43" r:id="rId20"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)_20230728" sheetId="13" r:id="rId21"/>
+    <sheet name="テスト・シナリオ1_別紙 _20230728" sheetId="14" r:id="rId22"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId23"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId24"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId23"/>
-    <externalReference r:id="rId24"/>
     <externalReference r:id="rId25"/>
     <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" hidden="1">'[1]１．InfoCube (YKCH0010)案１:１．InfoCube (YKCH0010) 案２'!$W$5:$W$5</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Order2" hidden="1">255</definedName>
+    <definedName name="_Regression_X" localSheetId="19" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="6" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="17" hidden="1">#REF!</definedName>
-    <definedName name="_Regression_X" localSheetId="6" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="8" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="10" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="12" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="15" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="5" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="18" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="16" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="13" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="14" hidden="1">#REF!</definedName>
@@ -79,8 +83,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">テスト仕様_データ・プロファイル!$A$1:$C$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'テスト仕様_テスト結果(テスト・シナリオ1)'!$A$1:$I$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="18">'テスト仕様_テスト結果(テスト・シナリオ1)_20230728'!$A$1:$I$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">'テスト仕様_テスト結果(テスト・シナリオ1)_20231221'!$A$1:$I$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">'テスト仕様_テスト結果(テスト・シナリオ1)_20230728'!$A$1:$I$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">'テスト仕様_テスト結果(テスト・シナリオ1)_20231221'!$A$1:$I$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'テスト仕様_テスト結果(テスト・シナリオ1)20240123'!$A$1:$I$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'テスト仕様_テスト結果(テスト・シナリオ2)'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'テスト仕様_テスト結果(テスト・シナリオ3)'!$A$1:$I$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'テスト仕様_テスト結果(テスト・シナリオ4)'!$A$1:$I$29</definedName>
@@ -88,15 +93,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="14">'テスト仕様_テスト結果(テスト・シナリオ6)'!$A$1:$I$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$17</definedName>
     <definedName name="wrn.仕様書表紙." hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
+    <definedName name="関連表" localSheetId="19" hidden="1">#REF!</definedName>
+    <definedName name="関連表" localSheetId="6" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="17" hidden="1">#REF!</definedName>
-    <definedName name="関連表" localSheetId="6" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="8" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="10" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="12" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="15" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="5" hidden="1">#REF!</definedName>
+    <definedName name="関連表" localSheetId="18" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="16" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="13" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="14" hidden="1">#REF!</definedName>
@@ -112,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="311">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -1482,8 +1489,187 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>別紙【シナリオ1登録データ】をxxccd_user_role_tmpに登録する(他のレコードは削除する)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LEDGER</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A1103_TestUser368</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TestUser368</t>
+  </si>
+  <si>
+    <t>l_user368</t>
+  </si>
+  <si>
+    <t>f_user368</t>
+  </si>
+  <si>
+    <t>XXCMM002A1103</t>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A1103_TestUser369</t>
+  </si>
+  <si>
+    <t>TestUser369</t>
+  </si>
+  <si>
+    <t>l_user369</t>
+  </si>
+  <si>
+    <t>f_user369</t>
+  </si>
+  <si>
+    <t>テストデータの割り当てが作成されていること</t>
+    <rPh sb="7" eb="8">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※1-2実行後、割当削除後
+別紙【シナリオ1登録データ】をxxccd_user_role_tmpに登録する(他のレコードは削除する)</t>
+    <rPh sb="4" eb="7">
+      <t>ジッコウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="13">
+      <t>ワリアテサクジョゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記のとおりであることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK細沼</t>
+    <rPh sb="4" eb="6">
+      <t>ホソヌマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>割当作成の分岐に入っていること</t>
+    <rPh sb="0" eb="4">
+      <t>ワリアテサクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>割当更新の分岐に入っていること</t>
+    <rPh sb="0" eb="2">
+      <t>ワリアテ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A1103_TestUser366</t>
+  </si>
+  <si>
+    <t>TestUser366</t>
+  </si>
+  <si>
+    <t>l_user366</t>
+  </si>
+  <si>
+    <t>f_user366</t>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A1103_TestUser367</t>
+  </si>
+  <si>
+    <t>TestUser367</t>
+  </si>
+  <si>
+    <t>l_user367</t>
+  </si>
+  <si>
+    <t>f_user367</t>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Issue1.3</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Issue1.3</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>E_本稼動_19390_再 対応</t>
+    <rPh sb="12" eb="13">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <t>元帳割当更新/作成の確認【PT0010対応再実行】</t>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>元帳割当更新/作成の確認【PT0010対応再実行】【E_本稼動_19736 対応再実行】</t>
     </r>
     <r>
       <rPr>
@@ -1494,7 +1680,7 @@
         <charset val="128"/>
         <scheme val="major"/>
       </rPr>
-      <t>【E_本稼動_19736 対応再実行】</t>
+      <t>【E_本稼動_19390_再 対応再実行】</t>
     </r>
     <rPh sb="0" eb="2">
       <t>モトチョウ</t>
@@ -1515,54 +1701,30 @@
   </si>
   <si>
     <t>別紙【シナリオ1登録データ】をxxccd_user_role_tmpに登録する(他のレコードは削除する)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>社員データIF_06</t>
+  </si>
+  <si>
+    <t>テーブル「非同期処理ステータス」に以下データ登録出力されること
+プロセスID：[非同期ID]
+IDタイプ：A</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>LEDGER</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>XXCMM002A1103_TestUser368</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>TestUser368</t>
-  </si>
-  <si>
-    <t>l_user368</t>
-  </si>
-  <si>
-    <t>f_user368</t>
-  </si>
-  <si>
-    <t>XXCMM002A1103</t>
-  </si>
-  <si>
-    <t>ADD</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>XXCMM002A1103_TestUser369</t>
-  </si>
-  <si>
-    <t>TestUser369</t>
-  </si>
-  <si>
-    <t>l_user369</t>
-  </si>
-  <si>
-    <t>f_user369</t>
-  </si>
-  <si>
-    <t>テストデータの割り当てが作成されていること</t>
-    <rPh sb="7" eb="8">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
+    <t>トレースをオフにした状態で、
+以下パラメータで、XXCMM002A11_06を起動すること
+{
+  "asyncId" : [非同期ID],
+  "idType" : "A",
+  "filePath": "/uspg/jp1/zb/py/devoicuser/dummy"
+}
+※asyncIdにシーケンス(xxccd_async_id_seq)のNEXTVALを設定</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1575,14 +1737,15 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>※1-2実行後、割当削除後
-別紙【シナリオ1登録データ】をxxccd_user_role_tmpに登録する(他のレコードは削除する)</t>
-    <rPh sb="4" eb="7">
-      <t>ジッコウゴ</t>
-    </rPh>
-    <rPh sb="8" eb="13">
-      <t>ワリアテサクジョゴ</t>
-    </rPh>
+    <t xml:space="preserve">正常終了する。
+非同期のため、リターン値はないこと。
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">正常終了する。
+非同期のため、リターン値はないこと。
+</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1600,6 +1763,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>OK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>SCSK細沼</t>
     <rPh sb="4" eb="6">
       <t>ホソヌマ</t>
@@ -1607,32 +1774,15 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>割当作成の分岐に入っていること</t>
-    <rPh sb="0" eb="4">
-      <t>ワリアテサクセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ブンキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ハイ</t>
-    </rPh>
+    <t>OK</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>割当更新の分岐に入っていること</t>
-    <rPh sb="0" eb="2">
-      <t>ワリアテ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ブンキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ハイ</t>
-    </rPh>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1645,7 +1795,7 @@
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1879,6 +2029,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="12">
@@ -3338,20 +3495,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3362,8 +3519,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="251460" y="29763720"/>
-          <a:ext cx="6917055" cy="2609850"/>
+          <a:off x="276225" y="31022925"/>
+          <a:ext cx="7581900" cy="2667000"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -3654,14 +3811,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>5715</xdr:rowOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3672,8 +3829,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="251460" y="32465010"/>
-          <a:ext cx="6917055" cy="2806065"/>
+          <a:off x="276225" y="33785175"/>
+          <a:ext cx="7581900" cy="2867025"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -3967,13 +4124,738 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="30184725"/>
+          <a:ext cx="3400425" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>161</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="30552390"/>
+          <a:ext cx="7581900" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="33314640"/>
+          <a:ext cx="7581900" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2447925</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>5715</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3985,8 +4867,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="28575" y="28944570"/>
-          <a:ext cx="3303270" cy="459105"/>
+          <a:off x="28575" y="29714190"/>
+          <a:ext cx="3400425" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -7694,6 +8576,731 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="29763720"/>
+          <a:ext cx="6917055" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="32465010"/>
+          <a:ext cx="6917055" cy="2806065"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="28944570"/>
+          <a:ext cx="3303270" cy="459105"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>163</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
@@ -8336,731 +9943,6 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="28575" y="29714190"/>
-          <a:ext cx="3400425" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="foldedCorner">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 12500"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>         記述します。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fPrintsWithSheet="0"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="31022925"/>
-          <a:ext cx="7581900" cy="2667000"/>
-        </a:xfrm>
-        <a:prstGeom prst="foldedCorner">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 12500"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>【TE.020作成時の注意点】</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>                   例：シナリオX-Xと同時検証</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fPrintsWithSheet="0"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="33785175"/>
-          <a:ext cx="7581900" cy="2867025"/>
-        </a:xfrm>
-        <a:prstGeom prst="foldedCorner">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 12500"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>【TE.070作成時の注意点】</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>            　　・○: テスト成功</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>            　　・×: テスト失敗</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fPrintsWithSheet="0"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2447925</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="28575" y="30184725"/>
           <a:ext cx="3400425" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
@@ -10903,7 +11785,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>45281</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -10927,7 +11809,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -15265,6 +16147,1252 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="256" width="8.875" style="27"/>
+    <col min="257" max="257" width="3.125" style="27" customWidth="1"/>
+    <col min="258" max="258" width="9.75" style="27" customWidth="1"/>
+    <col min="259" max="259" width="40.125" style="27" customWidth="1"/>
+    <col min="260" max="260" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="261" max="262" width="21.625" style="27" customWidth="1"/>
+    <col min="263" max="263" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="10.125" style="27" customWidth="1"/>
+    <col min="265" max="265" width="11.625" style="27" customWidth="1"/>
+    <col min="266" max="512" width="8.875" style="27"/>
+    <col min="513" max="513" width="3.125" style="27" customWidth="1"/>
+    <col min="514" max="514" width="9.75" style="27" customWidth="1"/>
+    <col min="515" max="515" width="40.125" style="27" customWidth="1"/>
+    <col min="516" max="516" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="517" max="518" width="21.625" style="27" customWidth="1"/>
+    <col min="519" max="519" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="10.125" style="27" customWidth="1"/>
+    <col min="521" max="521" width="11.625" style="27" customWidth="1"/>
+    <col min="522" max="768" width="8.875" style="27"/>
+    <col min="769" max="769" width="3.125" style="27" customWidth="1"/>
+    <col min="770" max="770" width="9.75" style="27" customWidth="1"/>
+    <col min="771" max="771" width="40.125" style="27" customWidth="1"/>
+    <col min="772" max="772" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="773" max="774" width="21.625" style="27" customWidth="1"/>
+    <col min="775" max="775" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="10.125" style="27" customWidth="1"/>
+    <col min="777" max="777" width="11.625" style="27" customWidth="1"/>
+    <col min="778" max="1024" width="8.875" style="27"/>
+    <col min="1025" max="1025" width="3.125" style="27" customWidth="1"/>
+    <col min="1026" max="1026" width="9.75" style="27" customWidth="1"/>
+    <col min="1027" max="1027" width="40.125" style="27" customWidth="1"/>
+    <col min="1028" max="1028" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1030" width="21.625" style="27" customWidth="1"/>
+    <col min="1031" max="1031" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="10.125" style="27" customWidth="1"/>
+    <col min="1033" max="1033" width="11.625" style="27" customWidth="1"/>
+    <col min="1034" max="1280" width="8.875" style="27"/>
+    <col min="1281" max="1281" width="3.125" style="27" customWidth="1"/>
+    <col min="1282" max="1282" width="9.75" style="27" customWidth="1"/>
+    <col min="1283" max="1283" width="40.125" style="27" customWidth="1"/>
+    <col min="1284" max="1284" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1286" width="21.625" style="27" customWidth="1"/>
+    <col min="1287" max="1287" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="10.125" style="27" customWidth="1"/>
+    <col min="1289" max="1289" width="11.625" style="27" customWidth="1"/>
+    <col min="1290" max="1536" width="8.875" style="27"/>
+    <col min="1537" max="1537" width="3.125" style="27" customWidth="1"/>
+    <col min="1538" max="1538" width="9.75" style="27" customWidth="1"/>
+    <col min="1539" max="1539" width="40.125" style="27" customWidth="1"/>
+    <col min="1540" max="1540" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1542" width="21.625" style="27" customWidth="1"/>
+    <col min="1543" max="1543" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="10.125" style="27" customWidth="1"/>
+    <col min="1545" max="1545" width="11.625" style="27" customWidth="1"/>
+    <col min="1546" max="1792" width="8.875" style="27"/>
+    <col min="1793" max="1793" width="3.125" style="27" customWidth="1"/>
+    <col min="1794" max="1794" width="9.75" style="27" customWidth="1"/>
+    <col min="1795" max="1795" width="40.125" style="27" customWidth="1"/>
+    <col min="1796" max="1796" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1798" width="21.625" style="27" customWidth="1"/>
+    <col min="1799" max="1799" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="10.125" style="27" customWidth="1"/>
+    <col min="1801" max="1801" width="11.625" style="27" customWidth="1"/>
+    <col min="1802" max="2048" width="8.875" style="27"/>
+    <col min="2049" max="2049" width="3.125" style="27" customWidth="1"/>
+    <col min="2050" max="2050" width="9.75" style="27" customWidth="1"/>
+    <col min="2051" max="2051" width="40.125" style="27" customWidth="1"/>
+    <col min="2052" max="2052" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2054" width="21.625" style="27" customWidth="1"/>
+    <col min="2055" max="2055" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="10.125" style="27" customWidth="1"/>
+    <col min="2057" max="2057" width="11.625" style="27" customWidth="1"/>
+    <col min="2058" max="2304" width="8.875" style="27"/>
+    <col min="2305" max="2305" width="3.125" style="27" customWidth="1"/>
+    <col min="2306" max="2306" width="9.75" style="27" customWidth="1"/>
+    <col min="2307" max="2307" width="40.125" style="27" customWidth="1"/>
+    <col min="2308" max="2308" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2310" width="21.625" style="27" customWidth="1"/>
+    <col min="2311" max="2311" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="10.125" style="27" customWidth="1"/>
+    <col min="2313" max="2313" width="11.625" style="27" customWidth="1"/>
+    <col min="2314" max="2560" width="8.875" style="27"/>
+    <col min="2561" max="2561" width="3.125" style="27" customWidth="1"/>
+    <col min="2562" max="2562" width="9.75" style="27" customWidth="1"/>
+    <col min="2563" max="2563" width="40.125" style="27" customWidth="1"/>
+    <col min="2564" max="2564" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2566" width="21.625" style="27" customWidth="1"/>
+    <col min="2567" max="2567" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="10.125" style="27" customWidth="1"/>
+    <col min="2569" max="2569" width="11.625" style="27" customWidth="1"/>
+    <col min="2570" max="2816" width="8.875" style="27"/>
+    <col min="2817" max="2817" width="3.125" style="27" customWidth="1"/>
+    <col min="2818" max="2818" width="9.75" style="27" customWidth="1"/>
+    <col min="2819" max="2819" width="40.125" style="27" customWidth="1"/>
+    <col min="2820" max="2820" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2822" width="21.625" style="27" customWidth="1"/>
+    <col min="2823" max="2823" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="10.125" style="27" customWidth="1"/>
+    <col min="2825" max="2825" width="11.625" style="27" customWidth="1"/>
+    <col min="2826" max="3072" width="8.875" style="27"/>
+    <col min="3073" max="3073" width="3.125" style="27" customWidth="1"/>
+    <col min="3074" max="3074" width="9.75" style="27" customWidth="1"/>
+    <col min="3075" max="3075" width="40.125" style="27" customWidth="1"/>
+    <col min="3076" max="3076" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3078" width="21.625" style="27" customWidth="1"/>
+    <col min="3079" max="3079" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="10.125" style="27" customWidth="1"/>
+    <col min="3081" max="3081" width="11.625" style="27" customWidth="1"/>
+    <col min="3082" max="3328" width="8.875" style="27"/>
+    <col min="3329" max="3329" width="3.125" style="27" customWidth="1"/>
+    <col min="3330" max="3330" width="9.75" style="27" customWidth="1"/>
+    <col min="3331" max="3331" width="40.125" style="27" customWidth="1"/>
+    <col min="3332" max="3332" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3334" width="21.625" style="27" customWidth="1"/>
+    <col min="3335" max="3335" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="10.125" style="27" customWidth="1"/>
+    <col min="3337" max="3337" width="11.625" style="27" customWidth="1"/>
+    <col min="3338" max="3584" width="8.875" style="27"/>
+    <col min="3585" max="3585" width="3.125" style="27" customWidth="1"/>
+    <col min="3586" max="3586" width="9.75" style="27" customWidth="1"/>
+    <col min="3587" max="3587" width="40.125" style="27" customWidth="1"/>
+    <col min="3588" max="3588" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3590" width="21.625" style="27" customWidth="1"/>
+    <col min="3591" max="3591" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="10.125" style="27" customWidth="1"/>
+    <col min="3593" max="3593" width="11.625" style="27" customWidth="1"/>
+    <col min="3594" max="3840" width="8.875" style="27"/>
+    <col min="3841" max="3841" width="3.125" style="27" customWidth="1"/>
+    <col min="3842" max="3842" width="9.75" style="27" customWidth="1"/>
+    <col min="3843" max="3843" width="40.125" style="27" customWidth="1"/>
+    <col min="3844" max="3844" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3846" width="21.625" style="27" customWidth="1"/>
+    <col min="3847" max="3847" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="10.125" style="27" customWidth="1"/>
+    <col min="3849" max="3849" width="11.625" style="27" customWidth="1"/>
+    <col min="3850" max="4096" width="8.875" style="27"/>
+    <col min="4097" max="4097" width="3.125" style="27" customWidth="1"/>
+    <col min="4098" max="4098" width="9.75" style="27" customWidth="1"/>
+    <col min="4099" max="4099" width="40.125" style="27" customWidth="1"/>
+    <col min="4100" max="4100" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4102" width="21.625" style="27" customWidth="1"/>
+    <col min="4103" max="4103" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="10.125" style="27" customWidth="1"/>
+    <col min="4105" max="4105" width="11.625" style="27" customWidth="1"/>
+    <col min="4106" max="4352" width="8.875" style="27"/>
+    <col min="4353" max="4353" width="3.125" style="27" customWidth="1"/>
+    <col min="4354" max="4354" width="9.75" style="27" customWidth="1"/>
+    <col min="4355" max="4355" width="40.125" style="27" customWidth="1"/>
+    <col min="4356" max="4356" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4358" width="21.625" style="27" customWidth="1"/>
+    <col min="4359" max="4359" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="10.125" style="27" customWidth="1"/>
+    <col min="4361" max="4361" width="11.625" style="27" customWidth="1"/>
+    <col min="4362" max="4608" width="8.875" style="27"/>
+    <col min="4609" max="4609" width="3.125" style="27" customWidth="1"/>
+    <col min="4610" max="4610" width="9.75" style="27" customWidth="1"/>
+    <col min="4611" max="4611" width="40.125" style="27" customWidth="1"/>
+    <col min="4612" max="4612" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4614" width="21.625" style="27" customWidth="1"/>
+    <col min="4615" max="4615" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="10.125" style="27" customWidth="1"/>
+    <col min="4617" max="4617" width="11.625" style="27" customWidth="1"/>
+    <col min="4618" max="4864" width="8.875" style="27"/>
+    <col min="4865" max="4865" width="3.125" style="27" customWidth="1"/>
+    <col min="4866" max="4866" width="9.75" style="27" customWidth="1"/>
+    <col min="4867" max="4867" width="40.125" style="27" customWidth="1"/>
+    <col min="4868" max="4868" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4870" width="21.625" style="27" customWidth="1"/>
+    <col min="4871" max="4871" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="10.125" style="27" customWidth="1"/>
+    <col min="4873" max="4873" width="11.625" style="27" customWidth="1"/>
+    <col min="4874" max="5120" width="8.875" style="27"/>
+    <col min="5121" max="5121" width="3.125" style="27" customWidth="1"/>
+    <col min="5122" max="5122" width="9.75" style="27" customWidth="1"/>
+    <col min="5123" max="5123" width="40.125" style="27" customWidth="1"/>
+    <col min="5124" max="5124" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5126" width="21.625" style="27" customWidth="1"/>
+    <col min="5127" max="5127" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="10.125" style="27" customWidth="1"/>
+    <col min="5129" max="5129" width="11.625" style="27" customWidth="1"/>
+    <col min="5130" max="5376" width="8.875" style="27"/>
+    <col min="5377" max="5377" width="3.125" style="27" customWidth="1"/>
+    <col min="5378" max="5378" width="9.75" style="27" customWidth="1"/>
+    <col min="5379" max="5379" width="40.125" style="27" customWidth="1"/>
+    <col min="5380" max="5380" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5382" width="21.625" style="27" customWidth="1"/>
+    <col min="5383" max="5383" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="10.125" style="27" customWidth="1"/>
+    <col min="5385" max="5385" width="11.625" style="27" customWidth="1"/>
+    <col min="5386" max="5632" width="8.875" style="27"/>
+    <col min="5633" max="5633" width="3.125" style="27" customWidth="1"/>
+    <col min="5634" max="5634" width="9.75" style="27" customWidth="1"/>
+    <col min="5635" max="5635" width="40.125" style="27" customWidth="1"/>
+    <col min="5636" max="5636" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5638" width="21.625" style="27" customWidth="1"/>
+    <col min="5639" max="5639" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="10.125" style="27" customWidth="1"/>
+    <col min="5641" max="5641" width="11.625" style="27" customWidth="1"/>
+    <col min="5642" max="5888" width="8.875" style="27"/>
+    <col min="5889" max="5889" width="3.125" style="27" customWidth="1"/>
+    <col min="5890" max="5890" width="9.75" style="27" customWidth="1"/>
+    <col min="5891" max="5891" width="40.125" style="27" customWidth="1"/>
+    <col min="5892" max="5892" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5894" width="21.625" style="27" customWidth="1"/>
+    <col min="5895" max="5895" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="10.125" style="27" customWidth="1"/>
+    <col min="5897" max="5897" width="11.625" style="27" customWidth="1"/>
+    <col min="5898" max="6144" width="8.875" style="27"/>
+    <col min="6145" max="6145" width="3.125" style="27" customWidth="1"/>
+    <col min="6146" max="6146" width="9.75" style="27" customWidth="1"/>
+    <col min="6147" max="6147" width="40.125" style="27" customWidth="1"/>
+    <col min="6148" max="6148" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6150" width="21.625" style="27" customWidth="1"/>
+    <col min="6151" max="6151" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="10.125" style="27" customWidth="1"/>
+    <col min="6153" max="6153" width="11.625" style="27" customWidth="1"/>
+    <col min="6154" max="6400" width="8.875" style="27"/>
+    <col min="6401" max="6401" width="3.125" style="27" customWidth="1"/>
+    <col min="6402" max="6402" width="9.75" style="27" customWidth="1"/>
+    <col min="6403" max="6403" width="40.125" style="27" customWidth="1"/>
+    <col min="6404" max="6404" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6406" width="21.625" style="27" customWidth="1"/>
+    <col min="6407" max="6407" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="10.125" style="27" customWidth="1"/>
+    <col min="6409" max="6409" width="11.625" style="27" customWidth="1"/>
+    <col min="6410" max="6656" width="8.875" style="27"/>
+    <col min="6657" max="6657" width="3.125" style="27" customWidth="1"/>
+    <col min="6658" max="6658" width="9.75" style="27" customWidth="1"/>
+    <col min="6659" max="6659" width="40.125" style="27" customWidth="1"/>
+    <col min="6660" max="6660" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6662" width="21.625" style="27" customWidth="1"/>
+    <col min="6663" max="6663" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="10.125" style="27" customWidth="1"/>
+    <col min="6665" max="6665" width="11.625" style="27" customWidth="1"/>
+    <col min="6666" max="6912" width="8.875" style="27"/>
+    <col min="6913" max="6913" width="3.125" style="27" customWidth="1"/>
+    <col min="6914" max="6914" width="9.75" style="27" customWidth="1"/>
+    <col min="6915" max="6915" width="40.125" style="27" customWidth="1"/>
+    <col min="6916" max="6916" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6918" width="21.625" style="27" customWidth="1"/>
+    <col min="6919" max="6919" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="10.125" style="27" customWidth="1"/>
+    <col min="6921" max="6921" width="11.625" style="27" customWidth="1"/>
+    <col min="6922" max="7168" width="8.875" style="27"/>
+    <col min="7169" max="7169" width="3.125" style="27" customWidth="1"/>
+    <col min="7170" max="7170" width="9.75" style="27" customWidth="1"/>
+    <col min="7171" max="7171" width="40.125" style="27" customWidth="1"/>
+    <col min="7172" max="7172" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7174" width="21.625" style="27" customWidth="1"/>
+    <col min="7175" max="7175" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="10.125" style="27" customWidth="1"/>
+    <col min="7177" max="7177" width="11.625" style="27" customWidth="1"/>
+    <col min="7178" max="7424" width="8.875" style="27"/>
+    <col min="7425" max="7425" width="3.125" style="27" customWidth="1"/>
+    <col min="7426" max="7426" width="9.75" style="27" customWidth="1"/>
+    <col min="7427" max="7427" width="40.125" style="27" customWidth="1"/>
+    <col min="7428" max="7428" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7430" width="21.625" style="27" customWidth="1"/>
+    <col min="7431" max="7431" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="10.125" style="27" customWidth="1"/>
+    <col min="7433" max="7433" width="11.625" style="27" customWidth="1"/>
+    <col min="7434" max="7680" width="8.875" style="27"/>
+    <col min="7681" max="7681" width="3.125" style="27" customWidth="1"/>
+    <col min="7682" max="7682" width="9.75" style="27" customWidth="1"/>
+    <col min="7683" max="7683" width="40.125" style="27" customWidth="1"/>
+    <col min="7684" max="7684" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7686" width="21.625" style="27" customWidth="1"/>
+    <col min="7687" max="7687" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="10.125" style="27" customWidth="1"/>
+    <col min="7689" max="7689" width="11.625" style="27" customWidth="1"/>
+    <col min="7690" max="7936" width="8.875" style="27"/>
+    <col min="7937" max="7937" width="3.125" style="27" customWidth="1"/>
+    <col min="7938" max="7938" width="9.75" style="27" customWidth="1"/>
+    <col min="7939" max="7939" width="40.125" style="27" customWidth="1"/>
+    <col min="7940" max="7940" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7942" width="21.625" style="27" customWidth="1"/>
+    <col min="7943" max="7943" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="10.125" style="27" customWidth="1"/>
+    <col min="7945" max="7945" width="11.625" style="27" customWidth="1"/>
+    <col min="7946" max="8192" width="8.875" style="27"/>
+    <col min="8193" max="8193" width="3.125" style="27" customWidth="1"/>
+    <col min="8194" max="8194" width="9.75" style="27" customWidth="1"/>
+    <col min="8195" max="8195" width="40.125" style="27" customWidth="1"/>
+    <col min="8196" max="8196" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8198" width="21.625" style="27" customWidth="1"/>
+    <col min="8199" max="8199" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="10.125" style="27" customWidth="1"/>
+    <col min="8201" max="8201" width="11.625" style="27" customWidth="1"/>
+    <col min="8202" max="8448" width="8.875" style="27"/>
+    <col min="8449" max="8449" width="3.125" style="27" customWidth="1"/>
+    <col min="8450" max="8450" width="9.75" style="27" customWidth="1"/>
+    <col min="8451" max="8451" width="40.125" style="27" customWidth="1"/>
+    <col min="8452" max="8452" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8454" width="21.625" style="27" customWidth="1"/>
+    <col min="8455" max="8455" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="10.125" style="27" customWidth="1"/>
+    <col min="8457" max="8457" width="11.625" style="27" customWidth="1"/>
+    <col min="8458" max="8704" width="8.875" style="27"/>
+    <col min="8705" max="8705" width="3.125" style="27" customWidth="1"/>
+    <col min="8706" max="8706" width="9.75" style="27" customWidth="1"/>
+    <col min="8707" max="8707" width="40.125" style="27" customWidth="1"/>
+    <col min="8708" max="8708" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8710" width="21.625" style="27" customWidth="1"/>
+    <col min="8711" max="8711" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="10.125" style="27" customWidth="1"/>
+    <col min="8713" max="8713" width="11.625" style="27" customWidth="1"/>
+    <col min="8714" max="8960" width="8.875" style="27"/>
+    <col min="8961" max="8961" width="3.125" style="27" customWidth="1"/>
+    <col min="8962" max="8962" width="9.75" style="27" customWidth="1"/>
+    <col min="8963" max="8963" width="40.125" style="27" customWidth="1"/>
+    <col min="8964" max="8964" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8966" width="21.625" style="27" customWidth="1"/>
+    <col min="8967" max="8967" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="10.125" style="27" customWidth="1"/>
+    <col min="8969" max="8969" width="11.625" style="27" customWidth="1"/>
+    <col min="8970" max="9216" width="8.875" style="27"/>
+    <col min="9217" max="9217" width="3.125" style="27" customWidth="1"/>
+    <col min="9218" max="9218" width="9.75" style="27" customWidth="1"/>
+    <col min="9219" max="9219" width="40.125" style="27" customWidth="1"/>
+    <col min="9220" max="9220" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9222" width="21.625" style="27" customWidth="1"/>
+    <col min="9223" max="9223" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="10.125" style="27" customWidth="1"/>
+    <col min="9225" max="9225" width="11.625" style="27" customWidth="1"/>
+    <col min="9226" max="9472" width="8.875" style="27"/>
+    <col min="9473" max="9473" width="3.125" style="27" customWidth="1"/>
+    <col min="9474" max="9474" width="9.75" style="27" customWidth="1"/>
+    <col min="9475" max="9475" width="40.125" style="27" customWidth="1"/>
+    <col min="9476" max="9476" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9478" width="21.625" style="27" customWidth="1"/>
+    <col min="9479" max="9479" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="10.125" style="27" customWidth="1"/>
+    <col min="9481" max="9481" width="11.625" style="27" customWidth="1"/>
+    <col min="9482" max="9728" width="8.875" style="27"/>
+    <col min="9729" max="9729" width="3.125" style="27" customWidth="1"/>
+    <col min="9730" max="9730" width="9.75" style="27" customWidth="1"/>
+    <col min="9731" max="9731" width="40.125" style="27" customWidth="1"/>
+    <col min="9732" max="9732" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9734" width="21.625" style="27" customWidth="1"/>
+    <col min="9735" max="9735" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="10.125" style="27" customWidth="1"/>
+    <col min="9737" max="9737" width="11.625" style="27" customWidth="1"/>
+    <col min="9738" max="9984" width="8.875" style="27"/>
+    <col min="9985" max="9985" width="3.125" style="27" customWidth="1"/>
+    <col min="9986" max="9986" width="9.75" style="27" customWidth="1"/>
+    <col min="9987" max="9987" width="40.125" style="27" customWidth="1"/>
+    <col min="9988" max="9988" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9990" width="21.625" style="27" customWidth="1"/>
+    <col min="9991" max="9991" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="10.125" style="27" customWidth="1"/>
+    <col min="9993" max="9993" width="11.625" style="27" customWidth="1"/>
+    <col min="9994" max="10240" width="8.875" style="27"/>
+    <col min="10241" max="10241" width="3.125" style="27" customWidth="1"/>
+    <col min="10242" max="10242" width="9.75" style="27" customWidth="1"/>
+    <col min="10243" max="10243" width="40.125" style="27" customWidth="1"/>
+    <col min="10244" max="10244" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10246" width="21.625" style="27" customWidth="1"/>
+    <col min="10247" max="10247" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="10.125" style="27" customWidth="1"/>
+    <col min="10249" max="10249" width="11.625" style="27" customWidth="1"/>
+    <col min="10250" max="10496" width="8.875" style="27"/>
+    <col min="10497" max="10497" width="3.125" style="27" customWidth="1"/>
+    <col min="10498" max="10498" width="9.75" style="27" customWidth="1"/>
+    <col min="10499" max="10499" width="40.125" style="27" customWidth="1"/>
+    <col min="10500" max="10500" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10502" width="21.625" style="27" customWidth="1"/>
+    <col min="10503" max="10503" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="10.125" style="27" customWidth="1"/>
+    <col min="10505" max="10505" width="11.625" style="27" customWidth="1"/>
+    <col min="10506" max="10752" width="8.875" style="27"/>
+    <col min="10753" max="10753" width="3.125" style="27" customWidth="1"/>
+    <col min="10754" max="10754" width="9.75" style="27" customWidth="1"/>
+    <col min="10755" max="10755" width="40.125" style="27" customWidth="1"/>
+    <col min="10756" max="10756" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10758" width="21.625" style="27" customWidth="1"/>
+    <col min="10759" max="10759" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="10.125" style="27" customWidth="1"/>
+    <col min="10761" max="10761" width="11.625" style="27" customWidth="1"/>
+    <col min="10762" max="11008" width="8.875" style="27"/>
+    <col min="11009" max="11009" width="3.125" style="27" customWidth="1"/>
+    <col min="11010" max="11010" width="9.75" style="27" customWidth="1"/>
+    <col min="11011" max="11011" width="40.125" style="27" customWidth="1"/>
+    <col min="11012" max="11012" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11014" width="21.625" style="27" customWidth="1"/>
+    <col min="11015" max="11015" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="10.125" style="27" customWidth="1"/>
+    <col min="11017" max="11017" width="11.625" style="27" customWidth="1"/>
+    <col min="11018" max="11264" width="8.875" style="27"/>
+    <col min="11265" max="11265" width="3.125" style="27" customWidth="1"/>
+    <col min="11266" max="11266" width="9.75" style="27" customWidth="1"/>
+    <col min="11267" max="11267" width="40.125" style="27" customWidth="1"/>
+    <col min="11268" max="11268" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11270" width="21.625" style="27" customWidth="1"/>
+    <col min="11271" max="11271" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="10.125" style="27" customWidth="1"/>
+    <col min="11273" max="11273" width="11.625" style="27" customWidth="1"/>
+    <col min="11274" max="11520" width="8.875" style="27"/>
+    <col min="11521" max="11521" width="3.125" style="27" customWidth="1"/>
+    <col min="11522" max="11522" width="9.75" style="27" customWidth="1"/>
+    <col min="11523" max="11523" width="40.125" style="27" customWidth="1"/>
+    <col min="11524" max="11524" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11526" width="21.625" style="27" customWidth="1"/>
+    <col min="11527" max="11527" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="10.125" style="27" customWidth="1"/>
+    <col min="11529" max="11529" width="11.625" style="27" customWidth="1"/>
+    <col min="11530" max="11776" width="8.875" style="27"/>
+    <col min="11777" max="11777" width="3.125" style="27" customWidth="1"/>
+    <col min="11778" max="11778" width="9.75" style="27" customWidth="1"/>
+    <col min="11779" max="11779" width="40.125" style="27" customWidth="1"/>
+    <col min="11780" max="11780" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11782" width="21.625" style="27" customWidth="1"/>
+    <col min="11783" max="11783" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="10.125" style="27" customWidth="1"/>
+    <col min="11785" max="11785" width="11.625" style="27" customWidth="1"/>
+    <col min="11786" max="12032" width="8.875" style="27"/>
+    <col min="12033" max="12033" width="3.125" style="27" customWidth="1"/>
+    <col min="12034" max="12034" width="9.75" style="27" customWidth="1"/>
+    <col min="12035" max="12035" width="40.125" style="27" customWidth="1"/>
+    <col min="12036" max="12036" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12038" width="21.625" style="27" customWidth="1"/>
+    <col min="12039" max="12039" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="10.125" style="27" customWidth="1"/>
+    <col min="12041" max="12041" width="11.625" style="27" customWidth="1"/>
+    <col min="12042" max="12288" width="8.875" style="27"/>
+    <col min="12289" max="12289" width="3.125" style="27" customWidth="1"/>
+    <col min="12290" max="12290" width="9.75" style="27" customWidth="1"/>
+    <col min="12291" max="12291" width="40.125" style="27" customWidth="1"/>
+    <col min="12292" max="12292" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12294" width="21.625" style="27" customWidth="1"/>
+    <col min="12295" max="12295" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="10.125" style="27" customWidth="1"/>
+    <col min="12297" max="12297" width="11.625" style="27" customWidth="1"/>
+    <col min="12298" max="12544" width="8.875" style="27"/>
+    <col min="12545" max="12545" width="3.125" style="27" customWidth="1"/>
+    <col min="12546" max="12546" width="9.75" style="27" customWidth="1"/>
+    <col min="12547" max="12547" width="40.125" style="27" customWidth="1"/>
+    <col min="12548" max="12548" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12550" width="21.625" style="27" customWidth="1"/>
+    <col min="12551" max="12551" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="10.125" style="27" customWidth="1"/>
+    <col min="12553" max="12553" width="11.625" style="27" customWidth="1"/>
+    <col min="12554" max="12800" width="8.875" style="27"/>
+    <col min="12801" max="12801" width="3.125" style="27" customWidth="1"/>
+    <col min="12802" max="12802" width="9.75" style="27" customWidth="1"/>
+    <col min="12803" max="12803" width="40.125" style="27" customWidth="1"/>
+    <col min="12804" max="12804" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12806" width="21.625" style="27" customWidth="1"/>
+    <col min="12807" max="12807" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="10.125" style="27" customWidth="1"/>
+    <col min="12809" max="12809" width="11.625" style="27" customWidth="1"/>
+    <col min="12810" max="13056" width="8.875" style="27"/>
+    <col min="13057" max="13057" width="3.125" style="27" customWidth="1"/>
+    <col min="13058" max="13058" width="9.75" style="27" customWidth="1"/>
+    <col min="13059" max="13059" width="40.125" style="27" customWidth="1"/>
+    <col min="13060" max="13060" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13062" width="21.625" style="27" customWidth="1"/>
+    <col min="13063" max="13063" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="10.125" style="27" customWidth="1"/>
+    <col min="13065" max="13065" width="11.625" style="27" customWidth="1"/>
+    <col min="13066" max="13312" width="8.875" style="27"/>
+    <col min="13313" max="13313" width="3.125" style="27" customWidth="1"/>
+    <col min="13314" max="13314" width="9.75" style="27" customWidth="1"/>
+    <col min="13315" max="13315" width="40.125" style="27" customWidth="1"/>
+    <col min="13316" max="13316" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13318" width="21.625" style="27" customWidth="1"/>
+    <col min="13319" max="13319" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="10.125" style="27" customWidth="1"/>
+    <col min="13321" max="13321" width="11.625" style="27" customWidth="1"/>
+    <col min="13322" max="13568" width="8.875" style="27"/>
+    <col min="13569" max="13569" width="3.125" style="27" customWidth="1"/>
+    <col min="13570" max="13570" width="9.75" style="27" customWidth="1"/>
+    <col min="13571" max="13571" width="40.125" style="27" customWidth="1"/>
+    <col min="13572" max="13572" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13574" width="21.625" style="27" customWidth="1"/>
+    <col min="13575" max="13575" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="10.125" style="27" customWidth="1"/>
+    <col min="13577" max="13577" width="11.625" style="27" customWidth="1"/>
+    <col min="13578" max="13824" width="8.875" style="27"/>
+    <col min="13825" max="13825" width="3.125" style="27" customWidth="1"/>
+    <col min="13826" max="13826" width="9.75" style="27" customWidth="1"/>
+    <col min="13827" max="13827" width="40.125" style="27" customWidth="1"/>
+    <col min="13828" max="13828" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13830" width="21.625" style="27" customWidth="1"/>
+    <col min="13831" max="13831" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="10.125" style="27" customWidth="1"/>
+    <col min="13833" max="13833" width="11.625" style="27" customWidth="1"/>
+    <col min="13834" max="14080" width="8.875" style="27"/>
+    <col min="14081" max="14081" width="3.125" style="27" customWidth="1"/>
+    <col min="14082" max="14082" width="9.75" style="27" customWidth="1"/>
+    <col min="14083" max="14083" width="40.125" style="27" customWidth="1"/>
+    <col min="14084" max="14084" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14086" width="21.625" style="27" customWidth="1"/>
+    <col min="14087" max="14087" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="10.125" style="27" customWidth="1"/>
+    <col min="14089" max="14089" width="11.625" style="27" customWidth="1"/>
+    <col min="14090" max="14336" width="8.875" style="27"/>
+    <col min="14337" max="14337" width="3.125" style="27" customWidth="1"/>
+    <col min="14338" max="14338" width="9.75" style="27" customWidth="1"/>
+    <col min="14339" max="14339" width="40.125" style="27" customWidth="1"/>
+    <col min="14340" max="14340" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14342" width="21.625" style="27" customWidth="1"/>
+    <col min="14343" max="14343" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="10.125" style="27" customWidth="1"/>
+    <col min="14345" max="14345" width="11.625" style="27" customWidth="1"/>
+    <col min="14346" max="14592" width="8.875" style="27"/>
+    <col min="14593" max="14593" width="3.125" style="27" customWidth="1"/>
+    <col min="14594" max="14594" width="9.75" style="27" customWidth="1"/>
+    <col min="14595" max="14595" width="40.125" style="27" customWidth="1"/>
+    <col min="14596" max="14596" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14598" width="21.625" style="27" customWidth="1"/>
+    <col min="14599" max="14599" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="10.125" style="27" customWidth="1"/>
+    <col min="14601" max="14601" width="11.625" style="27" customWidth="1"/>
+    <col min="14602" max="14848" width="8.875" style="27"/>
+    <col min="14849" max="14849" width="3.125" style="27" customWidth="1"/>
+    <col min="14850" max="14850" width="9.75" style="27" customWidth="1"/>
+    <col min="14851" max="14851" width="40.125" style="27" customWidth="1"/>
+    <col min="14852" max="14852" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14854" width="21.625" style="27" customWidth="1"/>
+    <col min="14855" max="14855" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="10.125" style="27" customWidth="1"/>
+    <col min="14857" max="14857" width="11.625" style="27" customWidth="1"/>
+    <col min="14858" max="15104" width="8.875" style="27"/>
+    <col min="15105" max="15105" width="3.125" style="27" customWidth="1"/>
+    <col min="15106" max="15106" width="9.75" style="27" customWidth="1"/>
+    <col min="15107" max="15107" width="40.125" style="27" customWidth="1"/>
+    <col min="15108" max="15108" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15110" width="21.625" style="27" customWidth="1"/>
+    <col min="15111" max="15111" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="10.125" style="27" customWidth="1"/>
+    <col min="15113" max="15113" width="11.625" style="27" customWidth="1"/>
+    <col min="15114" max="15360" width="8.875" style="27"/>
+    <col min="15361" max="15361" width="3.125" style="27" customWidth="1"/>
+    <col min="15362" max="15362" width="9.75" style="27" customWidth="1"/>
+    <col min="15363" max="15363" width="40.125" style="27" customWidth="1"/>
+    <col min="15364" max="15364" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15366" width="21.625" style="27" customWidth="1"/>
+    <col min="15367" max="15367" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="10.125" style="27" customWidth="1"/>
+    <col min="15369" max="15369" width="11.625" style="27" customWidth="1"/>
+    <col min="15370" max="15616" width="8.875" style="27"/>
+    <col min="15617" max="15617" width="3.125" style="27" customWidth="1"/>
+    <col min="15618" max="15618" width="9.75" style="27" customWidth="1"/>
+    <col min="15619" max="15619" width="40.125" style="27" customWidth="1"/>
+    <col min="15620" max="15620" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15622" width="21.625" style="27" customWidth="1"/>
+    <col min="15623" max="15623" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="10.125" style="27" customWidth="1"/>
+    <col min="15625" max="15625" width="11.625" style="27" customWidth="1"/>
+    <col min="15626" max="15872" width="8.875" style="27"/>
+    <col min="15873" max="15873" width="3.125" style="27" customWidth="1"/>
+    <col min="15874" max="15874" width="9.75" style="27" customWidth="1"/>
+    <col min="15875" max="15875" width="40.125" style="27" customWidth="1"/>
+    <col min="15876" max="15876" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15878" width="21.625" style="27" customWidth="1"/>
+    <col min="15879" max="15879" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="10.125" style="27" customWidth="1"/>
+    <col min="15881" max="15881" width="11.625" style="27" customWidth="1"/>
+    <col min="15882" max="16128" width="8.875" style="27"/>
+    <col min="16129" max="16129" width="3.125" style="27" customWidth="1"/>
+    <col min="16130" max="16130" width="9.75" style="27" customWidth="1"/>
+    <col min="16131" max="16131" width="40.125" style="27" customWidth="1"/>
+    <col min="16132" max="16132" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16134" width="21.625" style="27" customWidth="1"/>
+    <col min="16135" max="16135" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="10.125" style="27" customWidth="1"/>
+    <col min="16137" max="16137" width="11.625" style="27" customWidth="1"/>
+    <col min="16138" max="16384" width="8.875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="102" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.15">
+      <c r="B11" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" s="123"/>
+    </row>
+    <row r="12" spans="1:10" ht="83.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="38"/>
+      <c r="B12" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="110" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="I12" s="73">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="38"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="110" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="I13" s="73">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.15">
+      <c r="A14" s="38"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="110" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="I14" s="73">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="38"/>
+      <c r="B15" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="73"/>
+    </row>
+    <row r="16" spans="1:10" ht="73.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="38"/>
+      <c r="B16" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="110" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="I16" s="73">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="38"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="110" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="I17" s="73">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="A18" s="38"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="110" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="I18" s="73">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="38"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="73"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="38"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="73"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="67"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="72"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="113"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12:G21">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A2:T11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.5" style="142" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="32.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2" s="141" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3" s="141"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4" s="141"/>
+    </row>
+    <row r="5" spans="1:20" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="139" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="139" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="139" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="139" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="139" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="139" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" s="139" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" s="139" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5" s="139" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5" s="139" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q5" s="139" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="139" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="139" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="139" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="139" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="139" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="139" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="139" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="139" t="s">
+        <v>261</v>
+      </c>
+      <c r="J6" s="139" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="139" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="139" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="139" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="139" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="139" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" t="s">
+        <v>152</v>
+      </c>
+      <c r="S6" t="s">
+        <v>153</v>
+      </c>
+      <c r="T6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="118" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="143" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="121">
+        <v>1</v>
+      </c>
+      <c r="C7" s="121" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="121" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" s="140" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="140" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="120" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="121">
+        <v>1</v>
+      </c>
+      <c r="I7" s="121">
+        <v>1</v>
+      </c>
+      <c r="J7" s="121">
+        <v>1</v>
+      </c>
+      <c r="K7" s="121">
+        <v>1</v>
+      </c>
+      <c r="L7" s="121">
+        <v>1</v>
+      </c>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121" t="s">
+        <v>267</v>
+      </c>
+      <c r="R7" s="133" t="str">
+        <f>B7&amp;",'"&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"','"&amp;F7&amp;"','"&amp;G7&amp;"','"&amp;H7&amp;"','"&amp;I7&amp;"','"&amp;J7&amp;"','"&amp;K7&amp;"','"&amp;L7&amp;"','"&amp;M7&amp;"','"&amp;N7&amp;"','"&amp;O7&amp;"','"&amp;P7&amp;"','"&amp;Q7&amp;"');"</f>
+        <v>1,'XXCMM002A1103_TestUser368','TestUser368','l_user368','f_user368','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
+      </c>
+      <c r="S7" s="133" t="str">
+        <f>$R$6&amp;$S$6&amp;$T$6&amp;R7</f>
+        <v>INSERT INTO XXCCD_USER_ROLE_TMP (ID,USER_NAME,PERSON_NUMBER,LAST_NAME,FIRST_NAME,ROLE_ASSIGNMENT,SUPPLY_AGENT,LEDGER,DATA_ACCESS,BU,INSTANCE_ID,BEF_SUPPLY_AGENT,BEF_LEDGER,BEF_DATA_ACCESS,BEF_BU,ADD_REMOVE_ROLE) VALUES (1,'XXCMM002A1103_TestUser368','TestUser368','l_user368','f_user368','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="118" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="143" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="121">
+        <v>2</v>
+      </c>
+      <c r="C8" s="121" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="140" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" s="140" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" s="120" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="121">
+        <v>1</v>
+      </c>
+      <c r="I8" s="121">
+        <v>1</v>
+      </c>
+      <c r="J8" s="121">
+        <v>1</v>
+      </c>
+      <c r="K8" s="121">
+        <v>1</v>
+      </c>
+      <c r="L8" s="121">
+        <v>1</v>
+      </c>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121" t="s">
+        <v>267</v>
+      </c>
+      <c r="R8" s="133" t="str">
+        <f t="shared" ref="R8" si="0">B8&amp;",'"&amp;C8&amp;"','"&amp;D8&amp;"','"&amp;E8&amp;"','"&amp;F8&amp;"','"&amp;G8&amp;"','"&amp;H8&amp;"','"&amp;I8&amp;"','"&amp;J8&amp;"','"&amp;K8&amp;"','"&amp;L8&amp;"','"&amp;M8&amp;"','"&amp;N8&amp;"','"&amp;O8&amp;"','"&amp;P8&amp;"','"&amp;Q8&amp;"');"</f>
+        <v>2,'XXCMM002A1103_TestUser369','TestUser369','l_user369','f_user369','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
+      </c>
+      <c r="S8" s="133" t="str">
+        <f>$R$6&amp;$S$6&amp;$T$6&amp;R8</f>
+        <v>INSERT INTO XXCCD_USER_ROLE_TMP (ID,USER_NAME,PERSON_NUMBER,LAST_NAME,FIRST_NAME,ROLE_ASSIGNMENT,SUPPLY_AGENT,LEDGER,DATA_ACCESS,BU,INSTANCE_ID,BEF_SUPPLY_AGENT,BEF_LEDGER,BEF_DATA_ACCESS,BEF_BU,ADD_REMOVE_ROLE) VALUES (2,'XXCMM002A1103_TestUser369','TestUser369','l_user369','f_user369','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A11" s="141"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -15273,7 +17401,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G31" sqref="G31"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16226,7 +18354,432 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
+    <col min="5" max="257" width="9" style="15"/>
+    <col min="258" max="258" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="15.625" style="15" customWidth="1"/>
+    <col min="260" max="260" width="7.625" style="15" customWidth="1"/>
+    <col min="261" max="513" width="9" style="15"/>
+    <col min="514" max="514" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="15.625" style="15" customWidth="1"/>
+    <col min="516" max="516" width="7.625" style="15" customWidth="1"/>
+    <col min="517" max="769" width="9" style="15"/>
+    <col min="770" max="770" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="15.625" style="15" customWidth="1"/>
+    <col min="772" max="772" width="7.625" style="15" customWidth="1"/>
+    <col min="773" max="1025" width="9" style="15"/>
+    <col min="1026" max="1026" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="15.625" style="15" customWidth="1"/>
+    <col min="1028" max="1028" width="7.625" style="15" customWidth="1"/>
+    <col min="1029" max="1281" width="9" style="15"/>
+    <col min="1282" max="1282" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="15.625" style="15" customWidth="1"/>
+    <col min="1284" max="1284" width="7.625" style="15" customWidth="1"/>
+    <col min="1285" max="1537" width="9" style="15"/>
+    <col min="1538" max="1538" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="15.625" style="15" customWidth="1"/>
+    <col min="1540" max="1540" width="7.625" style="15" customWidth="1"/>
+    <col min="1541" max="1793" width="9" style="15"/>
+    <col min="1794" max="1794" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="15.625" style="15" customWidth="1"/>
+    <col min="1796" max="1796" width="7.625" style="15" customWidth="1"/>
+    <col min="1797" max="2049" width="9" style="15"/>
+    <col min="2050" max="2050" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="15.625" style="15" customWidth="1"/>
+    <col min="2052" max="2052" width="7.625" style="15" customWidth="1"/>
+    <col min="2053" max="2305" width="9" style="15"/>
+    <col min="2306" max="2306" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="15.625" style="15" customWidth="1"/>
+    <col min="2308" max="2308" width="7.625" style="15" customWidth="1"/>
+    <col min="2309" max="2561" width="9" style="15"/>
+    <col min="2562" max="2562" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="15.625" style="15" customWidth="1"/>
+    <col min="2564" max="2564" width="7.625" style="15" customWidth="1"/>
+    <col min="2565" max="2817" width="9" style="15"/>
+    <col min="2818" max="2818" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="15.625" style="15" customWidth="1"/>
+    <col min="2820" max="2820" width="7.625" style="15" customWidth="1"/>
+    <col min="2821" max="3073" width="9" style="15"/>
+    <col min="3074" max="3074" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="15.625" style="15" customWidth="1"/>
+    <col min="3076" max="3076" width="7.625" style="15" customWidth="1"/>
+    <col min="3077" max="3329" width="9" style="15"/>
+    <col min="3330" max="3330" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="15.625" style="15" customWidth="1"/>
+    <col min="3332" max="3332" width="7.625" style="15" customWidth="1"/>
+    <col min="3333" max="3585" width="9" style="15"/>
+    <col min="3586" max="3586" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="15.625" style="15" customWidth="1"/>
+    <col min="3588" max="3588" width="7.625" style="15" customWidth="1"/>
+    <col min="3589" max="3841" width="9" style="15"/>
+    <col min="3842" max="3842" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="15.625" style="15" customWidth="1"/>
+    <col min="3844" max="3844" width="7.625" style="15" customWidth="1"/>
+    <col min="3845" max="4097" width="9" style="15"/>
+    <col min="4098" max="4098" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="15.625" style="15" customWidth="1"/>
+    <col min="4100" max="4100" width="7.625" style="15" customWidth="1"/>
+    <col min="4101" max="4353" width="9" style="15"/>
+    <col min="4354" max="4354" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="15.625" style="15" customWidth="1"/>
+    <col min="4356" max="4356" width="7.625" style="15" customWidth="1"/>
+    <col min="4357" max="4609" width="9" style="15"/>
+    <col min="4610" max="4610" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="15.625" style="15" customWidth="1"/>
+    <col min="4612" max="4612" width="7.625" style="15" customWidth="1"/>
+    <col min="4613" max="4865" width="9" style="15"/>
+    <col min="4866" max="4866" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="15.625" style="15" customWidth="1"/>
+    <col min="4868" max="4868" width="7.625" style="15" customWidth="1"/>
+    <col min="4869" max="5121" width="9" style="15"/>
+    <col min="5122" max="5122" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="15.625" style="15" customWidth="1"/>
+    <col min="5124" max="5124" width="7.625" style="15" customWidth="1"/>
+    <col min="5125" max="5377" width="9" style="15"/>
+    <col min="5378" max="5378" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="15.625" style="15" customWidth="1"/>
+    <col min="5380" max="5380" width="7.625" style="15" customWidth="1"/>
+    <col min="5381" max="5633" width="9" style="15"/>
+    <col min="5634" max="5634" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="15.625" style="15" customWidth="1"/>
+    <col min="5636" max="5636" width="7.625" style="15" customWidth="1"/>
+    <col min="5637" max="5889" width="9" style="15"/>
+    <col min="5890" max="5890" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="15.625" style="15" customWidth="1"/>
+    <col min="5892" max="5892" width="7.625" style="15" customWidth="1"/>
+    <col min="5893" max="6145" width="9" style="15"/>
+    <col min="6146" max="6146" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="15.625" style="15" customWidth="1"/>
+    <col min="6148" max="6148" width="7.625" style="15" customWidth="1"/>
+    <col min="6149" max="6401" width="9" style="15"/>
+    <col min="6402" max="6402" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="15.625" style="15" customWidth="1"/>
+    <col min="6404" max="6404" width="7.625" style="15" customWidth="1"/>
+    <col min="6405" max="6657" width="9" style="15"/>
+    <col min="6658" max="6658" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="15.625" style="15" customWidth="1"/>
+    <col min="6660" max="6660" width="7.625" style="15" customWidth="1"/>
+    <col min="6661" max="6913" width="9" style="15"/>
+    <col min="6914" max="6914" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="15.625" style="15" customWidth="1"/>
+    <col min="6916" max="6916" width="7.625" style="15" customWidth="1"/>
+    <col min="6917" max="7169" width="9" style="15"/>
+    <col min="7170" max="7170" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="15.625" style="15" customWidth="1"/>
+    <col min="7172" max="7172" width="7.625" style="15" customWidth="1"/>
+    <col min="7173" max="7425" width="9" style="15"/>
+    <col min="7426" max="7426" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="15.625" style="15" customWidth="1"/>
+    <col min="7428" max="7428" width="7.625" style="15" customWidth="1"/>
+    <col min="7429" max="7681" width="9" style="15"/>
+    <col min="7682" max="7682" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="15.625" style="15" customWidth="1"/>
+    <col min="7684" max="7684" width="7.625" style="15" customWidth="1"/>
+    <col min="7685" max="7937" width="9" style="15"/>
+    <col min="7938" max="7938" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="15.625" style="15" customWidth="1"/>
+    <col min="7940" max="7940" width="7.625" style="15" customWidth="1"/>
+    <col min="7941" max="8193" width="9" style="15"/>
+    <col min="8194" max="8194" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="15.625" style="15" customWidth="1"/>
+    <col min="8196" max="8196" width="7.625" style="15" customWidth="1"/>
+    <col min="8197" max="8449" width="9" style="15"/>
+    <col min="8450" max="8450" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="15.625" style="15" customWidth="1"/>
+    <col min="8452" max="8452" width="7.625" style="15" customWidth="1"/>
+    <col min="8453" max="8705" width="9" style="15"/>
+    <col min="8706" max="8706" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="15.625" style="15" customWidth="1"/>
+    <col min="8708" max="8708" width="7.625" style="15" customWidth="1"/>
+    <col min="8709" max="8961" width="9" style="15"/>
+    <col min="8962" max="8962" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="15.625" style="15" customWidth="1"/>
+    <col min="8964" max="8964" width="7.625" style="15" customWidth="1"/>
+    <col min="8965" max="9217" width="9" style="15"/>
+    <col min="9218" max="9218" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="15.625" style="15" customWidth="1"/>
+    <col min="9220" max="9220" width="7.625" style="15" customWidth="1"/>
+    <col min="9221" max="9473" width="9" style="15"/>
+    <col min="9474" max="9474" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="15.625" style="15" customWidth="1"/>
+    <col min="9476" max="9476" width="7.625" style="15" customWidth="1"/>
+    <col min="9477" max="9729" width="9" style="15"/>
+    <col min="9730" max="9730" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="15.625" style="15" customWidth="1"/>
+    <col min="9732" max="9732" width="7.625" style="15" customWidth="1"/>
+    <col min="9733" max="9985" width="9" style="15"/>
+    <col min="9986" max="9986" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="15.625" style="15" customWidth="1"/>
+    <col min="9988" max="9988" width="7.625" style="15" customWidth="1"/>
+    <col min="9989" max="10241" width="9" style="15"/>
+    <col min="10242" max="10242" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="15.625" style="15" customWidth="1"/>
+    <col min="10244" max="10244" width="7.625" style="15" customWidth="1"/>
+    <col min="10245" max="10497" width="9" style="15"/>
+    <col min="10498" max="10498" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="15.625" style="15" customWidth="1"/>
+    <col min="10500" max="10500" width="7.625" style="15" customWidth="1"/>
+    <col min="10501" max="10753" width="9" style="15"/>
+    <col min="10754" max="10754" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="15.625" style="15" customWidth="1"/>
+    <col min="10756" max="10756" width="7.625" style="15" customWidth="1"/>
+    <col min="10757" max="11009" width="9" style="15"/>
+    <col min="11010" max="11010" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="15.625" style="15" customWidth="1"/>
+    <col min="11012" max="11012" width="7.625" style="15" customWidth="1"/>
+    <col min="11013" max="11265" width="9" style="15"/>
+    <col min="11266" max="11266" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="15.625" style="15" customWidth="1"/>
+    <col min="11268" max="11268" width="7.625" style="15" customWidth="1"/>
+    <col min="11269" max="11521" width="9" style="15"/>
+    <col min="11522" max="11522" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="15.625" style="15" customWidth="1"/>
+    <col min="11524" max="11524" width="7.625" style="15" customWidth="1"/>
+    <col min="11525" max="11777" width="9" style="15"/>
+    <col min="11778" max="11778" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="15.625" style="15" customWidth="1"/>
+    <col min="11780" max="11780" width="7.625" style="15" customWidth="1"/>
+    <col min="11781" max="12033" width="9" style="15"/>
+    <col min="12034" max="12034" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="15.625" style="15" customWidth="1"/>
+    <col min="12036" max="12036" width="7.625" style="15" customWidth="1"/>
+    <col min="12037" max="12289" width="9" style="15"/>
+    <col min="12290" max="12290" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="15.625" style="15" customWidth="1"/>
+    <col min="12292" max="12292" width="7.625" style="15" customWidth="1"/>
+    <col min="12293" max="12545" width="9" style="15"/>
+    <col min="12546" max="12546" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="15.625" style="15" customWidth="1"/>
+    <col min="12548" max="12548" width="7.625" style="15" customWidth="1"/>
+    <col min="12549" max="12801" width="9" style="15"/>
+    <col min="12802" max="12802" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="15.625" style="15" customWidth="1"/>
+    <col min="12804" max="12804" width="7.625" style="15" customWidth="1"/>
+    <col min="12805" max="13057" width="9" style="15"/>
+    <col min="13058" max="13058" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="15.625" style="15" customWidth="1"/>
+    <col min="13060" max="13060" width="7.625" style="15" customWidth="1"/>
+    <col min="13061" max="13313" width="9" style="15"/>
+    <col min="13314" max="13314" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="15.625" style="15" customWidth="1"/>
+    <col min="13316" max="13316" width="7.625" style="15" customWidth="1"/>
+    <col min="13317" max="13569" width="9" style="15"/>
+    <col min="13570" max="13570" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="15.625" style="15" customWidth="1"/>
+    <col min="13572" max="13572" width="7.625" style="15" customWidth="1"/>
+    <col min="13573" max="13825" width="9" style="15"/>
+    <col min="13826" max="13826" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="15.625" style="15" customWidth="1"/>
+    <col min="13828" max="13828" width="7.625" style="15" customWidth="1"/>
+    <col min="13829" max="14081" width="9" style="15"/>
+    <col min="14082" max="14082" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="15.625" style="15" customWidth="1"/>
+    <col min="14084" max="14084" width="7.625" style="15" customWidth="1"/>
+    <col min="14085" max="14337" width="9" style="15"/>
+    <col min="14338" max="14338" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="15.625" style="15" customWidth="1"/>
+    <col min="14340" max="14340" width="7.625" style="15" customWidth="1"/>
+    <col min="14341" max="14593" width="9" style="15"/>
+    <col min="14594" max="14594" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="15.625" style="15" customWidth="1"/>
+    <col min="14596" max="14596" width="7.625" style="15" customWidth="1"/>
+    <col min="14597" max="14849" width="9" style="15"/>
+    <col min="14850" max="14850" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="15.625" style="15" customWidth="1"/>
+    <col min="14852" max="14852" width="7.625" style="15" customWidth="1"/>
+    <col min="14853" max="15105" width="9" style="15"/>
+    <col min="15106" max="15106" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="15.625" style="15" customWidth="1"/>
+    <col min="15108" max="15108" width="7.625" style="15" customWidth="1"/>
+    <col min="15109" max="15361" width="9" style="15"/>
+    <col min="15362" max="15362" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="15.625" style="15" customWidth="1"/>
+    <col min="15364" max="15364" width="7.625" style="15" customWidth="1"/>
+    <col min="15365" max="15617" width="9" style="15"/>
+    <col min="15618" max="15618" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="15.625" style="15" customWidth="1"/>
+    <col min="15620" max="15620" width="7.625" style="15" customWidth="1"/>
+    <col min="15621" max="15873" width="9" style="15"/>
+    <col min="15874" max="15874" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="15.625" style="15" customWidth="1"/>
+    <col min="15876" max="15876" width="7.625" style="15" customWidth="1"/>
+    <col min="15877" max="16129" width="9" style="15"/>
+    <col min="16130" max="16130" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="15.625" style="15" customWidth="1"/>
+    <col min="16132" max="16132" width="7.625" style="15" customWidth="1"/>
+    <col min="16133" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="97"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="86">
+        <v>45013</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="87"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="86">
+        <v>45135</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="87"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="86">
+        <v>45281</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="87"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="86">
+        <v>45314</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="87"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="88"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.86614173228346458" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter xml:space="preserve">&amp;C&amp;10　
+&amp;R
+</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -16558,7 +19111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -17506,414 +20059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
-    <col min="5" max="257" width="9" style="15"/>
-    <col min="258" max="258" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="15.625" style="15" customWidth="1"/>
-    <col min="260" max="260" width="7.625" style="15" customWidth="1"/>
-    <col min="261" max="513" width="9" style="15"/>
-    <col min="514" max="514" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="15.625" style="15" customWidth="1"/>
-    <col min="516" max="516" width="7.625" style="15" customWidth="1"/>
-    <col min="517" max="769" width="9" style="15"/>
-    <col min="770" max="770" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="15.625" style="15" customWidth="1"/>
-    <col min="772" max="772" width="7.625" style="15" customWidth="1"/>
-    <col min="773" max="1025" width="9" style="15"/>
-    <col min="1026" max="1026" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="15.625" style="15" customWidth="1"/>
-    <col min="1028" max="1028" width="7.625" style="15" customWidth="1"/>
-    <col min="1029" max="1281" width="9" style="15"/>
-    <col min="1282" max="1282" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="15.625" style="15" customWidth="1"/>
-    <col min="1284" max="1284" width="7.625" style="15" customWidth="1"/>
-    <col min="1285" max="1537" width="9" style="15"/>
-    <col min="1538" max="1538" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="15.625" style="15" customWidth="1"/>
-    <col min="1540" max="1540" width="7.625" style="15" customWidth="1"/>
-    <col min="1541" max="1793" width="9" style="15"/>
-    <col min="1794" max="1794" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="15.625" style="15" customWidth="1"/>
-    <col min="1796" max="1796" width="7.625" style="15" customWidth="1"/>
-    <col min="1797" max="2049" width="9" style="15"/>
-    <col min="2050" max="2050" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="15.625" style="15" customWidth="1"/>
-    <col min="2052" max="2052" width="7.625" style="15" customWidth="1"/>
-    <col min="2053" max="2305" width="9" style="15"/>
-    <col min="2306" max="2306" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="15.625" style="15" customWidth="1"/>
-    <col min="2308" max="2308" width="7.625" style="15" customWidth="1"/>
-    <col min="2309" max="2561" width="9" style="15"/>
-    <col min="2562" max="2562" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="15.625" style="15" customWidth="1"/>
-    <col min="2564" max="2564" width="7.625" style="15" customWidth="1"/>
-    <col min="2565" max="2817" width="9" style="15"/>
-    <col min="2818" max="2818" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="15.625" style="15" customWidth="1"/>
-    <col min="2820" max="2820" width="7.625" style="15" customWidth="1"/>
-    <col min="2821" max="3073" width="9" style="15"/>
-    <col min="3074" max="3074" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="15.625" style="15" customWidth="1"/>
-    <col min="3076" max="3076" width="7.625" style="15" customWidth="1"/>
-    <col min="3077" max="3329" width="9" style="15"/>
-    <col min="3330" max="3330" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="15.625" style="15" customWidth="1"/>
-    <col min="3332" max="3332" width="7.625" style="15" customWidth="1"/>
-    <col min="3333" max="3585" width="9" style="15"/>
-    <col min="3586" max="3586" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="15.625" style="15" customWidth="1"/>
-    <col min="3588" max="3588" width="7.625" style="15" customWidth="1"/>
-    <col min="3589" max="3841" width="9" style="15"/>
-    <col min="3842" max="3842" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="15.625" style="15" customWidth="1"/>
-    <col min="3844" max="3844" width="7.625" style="15" customWidth="1"/>
-    <col min="3845" max="4097" width="9" style="15"/>
-    <col min="4098" max="4098" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="15.625" style="15" customWidth="1"/>
-    <col min="4100" max="4100" width="7.625" style="15" customWidth="1"/>
-    <col min="4101" max="4353" width="9" style="15"/>
-    <col min="4354" max="4354" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="15.625" style="15" customWidth="1"/>
-    <col min="4356" max="4356" width="7.625" style="15" customWidth="1"/>
-    <col min="4357" max="4609" width="9" style="15"/>
-    <col min="4610" max="4610" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="15.625" style="15" customWidth="1"/>
-    <col min="4612" max="4612" width="7.625" style="15" customWidth="1"/>
-    <col min="4613" max="4865" width="9" style="15"/>
-    <col min="4866" max="4866" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="15.625" style="15" customWidth="1"/>
-    <col min="4868" max="4868" width="7.625" style="15" customWidth="1"/>
-    <col min="4869" max="5121" width="9" style="15"/>
-    <col min="5122" max="5122" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="15.625" style="15" customWidth="1"/>
-    <col min="5124" max="5124" width="7.625" style="15" customWidth="1"/>
-    <col min="5125" max="5377" width="9" style="15"/>
-    <col min="5378" max="5378" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="15.625" style="15" customWidth="1"/>
-    <col min="5380" max="5380" width="7.625" style="15" customWidth="1"/>
-    <col min="5381" max="5633" width="9" style="15"/>
-    <col min="5634" max="5634" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="15.625" style="15" customWidth="1"/>
-    <col min="5636" max="5636" width="7.625" style="15" customWidth="1"/>
-    <col min="5637" max="5889" width="9" style="15"/>
-    <col min="5890" max="5890" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="15.625" style="15" customWidth="1"/>
-    <col min="5892" max="5892" width="7.625" style="15" customWidth="1"/>
-    <col min="5893" max="6145" width="9" style="15"/>
-    <col min="6146" max="6146" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="15.625" style="15" customWidth="1"/>
-    <col min="6148" max="6148" width="7.625" style="15" customWidth="1"/>
-    <col min="6149" max="6401" width="9" style="15"/>
-    <col min="6402" max="6402" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="15.625" style="15" customWidth="1"/>
-    <col min="6404" max="6404" width="7.625" style="15" customWidth="1"/>
-    <col min="6405" max="6657" width="9" style="15"/>
-    <col min="6658" max="6658" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="15.625" style="15" customWidth="1"/>
-    <col min="6660" max="6660" width="7.625" style="15" customWidth="1"/>
-    <col min="6661" max="6913" width="9" style="15"/>
-    <col min="6914" max="6914" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="15.625" style="15" customWidth="1"/>
-    <col min="6916" max="6916" width="7.625" style="15" customWidth="1"/>
-    <col min="6917" max="7169" width="9" style="15"/>
-    <col min="7170" max="7170" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="15.625" style="15" customWidth="1"/>
-    <col min="7172" max="7172" width="7.625" style="15" customWidth="1"/>
-    <col min="7173" max="7425" width="9" style="15"/>
-    <col min="7426" max="7426" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="15.625" style="15" customWidth="1"/>
-    <col min="7428" max="7428" width="7.625" style="15" customWidth="1"/>
-    <col min="7429" max="7681" width="9" style="15"/>
-    <col min="7682" max="7682" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="15.625" style="15" customWidth="1"/>
-    <col min="7684" max="7684" width="7.625" style="15" customWidth="1"/>
-    <col min="7685" max="7937" width="9" style="15"/>
-    <col min="7938" max="7938" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="15.625" style="15" customWidth="1"/>
-    <col min="7940" max="7940" width="7.625" style="15" customWidth="1"/>
-    <col min="7941" max="8193" width="9" style="15"/>
-    <col min="8194" max="8194" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="15.625" style="15" customWidth="1"/>
-    <col min="8196" max="8196" width="7.625" style="15" customWidth="1"/>
-    <col min="8197" max="8449" width="9" style="15"/>
-    <col min="8450" max="8450" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="15.625" style="15" customWidth="1"/>
-    <col min="8452" max="8452" width="7.625" style="15" customWidth="1"/>
-    <col min="8453" max="8705" width="9" style="15"/>
-    <col min="8706" max="8706" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="15.625" style="15" customWidth="1"/>
-    <col min="8708" max="8708" width="7.625" style="15" customWidth="1"/>
-    <col min="8709" max="8961" width="9" style="15"/>
-    <col min="8962" max="8962" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="15.625" style="15" customWidth="1"/>
-    <col min="8964" max="8964" width="7.625" style="15" customWidth="1"/>
-    <col min="8965" max="9217" width="9" style="15"/>
-    <col min="9218" max="9218" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="15.625" style="15" customWidth="1"/>
-    <col min="9220" max="9220" width="7.625" style="15" customWidth="1"/>
-    <col min="9221" max="9473" width="9" style="15"/>
-    <col min="9474" max="9474" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="15.625" style="15" customWidth="1"/>
-    <col min="9476" max="9476" width="7.625" style="15" customWidth="1"/>
-    <col min="9477" max="9729" width="9" style="15"/>
-    <col min="9730" max="9730" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="15.625" style="15" customWidth="1"/>
-    <col min="9732" max="9732" width="7.625" style="15" customWidth="1"/>
-    <col min="9733" max="9985" width="9" style="15"/>
-    <col min="9986" max="9986" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="15.625" style="15" customWidth="1"/>
-    <col min="9988" max="9988" width="7.625" style="15" customWidth="1"/>
-    <col min="9989" max="10241" width="9" style="15"/>
-    <col min="10242" max="10242" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="15.625" style="15" customWidth="1"/>
-    <col min="10244" max="10244" width="7.625" style="15" customWidth="1"/>
-    <col min="10245" max="10497" width="9" style="15"/>
-    <col min="10498" max="10498" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="15.625" style="15" customWidth="1"/>
-    <col min="10500" max="10500" width="7.625" style="15" customWidth="1"/>
-    <col min="10501" max="10753" width="9" style="15"/>
-    <col min="10754" max="10754" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="15.625" style="15" customWidth="1"/>
-    <col min="10756" max="10756" width="7.625" style="15" customWidth="1"/>
-    <col min="10757" max="11009" width="9" style="15"/>
-    <col min="11010" max="11010" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="15.625" style="15" customWidth="1"/>
-    <col min="11012" max="11012" width="7.625" style="15" customWidth="1"/>
-    <col min="11013" max="11265" width="9" style="15"/>
-    <col min="11266" max="11266" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="15.625" style="15" customWidth="1"/>
-    <col min="11268" max="11268" width="7.625" style="15" customWidth="1"/>
-    <col min="11269" max="11521" width="9" style="15"/>
-    <col min="11522" max="11522" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="15.625" style="15" customWidth="1"/>
-    <col min="11524" max="11524" width="7.625" style="15" customWidth="1"/>
-    <col min="11525" max="11777" width="9" style="15"/>
-    <col min="11778" max="11778" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="15.625" style="15" customWidth="1"/>
-    <col min="11780" max="11780" width="7.625" style="15" customWidth="1"/>
-    <col min="11781" max="12033" width="9" style="15"/>
-    <col min="12034" max="12034" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="15.625" style="15" customWidth="1"/>
-    <col min="12036" max="12036" width="7.625" style="15" customWidth="1"/>
-    <col min="12037" max="12289" width="9" style="15"/>
-    <col min="12290" max="12290" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="15.625" style="15" customWidth="1"/>
-    <col min="12292" max="12292" width="7.625" style="15" customWidth="1"/>
-    <col min="12293" max="12545" width="9" style="15"/>
-    <col min="12546" max="12546" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="15.625" style="15" customWidth="1"/>
-    <col min="12548" max="12548" width="7.625" style="15" customWidth="1"/>
-    <col min="12549" max="12801" width="9" style="15"/>
-    <col min="12802" max="12802" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="15.625" style="15" customWidth="1"/>
-    <col min="12804" max="12804" width="7.625" style="15" customWidth="1"/>
-    <col min="12805" max="13057" width="9" style="15"/>
-    <col min="13058" max="13058" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="15.625" style="15" customWidth="1"/>
-    <col min="13060" max="13060" width="7.625" style="15" customWidth="1"/>
-    <col min="13061" max="13313" width="9" style="15"/>
-    <col min="13314" max="13314" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="15.625" style="15" customWidth="1"/>
-    <col min="13316" max="13316" width="7.625" style="15" customWidth="1"/>
-    <col min="13317" max="13569" width="9" style="15"/>
-    <col min="13570" max="13570" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="15.625" style="15" customWidth="1"/>
-    <col min="13572" max="13572" width="7.625" style="15" customWidth="1"/>
-    <col min="13573" max="13825" width="9" style="15"/>
-    <col min="13826" max="13826" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="15.625" style="15" customWidth="1"/>
-    <col min="13828" max="13828" width="7.625" style="15" customWidth="1"/>
-    <col min="13829" max="14081" width="9" style="15"/>
-    <col min="14082" max="14082" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="15.625" style="15" customWidth="1"/>
-    <col min="14084" max="14084" width="7.625" style="15" customWidth="1"/>
-    <col min="14085" max="14337" width="9" style="15"/>
-    <col min="14338" max="14338" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="15.625" style="15" customWidth="1"/>
-    <col min="14340" max="14340" width="7.625" style="15" customWidth="1"/>
-    <col min="14341" max="14593" width="9" style="15"/>
-    <col min="14594" max="14594" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="15.625" style="15" customWidth="1"/>
-    <col min="14596" max="14596" width="7.625" style="15" customWidth="1"/>
-    <col min="14597" max="14849" width="9" style="15"/>
-    <col min="14850" max="14850" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="15.625" style="15" customWidth="1"/>
-    <col min="14852" max="14852" width="7.625" style="15" customWidth="1"/>
-    <col min="14853" max="15105" width="9" style="15"/>
-    <col min="15106" max="15106" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="15.625" style="15" customWidth="1"/>
-    <col min="15108" max="15108" width="7.625" style="15" customWidth="1"/>
-    <col min="15109" max="15361" width="9" style="15"/>
-    <col min="15362" max="15362" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="15.625" style="15" customWidth="1"/>
-    <col min="15364" max="15364" width="7.625" style="15" customWidth="1"/>
-    <col min="15365" max="15617" width="9" style="15"/>
-    <col min="15618" max="15618" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="15.625" style="15" customWidth="1"/>
-    <col min="15620" max="15620" width="7.625" style="15" customWidth="1"/>
-    <col min="15621" max="15873" width="9" style="15"/>
-    <col min="15874" max="15874" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="15.625" style="15" customWidth="1"/>
-    <col min="15876" max="15876" width="7.625" style="15" customWidth="1"/>
-    <col min="15877" max="16129" width="9" style="15"/>
-    <col min="16130" max="16130" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="15.625" style="15" customWidth="1"/>
-    <col min="16132" max="16132" width="7.625" style="15" customWidth="1"/>
-    <col min="16133" max="16384" width="9" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="95" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="97"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="86">
-        <v>45013</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="87"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="86">
-        <v>45135</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="87"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="86">
-        <v>45281</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="87"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="88"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="93"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.86614173228346458" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter xml:space="preserve">&amp;C&amp;10　
-&amp;R
-</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -18197,7 +20343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
@@ -18831,7 +20977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
@@ -19830,7 +21976,7 @@
         <v>114</v>
       </c>
       <c r="E7" s="81" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="F7" s="79"/>
     </row>
@@ -20368,6 +22514,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E19" sqref="E19"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -20382,7 +22529,7 @@
     <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
     <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
-    <col min="10" max="256" width="8.875" style="27"/>
+    <col min="10" max="256" width="9" style="27"/>
     <col min="257" max="257" width="3.125" style="27" customWidth="1"/>
     <col min="258" max="258" width="9.75" style="27" customWidth="1"/>
     <col min="259" max="259" width="40.125" style="27" customWidth="1"/>
@@ -20391,7 +22538,7 @@
     <col min="263" max="263" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="264" max="264" width="10.125" style="27" customWidth="1"/>
     <col min="265" max="265" width="11.625" style="27" customWidth="1"/>
-    <col min="266" max="512" width="8.875" style="27"/>
+    <col min="266" max="512" width="9" style="27"/>
     <col min="513" max="513" width="3.125" style="27" customWidth="1"/>
     <col min="514" max="514" width="9.75" style="27" customWidth="1"/>
     <col min="515" max="515" width="40.125" style="27" customWidth="1"/>
@@ -20400,7 +22547,7 @@
     <col min="519" max="519" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="520" max="520" width="10.125" style="27" customWidth="1"/>
     <col min="521" max="521" width="11.625" style="27" customWidth="1"/>
-    <col min="522" max="768" width="8.875" style="27"/>
+    <col min="522" max="768" width="9" style="27"/>
     <col min="769" max="769" width="3.125" style="27" customWidth="1"/>
     <col min="770" max="770" width="9.75" style="27" customWidth="1"/>
     <col min="771" max="771" width="40.125" style="27" customWidth="1"/>
@@ -20409,7 +22556,7 @@
     <col min="775" max="775" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="776" max="776" width="10.125" style="27" customWidth="1"/>
     <col min="777" max="777" width="11.625" style="27" customWidth="1"/>
-    <col min="778" max="1024" width="8.875" style="27"/>
+    <col min="778" max="1024" width="9" style="27"/>
     <col min="1025" max="1025" width="3.125" style="27" customWidth="1"/>
     <col min="1026" max="1026" width="9.75" style="27" customWidth="1"/>
     <col min="1027" max="1027" width="40.125" style="27" customWidth="1"/>
@@ -20418,7 +22565,7 @@
     <col min="1031" max="1031" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="1032" max="1032" width="10.125" style="27" customWidth="1"/>
     <col min="1033" max="1033" width="11.625" style="27" customWidth="1"/>
-    <col min="1034" max="1280" width="8.875" style="27"/>
+    <col min="1034" max="1280" width="9" style="27"/>
     <col min="1281" max="1281" width="3.125" style="27" customWidth="1"/>
     <col min="1282" max="1282" width="9.75" style="27" customWidth="1"/>
     <col min="1283" max="1283" width="40.125" style="27" customWidth="1"/>
@@ -20427,7 +22574,7 @@
     <col min="1287" max="1287" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="1288" max="1288" width="10.125" style="27" customWidth="1"/>
     <col min="1289" max="1289" width="11.625" style="27" customWidth="1"/>
-    <col min="1290" max="1536" width="8.875" style="27"/>
+    <col min="1290" max="1536" width="9" style="27"/>
     <col min="1537" max="1537" width="3.125" style="27" customWidth="1"/>
     <col min="1538" max="1538" width="9.75" style="27" customWidth="1"/>
     <col min="1539" max="1539" width="40.125" style="27" customWidth="1"/>
@@ -20436,7 +22583,7 @@
     <col min="1543" max="1543" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="1544" max="1544" width="10.125" style="27" customWidth="1"/>
     <col min="1545" max="1545" width="11.625" style="27" customWidth="1"/>
-    <col min="1546" max="1792" width="8.875" style="27"/>
+    <col min="1546" max="1792" width="9" style="27"/>
     <col min="1793" max="1793" width="3.125" style="27" customWidth="1"/>
     <col min="1794" max="1794" width="9.75" style="27" customWidth="1"/>
     <col min="1795" max="1795" width="40.125" style="27" customWidth="1"/>
@@ -20445,7 +22592,7 @@
     <col min="1799" max="1799" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="1800" max="1800" width="10.125" style="27" customWidth="1"/>
     <col min="1801" max="1801" width="11.625" style="27" customWidth="1"/>
-    <col min="1802" max="2048" width="8.875" style="27"/>
+    <col min="1802" max="2048" width="9" style="27"/>
     <col min="2049" max="2049" width="3.125" style="27" customWidth="1"/>
     <col min="2050" max="2050" width="9.75" style="27" customWidth="1"/>
     <col min="2051" max="2051" width="40.125" style="27" customWidth="1"/>
@@ -20454,7 +22601,7 @@
     <col min="2055" max="2055" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="2056" max="2056" width="10.125" style="27" customWidth="1"/>
     <col min="2057" max="2057" width="11.625" style="27" customWidth="1"/>
-    <col min="2058" max="2304" width="8.875" style="27"/>
+    <col min="2058" max="2304" width="9" style="27"/>
     <col min="2305" max="2305" width="3.125" style="27" customWidth="1"/>
     <col min="2306" max="2306" width="9.75" style="27" customWidth="1"/>
     <col min="2307" max="2307" width="40.125" style="27" customWidth="1"/>
@@ -20463,7 +22610,7 @@
     <col min="2311" max="2311" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="2312" max="2312" width="10.125" style="27" customWidth="1"/>
     <col min="2313" max="2313" width="11.625" style="27" customWidth="1"/>
-    <col min="2314" max="2560" width="8.875" style="27"/>
+    <col min="2314" max="2560" width="9" style="27"/>
     <col min="2561" max="2561" width="3.125" style="27" customWidth="1"/>
     <col min="2562" max="2562" width="9.75" style="27" customWidth="1"/>
     <col min="2563" max="2563" width="40.125" style="27" customWidth="1"/>
@@ -20472,7 +22619,7 @@
     <col min="2567" max="2567" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="2568" max="2568" width="10.125" style="27" customWidth="1"/>
     <col min="2569" max="2569" width="11.625" style="27" customWidth="1"/>
-    <col min="2570" max="2816" width="8.875" style="27"/>
+    <col min="2570" max="2816" width="9" style="27"/>
     <col min="2817" max="2817" width="3.125" style="27" customWidth="1"/>
     <col min="2818" max="2818" width="9.75" style="27" customWidth="1"/>
     <col min="2819" max="2819" width="40.125" style="27" customWidth="1"/>
@@ -20481,7 +22628,7 @@
     <col min="2823" max="2823" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="2824" max="2824" width="10.125" style="27" customWidth="1"/>
     <col min="2825" max="2825" width="11.625" style="27" customWidth="1"/>
-    <col min="2826" max="3072" width="8.875" style="27"/>
+    <col min="2826" max="3072" width="9" style="27"/>
     <col min="3073" max="3073" width="3.125" style="27" customWidth="1"/>
     <col min="3074" max="3074" width="9.75" style="27" customWidth="1"/>
     <col min="3075" max="3075" width="40.125" style="27" customWidth="1"/>
@@ -20490,7 +22637,7 @@
     <col min="3079" max="3079" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="3080" max="3080" width="10.125" style="27" customWidth="1"/>
     <col min="3081" max="3081" width="11.625" style="27" customWidth="1"/>
-    <col min="3082" max="3328" width="8.875" style="27"/>
+    <col min="3082" max="3328" width="9" style="27"/>
     <col min="3329" max="3329" width="3.125" style="27" customWidth="1"/>
     <col min="3330" max="3330" width="9.75" style="27" customWidth="1"/>
     <col min="3331" max="3331" width="40.125" style="27" customWidth="1"/>
@@ -20499,7 +22646,7 @@
     <col min="3335" max="3335" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="3336" max="3336" width="10.125" style="27" customWidth="1"/>
     <col min="3337" max="3337" width="11.625" style="27" customWidth="1"/>
-    <col min="3338" max="3584" width="8.875" style="27"/>
+    <col min="3338" max="3584" width="9" style="27"/>
     <col min="3585" max="3585" width="3.125" style="27" customWidth="1"/>
     <col min="3586" max="3586" width="9.75" style="27" customWidth="1"/>
     <col min="3587" max="3587" width="40.125" style="27" customWidth="1"/>
@@ -20508,7 +22655,7 @@
     <col min="3591" max="3591" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="3592" max="3592" width="10.125" style="27" customWidth="1"/>
     <col min="3593" max="3593" width="11.625" style="27" customWidth="1"/>
-    <col min="3594" max="3840" width="8.875" style="27"/>
+    <col min="3594" max="3840" width="9" style="27"/>
     <col min="3841" max="3841" width="3.125" style="27" customWidth="1"/>
     <col min="3842" max="3842" width="9.75" style="27" customWidth="1"/>
     <col min="3843" max="3843" width="40.125" style="27" customWidth="1"/>
@@ -20517,7 +22664,7 @@
     <col min="3847" max="3847" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="3848" max="3848" width="10.125" style="27" customWidth="1"/>
     <col min="3849" max="3849" width="11.625" style="27" customWidth="1"/>
-    <col min="3850" max="4096" width="8.875" style="27"/>
+    <col min="3850" max="4096" width="9" style="27"/>
     <col min="4097" max="4097" width="3.125" style="27" customWidth="1"/>
     <col min="4098" max="4098" width="9.75" style="27" customWidth="1"/>
     <col min="4099" max="4099" width="40.125" style="27" customWidth="1"/>
@@ -20526,7 +22673,7 @@
     <col min="4103" max="4103" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="4104" max="4104" width="10.125" style="27" customWidth="1"/>
     <col min="4105" max="4105" width="11.625" style="27" customWidth="1"/>
-    <col min="4106" max="4352" width="8.875" style="27"/>
+    <col min="4106" max="4352" width="9" style="27"/>
     <col min="4353" max="4353" width="3.125" style="27" customWidth="1"/>
     <col min="4354" max="4354" width="9.75" style="27" customWidth="1"/>
     <col min="4355" max="4355" width="40.125" style="27" customWidth="1"/>
@@ -20535,7 +22682,7 @@
     <col min="4359" max="4359" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="4360" max="4360" width="10.125" style="27" customWidth="1"/>
     <col min="4361" max="4361" width="11.625" style="27" customWidth="1"/>
-    <col min="4362" max="4608" width="8.875" style="27"/>
+    <col min="4362" max="4608" width="9" style="27"/>
     <col min="4609" max="4609" width="3.125" style="27" customWidth="1"/>
     <col min="4610" max="4610" width="9.75" style="27" customWidth="1"/>
     <col min="4611" max="4611" width="40.125" style="27" customWidth="1"/>
@@ -20544,7 +22691,7 @@
     <col min="4615" max="4615" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="4616" max="4616" width="10.125" style="27" customWidth="1"/>
     <col min="4617" max="4617" width="11.625" style="27" customWidth="1"/>
-    <col min="4618" max="4864" width="8.875" style="27"/>
+    <col min="4618" max="4864" width="9" style="27"/>
     <col min="4865" max="4865" width="3.125" style="27" customWidth="1"/>
     <col min="4866" max="4866" width="9.75" style="27" customWidth="1"/>
     <col min="4867" max="4867" width="40.125" style="27" customWidth="1"/>
@@ -20553,7 +22700,7 @@
     <col min="4871" max="4871" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="4872" max="4872" width="10.125" style="27" customWidth="1"/>
     <col min="4873" max="4873" width="11.625" style="27" customWidth="1"/>
-    <col min="4874" max="5120" width="8.875" style="27"/>
+    <col min="4874" max="5120" width="9" style="27"/>
     <col min="5121" max="5121" width="3.125" style="27" customWidth="1"/>
     <col min="5122" max="5122" width="9.75" style="27" customWidth="1"/>
     <col min="5123" max="5123" width="40.125" style="27" customWidth="1"/>
@@ -20562,7 +22709,7 @@
     <col min="5127" max="5127" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="5128" max="5128" width="10.125" style="27" customWidth="1"/>
     <col min="5129" max="5129" width="11.625" style="27" customWidth="1"/>
-    <col min="5130" max="5376" width="8.875" style="27"/>
+    <col min="5130" max="5376" width="9" style="27"/>
     <col min="5377" max="5377" width="3.125" style="27" customWidth="1"/>
     <col min="5378" max="5378" width="9.75" style="27" customWidth="1"/>
     <col min="5379" max="5379" width="40.125" style="27" customWidth="1"/>
@@ -20571,7 +22718,7 @@
     <col min="5383" max="5383" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="5384" max="5384" width="10.125" style="27" customWidth="1"/>
     <col min="5385" max="5385" width="11.625" style="27" customWidth="1"/>
-    <col min="5386" max="5632" width="8.875" style="27"/>
+    <col min="5386" max="5632" width="9" style="27"/>
     <col min="5633" max="5633" width="3.125" style="27" customWidth="1"/>
     <col min="5634" max="5634" width="9.75" style="27" customWidth="1"/>
     <col min="5635" max="5635" width="40.125" style="27" customWidth="1"/>
@@ -20580,7 +22727,7 @@
     <col min="5639" max="5639" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="5640" max="5640" width="10.125" style="27" customWidth="1"/>
     <col min="5641" max="5641" width="11.625" style="27" customWidth="1"/>
-    <col min="5642" max="5888" width="8.875" style="27"/>
+    <col min="5642" max="5888" width="9" style="27"/>
     <col min="5889" max="5889" width="3.125" style="27" customWidth="1"/>
     <col min="5890" max="5890" width="9.75" style="27" customWidth="1"/>
     <col min="5891" max="5891" width="40.125" style="27" customWidth="1"/>
@@ -20589,7 +22736,7 @@
     <col min="5895" max="5895" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="5896" max="5896" width="10.125" style="27" customWidth="1"/>
     <col min="5897" max="5897" width="11.625" style="27" customWidth="1"/>
-    <col min="5898" max="6144" width="8.875" style="27"/>
+    <col min="5898" max="6144" width="9" style="27"/>
     <col min="6145" max="6145" width="3.125" style="27" customWidth="1"/>
     <col min="6146" max="6146" width="9.75" style="27" customWidth="1"/>
     <col min="6147" max="6147" width="40.125" style="27" customWidth="1"/>
@@ -20598,7 +22745,7 @@
     <col min="6151" max="6151" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="6152" max="6152" width="10.125" style="27" customWidth="1"/>
     <col min="6153" max="6153" width="11.625" style="27" customWidth="1"/>
-    <col min="6154" max="6400" width="8.875" style="27"/>
+    <col min="6154" max="6400" width="9" style="27"/>
     <col min="6401" max="6401" width="3.125" style="27" customWidth="1"/>
     <col min="6402" max="6402" width="9.75" style="27" customWidth="1"/>
     <col min="6403" max="6403" width="40.125" style="27" customWidth="1"/>
@@ -20607,7 +22754,7 @@
     <col min="6407" max="6407" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="6408" max="6408" width="10.125" style="27" customWidth="1"/>
     <col min="6409" max="6409" width="11.625" style="27" customWidth="1"/>
-    <col min="6410" max="6656" width="8.875" style="27"/>
+    <col min="6410" max="6656" width="9" style="27"/>
     <col min="6657" max="6657" width="3.125" style="27" customWidth="1"/>
     <col min="6658" max="6658" width="9.75" style="27" customWidth="1"/>
     <col min="6659" max="6659" width="40.125" style="27" customWidth="1"/>
@@ -20616,7 +22763,7 @@
     <col min="6663" max="6663" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="6664" max="6664" width="10.125" style="27" customWidth="1"/>
     <col min="6665" max="6665" width="11.625" style="27" customWidth="1"/>
-    <col min="6666" max="6912" width="8.875" style="27"/>
+    <col min="6666" max="6912" width="9" style="27"/>
     <col min="6913" max="6913" width="3.125" style="27" customWidth="1"/>
     <col min="6914" max="6914" width="9.75" style="27" customWidth="1"/>
     <col min="6915" max="6915" width="40.125" style="27" customWidth="1"/>
@@ -20625,7 +22772,7 @@
     <col min="6919" max="6919" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="6920" max="6920" width="10.125" style="27" customWidth="1"/>
     <col min="6921" max="6921" width="11.625" style="27" customWidth="1"/>
-    <col min="6922" max="7168" width="8.875" style="27"/>
+    <col min="6922" max="7168" width="9" style="27"/>
     <col min="7169" max="7169" width="3.125" style="27" customWidth="1"/>
     <col min="7170" max="7170" width="9.75" style="27" customWidth="1"/>
     <col min="7171" max="7171" width="40.125" style="27" customWidth="1"/>
@@ -20634,7 +22781,7 @@
     <col min="7175" max="7175" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="7176" max="7176" width="10.125" style="27" customWidth="1"/>
     <col min="7177" max="7177" width="11.625" style="27" customWidth="1"/>
-    <col min="7178" max="7424" width="8.875" style="27"/>
+    <col min="7178" max="7424" width="9" style="27"/>
     <col min="7425" max="7425" width="3.125" style="27" customWidth="1"/>
     <col min="7426" max="7426" width="9.75" style="27" customWidth="1"/>
     <col min="7427" max="7427" width="40.125" style="27" customWidth="1"/>
@@ -20643,7 +22790,7 @@
     <col min="7431" max="7431" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="7432" max="7432" width="10.125" style="27" customWidth="1"/>
     <col min="7433" max="7433" width="11.625" style="27" customWidth="1"/>
-    <col min="7434" max="7680" width="8.875" style="27"/>
+    <col min="7434" max="7680" width="9" style="27"/>
     <col min="7681" max="7681" width="3.125" style="27" customWidth="1"/>
     <col min="7682" max="7682" width="9.75" style="27" customWidth="1"/>
     <col min="7683" max="7683" width="40.125" style="27" customWidth="1"/>
@@ -20652,7 +22799,7 @@
     <col min="7687" max="7687" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="7688" max="7688" width="10.125" style="27" customWidth="1"/>
     <col min="7689" max="7689" width="11.625" style="27" customWidth="1"/>
-    <col min="7690" max="7936" width="8.875" style="27"/>
+    <col min="7690" max="7936" width="9" style="27"/>
     <col min="7937" max="7937" width="3.125" style="27" customWidth="1"/>
     <col min="7938" max="7938" width="9.75" style="27" customWidth="1"/>
     <col min="7939" max="7939" width="40.125" style="27" customWidth="1"/>
@@ -20661,7 +22808,7 @@
     <col min="7943" max="7943" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="7944" max="7944" width="10.125" style="27" customWidth="1"/>
     <col min="7945" max="7945" width="11.625" style="27" customWidth="1"/>
-    <col min="7946" max="8192" width="8.875" style="27"/>
+    <col min="7946" max="8192" width="9" style="27"/>
     <col min="8193" max="8193" width="3.125" style="27" customWidth="1"/>
     <col min="8194" max="8194" width="9.75" style="27" customWidth="1"/>
     <col min="8195" max="8195" width="40.125" style="27" customWidth="1"/>
@@ -20670,7 +22817,7 @@
     <col min="8199" max="8199" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="8200" max="8200" width="10.125" style="27" customWidth="1"/>
     <col min="8201" max="8201" width="11.625" style="27" customWidth="1"/>
-    <col min="8202" max="8448" width="8.875" style="27"/>
+    <col min="8202" max="8448" width="9" style="27"/>
     <col min="8449" max="8449" width="3.125" style="27" customWidth="1"/>
     <col min="8450" max="8450" width="9.75" style="27" customWidth="1"/>
     <col min="8451" max="8451" width="40.125" style="27" customWidth="1"/>
@@ -20679,7 +22826,7 @@
     <col min="8455" max="8455" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="8456" max="8456" width="10.125" style="27" customWidth="1"/>
     <col min="8457" max="8457" width="11.625" style="27" customWidth="1"/>
-    <col min="8458" max="8704" width="8.875" style="27"/>
+    <col min="8458" max="8704" width="9" style="27"/>
     <col min="8705" max="8705" width="3.125" style="27" customWidth="1"/>
     <col min="8706" max="8706" width="9.75" style="27" customWidth="1"/>
     <col min="8707" max="8707" width="40.125" style="27" customWidth="1"/>
@@ -20688,7 +22835,7 @@
     <col min="8711" max="8711" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="8712" max="8712" width="10.125" style="27" customWidth="1"/>
     <col min="8713" max="8713" width="11.625" style="27" customWidth="1"/>
-    <col min="8714" max="8960" width="8.875" style="27"/>
+    <col min="8714" max="8960" width="9" style="27"/>
     <col min="8961" max="8961" width="3.125" style="27" customWidth="1"/>
     <col min="8962" max="8962" width="9.75" style="27" customWidth="1"/>
     <col min="8963" max="8963" width="40.125" style="27" customWidth="1"/>
@@ -20697,7 +22844,7 @@
     <col min="8967" max="8967" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="8968" max="8968" width="10.125" style="27" customWidth="1"/>
     <col min="8969" max="8969" width="11.625" style="27" customWidth="1"/>
-    <col min="8970" max="9216" width="8.875" style="27"/>
+    <col min="8970" max="9216" width="9" style="27"/>
     <col min="9217" max="9217" width="3.125" style="27" customWidth="1"/>
     <col min="9218" max="9218" width="9.75" style="27" customWidth="1"/>
     <col min="9219" max="9219" width="40.125" style="27" customWidth="1"/>
@@ -20706,7 +22853,7 @@
     <col min="9223" max="9223" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="9224" max="9224" width="10.125" style="27" customWidth="1"/>
     <col min="9225" max="9225" width="11.625" style="27" customWidth="1"/>
-    <col min="9226" max="9472" width="8.875" style="27"/>
+    <col min="9226" max="9472" width="9" style="27"/>
     <col min="9473" max="9473" width="3.125" style="27" customWidth="1"/>
     <col min="9474" max="9474" width="9.75" style="27" customWidth="1"/>
     <col min="9475" max="9475" width="40.125" style="27" customWidth="1"/>
@@ -20715,7 +22862,7 @@
     <col min="9479" max="9479" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="9480" max="9480" width="10.125" style="27" customWidth="1"/>
     <col min="9481" max="9481" width="11.625" style="27" customWidth="1"/>
-    <col min="9482" max="9728" width="8.875" style="27"/>
+    <col min="9482" max="9728" width="9" style="27"/>
     <col min="9729" max="9729" width="3.125" style="27" customWidth="1"/>
     <col min="9730" max="9730" width="9.75" style="27" customWidth="1"/>
     <col min="9731" max="9731" width="40.125" style="27" customWidth="1"/>
@@ -20724,7 +22871,7 @@
     <col min="9735" max="9735" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="9736" max="9736" width="10.125" style="27" customWidth="1"/>
     <col min="9737" max="9737" width="11.625" style="27" customWidth="1"/>
-    <col min="9738" max="9984" width="8.875" style="27"/>
+    <col min="9738" max="9984" width="9" style="27"/>
     <col min="9985" max="9985" width="3.125" style="27" customWidth="1"/>
     <col min="9986" max="9986" width="9.75" style="27" customWidth="1"/>
     <col min="9987" max="9987" width="40.125" style="27" customWidth="1"/>
@@ -20733,7 +22880,7 @@
     <col min="9991" max="9991" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="9992" max="9992" width="10.125" style="27" customWidth="1"/>
     <col min="9993" max="9993" width="11.625" style="27" customWidth="1"/>
-    <col min="9994" max="10240" width="8.875" style="27"/>
+    <col min="9994" max="10240" width="9" style="27"/>
     <col min="10241" max="10241" width="3.125" style="27" customWidth="1"/>
     <col min="10242" max="10242" width="9.75" style="27" customWidth="1"/>
     <col min="10243" max="10243" width="40.125" style="27" customWidth="1"/>
@@ -20742,7 +22889,7 @@
     <col min="10247" max="10247" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="10248" max="10248" width="10.125" style="27" customWidth="1"/>
     <col min="10249" max="10249" width="11.625" style="27" customWidth="1"/>
-    <col min="10250" max="10496" width="8.875" style="27"/>
+    <col min="10250" max="10496" width="9" style="27"/>
     <col min="10497" max="10497" width="3.125" style="27" customWidth="1"/>
     <col min="10498" max="10498" width="9.75" style="27" customWidth="1"/>
     <col min="10499" max="10499" width="40.125" style="27" customWidth="1"/>
@@ -20751,7 +22898,7 @@
     <col min="10503" max="10503" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="10504" max="10504" width="10.125" style="27" customWidth="1"/>
     <col min="10505" max="10505" width="11.625" style="27" customWidth="1"/>
-    <col min="10506" max="10752" width="8.875" style="27"/>
+    <col min="10506" max="10752" width="9" style="27"/>
     <col min="10753" max="10753" width="3.125" style="27" customWidth="1"/>
     <col min="10754" max="10754" width="9.75" style="27" customWidth="1"/>
     <col min="10755" max="10755" width="40.125" style="27" customWidth="1"/>
@@ -20760,7 +22907,7 @@
     <col min="10759" max="10759" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="10760" max="10760" width="10.125" style="27" customWidth="1"/>
     <col min="10761" max="10761" width="11.625" style="27" customWidth="1"/>
-    <col min="10762" max="11008" width="8.875" style="27"/>
+    <col min="10762" max="11008" width="9" style="27"/>
     <col min="11009" max="11009" width="3.125" style="27" customWidth="1"/>
     <col min="11010" max="11010" width="9.75" style="27" customWidth="1"/>
     <col min="11011" max="11011" width="40.125" style="27" customWidth="1"/>
@@ -20769,7 +22916,7 @@
     <col min="11015" max="11015" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="11016" max="11016" width="10.125" style="27" customWidth="1"/>
     <col min="11017" max="11017" width="11.625" style="27" customWidth="1"/>
-    <col min="11018" max="11264" width="8.875" style="27"/>
+    <col min="11018" max="11264" width="9" style="27"/>
     <col min="11265" max="11265" width="3.125" style="27" customWidth="1"/>
     <col min="11266" max="11266" width="9.75" style="27" customWidth="1"/>
     <col min="11267" max="11267" width="40.125" style="27" customWidth="1"/>
@@ -20778,7 +22925,7 @@
     <col min="11271" max="11271" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="11272" max="11272" width="10.125" style="27" customWidth="1"/>
     <col min="11273" max="11273" width="11.625" style="27" customWidth="1"/>
-    <col min="11274" max="11520" width="8.875" style="27"/>
+    <col min="11274" max="11520" width="9" style="27"/>
     <col min="11521" max="11521" width="3.125" style="27" customWidth="1"/>
     <col min="11522" max="11522" width="9.75" style="27" customWidth="1"/>
     <col min="11523" max="11523" width="40.125" style="27" customWidth="1"/>
@@ -20787,7 +22934,7 @@
     <col min="11527" max="11527" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="11528" max="11528" width="10.125" style="27" customWidth="1"/>
     <col min="11529" max="11529" width="11.625" style="27" customWidth="1"/>
-    <col min="11530" max="11776" width="8.875" style="27"/>
+    <col min="11530" max="11776" width="9" style="27"/>
     <col min="11777" max="11777" width="3.125" style="27" customWidth="1"/>
     <col min="11778" max="11778" width="9.75" style="27" customWidth="1"/>
     <col min="11779" max="11779" width="40.125" style="27" customWidth="1"/>
@@ -20796,7 +22943,7 @@
     <col min="11783" max="11783" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="11784" max="11784" width="10.125" style="27" customWidth="1"/>
     <col min="11785" max="11785" width="11.625" style="27" customWidth="1"/>
-    <col min="11786" max="12032" width="8.875" style="27"/>
+    <col min="11786" max="12032" width="9" style="27"/>
     <col min="12033" max="12033" width="3.125" style="27" customWidth="1"/>
     <col min="12034" max="12034" width="9.75" style="27" customWidth="1"/>
     <col min="12035" max="12035" width="40.125" style="27" customWidth="1"/>
@@ -20805,7 +22952,7 @@
     <col min="12039" max="12039" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="12040" max="12040" width="10.125" style="27" customWidth="1"/>
     <col min="12041" max="12041" width="11.625" style="27" customWidth="1"/>
-    <col min="12042" max="12288" width="8.875" style="27"/>
+    <col min="12042" max="12288" width="9" style="27"/>
     <col min="12289" max="12289" width="3.125" style="27" customWidth="1"/>
     <col min="12290" max="12290" width="9.75" style="27" customWidth="1"/>
     <col min="12291" max="12291" width="40.125" style="27" customWidth="1"/>
@@ -20814,7 +22961,7 @@
     <col min="12295" max="12295" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="12296" max="12296" width="10.125" style="27" customWidth="1"/>
     <col min="12297" max="12297" width="11.625" style="27" customWidth="1"/>
-    <col min="12298" max="12544" width="8.875" style="27"/>
+    <col min="12298" max="12544" width="9" style="27"/>
     <col min="12545" max="12545" width="3.125" style="27" customWidth="1"/>
     <col min="12546" max="12546" width="9.75" style="27" customWidth="1"/>
     <col min="12547" max="12547" width="40.125" style="27" customWidth="1"/>
@@ -20823,7 +22970,7 @@
     <col min="12551" max="12551" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="12552" max="12552" width="10.125" style="27" customWidth="1"/>
     <col min="12553" max="12553" width="11.625" style="27" customWidth="1"/>
-    <col min="12554" max="12800" width="8.875" style="27"/>
+    <col min="12554" max="12800" width="9" style="27"/>
     <col min="12801" max="12801" width="3.125" style="27" customWidth="1"/>
     <col min="12802" max="12802" width="9.75" style="27" customWidth="1"/>
     <col min="12803" max="12803" width="40.125" style="27" customWidth="1"/>
@@ -20832,7 +22979,7 @@
     <col min="12807" max="12807" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="12808" max="12808" width="10.125" style="27" customWidth="1"/>
     <col min="12809" max="12809" width="11.625" style="27" customWidth="1"/>
-    <col min="12810" max="13056" width="8.875" style="27"/>
+    <col min="12810" max="13056" width="9" style="27"/>
     <col min="13057" max="13057" width="3.125" style="27" customWidth="1"/>
     <col min="13058" max="13058" width="9.75" style="27" customWidth="1"/>
     <col min="13059" max="13059" width="40.125" style="27" customWidth="1"/>
@@ -20841,7 +22988,7 @@
     <col min="13063" max="13063" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="13064" max="13064" width="10.125" style="27" customWidth="1"/>
     <col min="13065" max="13065" width="11.625" style="27" customWidth="1"/>
-    <col min="13066" max="13312" width="8.875" style="27"/>
+    <col min="13066" max="13312" width="9" style="27"/>
     <col min="13313" max="13313" width="3.125" style="27" customWidth="1"/>
     <col min="13314" max="13314" width="9.75" style="27" customWidth="1"/>
     <col min="13315" max="13315" width="40.125" style="27" customWidth="1"/>
@@ -20850,7 +22997,7 @@
     <col min="13319" max="13319" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="13320" max="13320" width="10.125" style="27" customWidth="1"/>
     <col min="13321" max="13321" width="11.625" style="27" customWidth="1"/>
-    <col min="13322" max="13568" width="8.875" style="27"/>
+    <col min="13322" max="13568" width="9" style="27"/>
     <col min="13569" max="13569" width="3.125" style="27" customWidth="1"/>
     <col min="13570" max="13570" width="9.75" style="27" customWidth="1"/>
     <col min="13571" max="13571" width="40.125" style="27" customWidth="1"/>
@@ -20859,7 +23006,7 @@
     <col min="13575" max="13575" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="13576" max="13576" width="10.125" style="27" customWidth="1"/>
     <col min="13577" max="13577" width="11.625" style="27" customWidth="1"/>
-    <col min="13578" max="13824" width="8.875" style="27"/>
+    <col min="13578" max="13824" width="9" style="27"/>
     <col min="13825" max="13825" width="3.125" style="27" customWidth="1"/>
     <col min="13826" max="13826" width="9.75" style="27" customWidth="1"/>
     <col min="13827" max="13827" width="40.125" style="27" customWidth="1"/>
@@ -20868,7 +23015,7 @@
     <col min="13831" max="13831" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="13832" max="13832" width="10.125" style="27" customWidth="1"/>
     <col min="13833" max="13833" width="11.625" style="27" customWidth="1"/>
-    <col min="13834" max="14080" width="8.875" style="27"/>
+    <col min="13834" max="14080" width="9" style="27"/>
     <col min="14081" max="14081" width="3.125" style="27" customWidth="1"/>
     <col min="14082" max="14082" width="9.75" style="27" customWidth="1"/>
     <col min="14083" max="14083" width="40.125" style="27" customWidth="1"/>
@@ -20877,7 +23024,7 @@
     <col min="14087" max="14087" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="14088" max="14088" width="10.125" style="27" customWidth="1"/>
     <col min="14089" max="14089" width="11.625" style="27" customWidth="1"/>
-    <col min="14090" max="14336" width="8.875" style="27"/>
+    <col min="14090" max="14336" width="9" style="27"/>
     <col min="14337" max="14337" width="3.125" style="27" customWidth="1"/>
     <col min="14338" max="14338" width="9.75" style="27" customWidth="1"/>
     <col min="14339" max="14339" width="40.125" style="27" customWidth="1"/>
@@ -20886,7 +23033,7 @@
     <col min="14343" max="14343" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="14344" max="14344" width="10.125" style="27" customWidth="1"/>
     <col min="14345" max="14345" width="11.625" style="27" customWidth="1"/>
-    <col min="14346" max="14592" width="8.875" style="27"/>
+    <col min="14346" max="14592" width="9" style="27"/>
     <col min="14593" max="14593" width="3.125" style="27" customWidth="1"/>
     <col min="14594" max="14594" width="9.75" style="27" customWidth="1"/>
     <col min="14595" max="14595" width="40.125" style="27" customWidth="1"/>
@@ -20895,7 +23042,7 @@
     <col min="14599" max="14599" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="14600" max="14600" width="10.125" style="27" customWidth="1"/>
     <col min="14601" max="14601" width="11.625" style="27" customWidth="1"/>
-    <col min="14602" max="14848" width="8.875" style="27"/>
+    <col min="14602" max="14848" width="9" style="27"/>
     <col min="14849" max="14849" width="3.125" style="27" customWidth="1"/>
     <col min="14850" max="14850" width="9.75" style="27" customWidth="1"/>
     <col min="14851" max="14851" width="40.125" style="27" customWidth="1"/>
@@ -20904,7 +23051,7 @@
     <col min="14855" max="14855" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="14856" max="14856" width="10.125" style="27" customWidth="1"/>
     <col min="14857" max="14857" width="11.625" style="27" customWidth="1"/>
-    <col min="14858" max="15104" width="8.875" style="27"/>
+    <col min="14858" max="15104" width="9" style="27"/>
     <col min="15105" max="15105" width="3.125" style="27" customWidth="1"/>
     <col min="15106" max="15106" width="9.75" style="27" customWidth="1"/>
     <col min="15107" max="15107" width="40.125" style="27" customWidth="1"/>
@@ -20913,7 +23060,7 @@
     <col min="15111" max="15111" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="15112" max="15112" width="10.125" style="27" customWidth="1"/>
     <col min="15113" max="15113" width="11.625" style="27" customWidth="1"/>
-    <col min="15114" max="15360" width="8.875" style="27"/>
+    <col min="15114" max="15360" width="9" style="27"/>
     <col min="15361" max="15361" width="3.125" style="27" customWidth="1"/>
     <col min="15362" max="15362" width="9.75" style="27" customWidth="1"/>
     <col min="15363" max="15363" width="40.125" style="27" customWidth="1"/>
@@ -20922,7 +23069,7 @@
     <col min="15367" max="15367" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="15368" max="15368" width="10.125" style="27" customWidth="1"/>
     <col min="15369" max="15369" width="11.625" style="27" customWidth="1"/>
-    <col min="15370" max="15616" width="8.875" style="27"/>
+    <col min="15370" max="15616" width="9" style="27"/>
     <col min="15617" max="15617" width="3.125" style="27" customWidth="1"/>
     <col min="15618" max="15618" width="9.75" style="27" customWidth="1"/>
     <col min="15619" max="15619" width="40.125" style="27" customWidth="1"/>
@@ -20931,7 +23078,7 @@
     <col min="15623" max="15623" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="15624" max="15624" width="10.125" style="27" customWidth="1"/>
     <col min="15625" max="15625" width="11.625" style="27" customWidth="1"/>
-    <col min="15626" max="15872" width="8.875" style="27"/>
+    <col min="15626" max="15872" width="9" style="27"/>
     <col min="15873" max="15873" width="3.125" style="27" customWidth="1"/>
     <col min="15874" max="15874" width="9.75" style="27" customWidth="1"/>
     <col min="15875" max="15875" width="40.125" style="27" customWidth="1"/>
@@ -20940,7 +23087,7 @@
     <col min="15879" max="15879" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="15880" max="15880" width="10.125" style="27" customWidth="1"/>
     <col min="15881" max="15881" width="11.625" style="27" customWidth="1"/>
-    <col min="15882" max="16128" width="8.875" style="27"/>
+    <col min="15882" max="16128" width="9" style="27"/>
     <col min="16129" max="16129" width="3.125" style="27" customWidth="1"/>
     <col min="16130" max="16130" width="9.75" style="27" customWidth="1"/>
     <col min="16131" max="16131" width="40.125" style="27" customWidth="1"/>
@@ -20949,7 +23096,7 @@
     <col min="16135" max="16135" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="16136" max="16136" width="10.125" style="27" customWidth="1"/>
     <col min="16137" max="16137" width="11.625" style="27" customWidth="1"/>
-    <col min="16138" max="16384" width="8.875" style="27"/>
+    <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -21022,13 +23169,13 @@
         <v>110</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="D11" s="116" t="s">
-        <v>107</v>
+        <v>296</v>
       </c>
       <c r="E11" s="116" t="s">
-        <v>107</v>
+        <v>296</v>
       </c>
       <c r="F11" s="116" t="s">
         <v>107</v>
@@ -21050,25 +23197,25 @@
         <v>161</v>
       </c>
       <c r="C12" s="109" t="s">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>144</v>
+        <v>297</v>
       </c>
       <c r="E12" s="110" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="G12" s="53" t="s">
-        <v>278</v>
+        <v>303</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>306</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="I12" s="73">
-        <v>45282</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -21077,151 +23224,179 @@
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
       <c r="E13" s="110" t="s">
-        <v>280</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="G13" s="53" t="s">
-        <v>225</v>
+        <v>279</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>306</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="I13" s="73">
-        <v>45282</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="60"/>
-      <c r="C14" s="42"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="42"/>
-      <c r="E14" s="110" t="s">
-        <v>273</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="G14" s="53" t="s">
-        <v>278</v>
+      <c r="E14" s="111" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>308</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="I14" s="73">
-        <v>45282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
-      <c r="B15" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="D15" s="116" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="116" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="73"/>
-    </row>
-    <row r="16" spans="1:10" ht="73.5" x14ac:dyDescent="0.15">
+      <c r="B15" s="60"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="I15" s="73">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="C16" s="109" t="s">
-        <v>159</v>
-      </c>
       <c r="D16" s="42" t="s">
-        <v>144</v>
+        <v>296</v>
       </c>
       <c r="E16" s="110" t="s">
-        <v>109</v>
+        <v>296</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>225</v>
+        <v>310</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="I16" s="73">
-        <v>45282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+        <v>310</v>
+      </c>
+      <c r="I16" s="73" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
+      <c r="B17" s="60" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>297</v>
+      </c>
       <c r="E17" s="110" t="s">
-        <v>281</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="G17" s="53" t="s">
-        <v>225</v>
+        <v>302</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>305</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="I17" s="73">
-        <v>45282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="60"/>
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
       <c r="E18" s="110" t="s">
-        <v>273</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="G18" s="53" t="s">
-        <v>225</v>
+        <v>280</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>305</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="I18" s="73">
-        <v>45282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="B19" s="60"/>
       <c r="C19" s="42"/>
       <c r="D19" s="42"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="73"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E19" s="110" t="s">
+        <v>272</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="I19" s="73">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="60"/>
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="73"/>
+      <c r="E20" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="I20" s="73">
+        <v>45315</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="67"/>
@@ -21335,7 +23510,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12:G21">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
@@ -21352,13 +23527,13 @@
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
   </sheetPr>
-  <dimension ref="A2:T11"/>
+  <dimension ref="A2:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="142" customWidth="1"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
@@ -21366,233 +23541,231 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="114" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" s="141"/>
+      <c r="B3" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="115" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="115" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" s="115" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="115" t="s">
+        <v>102</v>
+      </c>
+      <c r="O3" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3" s="115" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q3" s="115" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="141"/>
-    </row>
-    <row r="5" spans="1:20" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="139" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="139" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="139" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="139" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="139" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="139" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="139" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="139" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="139" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" s="139" t="s">
-        <v>99</v>
-      </c>
-      <c r="L5" s="139" t="s">
-        <v>100</v>
-      </c>
-      <c r="M5" s="139" t="s">
-        <v>101</v>
-      </c>
-      <c r="N5" s="139" t="s">
-        <v>102</v>
-      </c>
-      <c r="O5" s="139" t="s">
-        <v>103</v>
-      </c>
-      <c r="P5" s="139" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q5" s="139" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="139" t="s">
+      <c r="B4" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C4" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="139" t="s">
+      <c r="D4" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="139" t="s">
+      <c r="E4" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="139" t="s">
+      <c r="F4" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="139" t="s">
+      <c r="G4" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="139" t="s">
+      <c r="H4" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="139" t="s">
-        <v>262</v>
-      </c>
-      <c r="J6" s="139" t="s">
+      <c r="I4" s="115" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="139" t="s">
+      <c r="K4" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="139" t="s">
+      <c r="L4" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="139" t="s">
+      <c r="M4" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="N6" s="139" t="s">
+      <c r="N4" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="139" t="s">
+      <c r="O4" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="P6" s="139" t="s">
+      <c r="P4" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="Q6" s="139" t="s">
+      <c r="Q4" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R4" t="s">
         <v>152</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S4" t="s">
         <v>153</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="118" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="143" t="s">
+    <row r="5" spans="1:20" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="128" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="121">
+      <c r="B5" s="121">
         <v>1</v>
       </c>
-      <c r="C7" s="121" t="s">
-        <v>263</v>
-      </c>
-      <c r="D7" s="121" t="s">
-        <v>264</v>
-      </c>
-      <c r="E7" s="140" t="s">
-        <v>265</v>
-      </c>
-      <c r="F7" s="140" t="s">
+      <c r="C5" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="140" t="s">
+        <v>283</v>
+      </c>
+      <c r="F5" s="140" t="s">
+        <v>284</v>
+      </c>
+      <c r="G5" s="120" t="s">
         <v>266</v>
       </c>
-      <c r="G7" s="120" t="s">
-        <v>267</v>
-      </c>
-      <c r="H7" s="121">
+      <c r="H5" s="121">
         <v>1</v>
       </c>
-      <c r="I7" s="121">
+      <c r="I5" s="121">
         <v>1</v>
       </c>
-      <c r="J7" s="121">
+      <c r="J5" s="121">
         <v>1</v>
       </c>
-      <c r="K7" s="121">
+      <c r="K5" s="121">
         <v>1</v>
       </c>
-      <c r="L7" s="121">
+      <c r="L5" s="121">
         <v>1</v>
       </c>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121" t="s">
-        <v>268</v>
-      </c>
-      <c r="R7" s="133" t="str">
-        <f>B7&amp;",'"&amp;C7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"','"&amp;F7&amp;"','"&amp;G7&amp;"','"&amp;H7&amp;"','"&amp;I7&amp;"','"&amp;J7&amp;"','"&amp;K7&amp;"','"&amp;L7&amp;"','"&amp;M7&amp;"','"&amp;N7&amp;"','"&amp;O7&amp;"','"&amp;P7&amp;"','"&amp;Q7&amp;"');"</f>
-        <v>1,'XXCMM002A1103_TestUser368','TestUser368','l_user368','f_user368','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
-      </c>
-      <c r="S7" s="133" t="str">
-        <f>$R$6&amp;$S$6&amp;$T$6&amp;R7</f>
-        <v>INSERT INTO XXCCD_USER_ROLE_TMP (ID,USER_NAME,PERSON_NUMBER,LAST_NAME,FIRST_NAME,ROLE_ASSIGNMENT,SUPPLY_AGENT,LEDGER,DATA_ACCESS,BU,INSTANCE_ID,BEF_SUPPLY_AGENT,BEF_LEDGER,BEF_DATA_ACCESS,BEF_BU,ADD_REMOVE_ROLE) VALUES (1,'XXCMM002A1103_TestUser368','TestUser368','l_user368','f_user368','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="118" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="143" t="s">
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121" t="s">
+        <v>285</v>
+      </c>
+      <c r="R5" s="133" t="str">
+        <f t="shared" ref="R5:R6" si="0">B5&amp;",'"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"','"&amp;G5&amp;"','"&amp;H5&amp;"','"&amp;I5&amp;"','"&amp;J5&amp;"','"&amp;K5&amp;"','"&amp;L5&amp;"','"&amp;M5&amp;"','"&amp;N5&amp;"','"&amp;O5&amp;"','"&amp;P5&amp;"','"&amp;Q5&amp;"');"</f>
+        <v>1,'XXCMM002A1103_TestUser366','TestUser366','l_user366','f_user366','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
+      </c>
+      <c r="S5" s="133" t="str">
+        <f t="shared" ref="S5:S6" si="1">$R$4&amp;$S$4&amp;$T$4&amp;R5</f>
+        <v>INSERT INTO XXCCD_USER_ROLE_TMP (ID,USER_NAME,PERSON_NUMBER,LAST_NAME,FIRST_NAME,ROLE_ASSIGNMENT,SUPPLY_AGENT,LEDGER,DATA_ACCESS,BU,INSTANCE_ID,BEF_SUPPLY_AGENT,BEF_LEDGER,BEF_DATA_ACCESS,BEF_BU,ADD_REMOVE_ROLE) VALUES (1,'XXCMM002A1103_TestUser366','TestUser366','l_user366','f_user366','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
+      </c>
+      <c r="T5" s="118"/>
+    </row>
+    <row r="6" spans="1:20" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="128" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="121">
+      <c r="B6" s="121">
         <v>2</v>
       </c>
-      <c r="C8" s="121" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="121" t="s">
-        <v>270</v>
-      </c>
-      <c r="E8" s="140" t="s">
-        <v>271</v>
-      </c>
-      <c r="F8" s="140" t="s">
-        <v>272</v>
-      </c>
-      <c r="G8" s="120" t="s">
-        <v>267</v>
-      </c>
-      <c r="H8" s="121">
+      <c r="C6" s="121" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="140" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" s="140" t="s">
+        <v>289</v>
+      </c>
+      <c r="G6" s="120" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="121">
         <v>1</v>
       </c>
-      <c r="I8" s="121">
+      <c r="I6" s="121">
         <v>1</v>
       </c>
-      <c r="J8" s="121">
+      <c r="J6" s="121">
         <v>1</v>
       </c>
-      <c r="K8" s="121">
+      <c r="K6" s="121">
         <v>1</v>
       </c>
-      <c r="L8" s="121">
+      <c r="L6" s="121">
         <v>1</v>
       </c>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="121" t="s">
-        <v>268</v>
-      </c>
-      <c r="R8" s="133" t="str">
-        <f t="shared" ref="R8" si="0">B8&amp;",'"&amp;C8&amp;"','"&amp;D8&amp;"','"&amp;E8&amp;"','"&amp;F8&amp;"','"&amp;G8&amp;"','"&amp;H8&amp;"','"&amp;I8&amp;"','"&amp;J8&amp;"','"&amp;K8&amp;"','"&amp;L8&amp;"','"&amp;M8&amp;"','"&amp;N8&amp;"','"&amp;O8&amp;"','"&amp;P8&amp;"','"&amp;Q8&amp;"');"</f>
-        <v>2,'XXCMM002A1103_TestUser369','TestUser369','l_user369','f_user369','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
-      </c>
-      <c r="S8" s="133" t="str">
-        <f>$R$6&amp;$S$6&amp;$T$6&amp;R8</f>
-        <v>INSERT INTO XXCCD_USER_ROLE_TMP (ID,USER_NAME,PERSON_NUMBER,LAST_NAME,FIRST_NAME,ROLE_ASSIGNMENT,SUPPLY_AGENT,LEDGER,DATA_ACCESS,BU,INSTANCE_ID,BEF_SUPPLY_AGENT,BEF_LEDGER,BEF_DATA_ACCESS,BEF_BU,ADD_REMOVE_ROLE) VALUES (2,'XXCMM002A1103_TestUser369','TestUser369','l_user369','f_user369','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="141"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121" t="s">
+        <v>290</v>
+      </c>
+      <c r="R6" s="133" t="str">
+        <f t="shared" si="0"/>
+        <v>2,'XXCMM002A1103_TestUser367','TestUser367','l_user367','f_user367','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
+      </c>
+      <c r="S6" s="133" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO XXCCD_USER_ROLE_TMP (ID,USER_NAME,PERSON_NUMBER,LAST_NAME,FIRST_NAME,ROLE_ASSIGNMENT,SUPPLY_AGENT,LEDGER,DATA_ACCESS,BU,INSTANCE_ID,BEF_SUPPLY_AGENT,BEF_LEDGER,BEF_DATA_ACCESS,BEF_BU,ADD_REMOVE_ROLE) VALUES (2,'XXCMM002A1103_TestUser367','TestUser367','l_user367','f_user367','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C10" s="127"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="E16" s="127"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/20_営業/10_マスタ/TE030/T_TE030_CMM_002_A11_06_社員データIF_OIC統合.xlsx
+++ b/20_営業/10_マスタ/TE030/T_TE030_CMM_002_A11_06_社員データIF_OIC統合.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19301～19400\E_本稼動_19390_再【マスタ】従業員IF性能検証\20_成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19992【共通】OIC3アップグレード対応\20_成果物\TE030\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="23040" windowHeight="8940" tabRatio="844"/>
+    <workbookView xWindow="0" yWindow="7200" windowWidth="23040" windowHeight="8940" tabRatio="844"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -28,37 +28,41 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ5)" sheetId="17" r:id="rId14"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ6)" sheetId="20" r:id="rId15"/>
     <sheet name="テスト・シナリオ6_別紙" sheetId="34" r:id="rId16"/>
-    <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)20240123" sheetId="40" r:id="rId17"/>
-    <sheet name="テスト・シナリオ1_別紙20240123" sheetId="41" r:id="rId18"/>
-    <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)_20231221" sheetId="42" r:id="rId19"/>
-    <sheet name="テスト・シナリオ1_20231221" sheetId="43" r:id="rId20"/>
-    <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)_20230728" sheetId="13" r:id="rId21"/>
-    <sheet name="テスト・シナリオ1_別紙 _20230728" sheetId="14" r:id="rId22"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId23"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId24"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ7)" sheetId="46" r:id="rId17"/>
+    <sheet name="テスト・シナリオ7_別紙" sheetId="47" r:id="rId18"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId19"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)20240123" sheetId="40" r:id="rId20"/>
+    <sheet name="テスト・シナリオ1_別紙20240123" sheetId="41" r:id="rId21"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)_20231221" sheetId="42" r:id="rId22"/>
+    <sheet name="テスト・シナリオ1_20231221" sheetId="43" r:id="rId23"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)_20230728" sheetId="13" r:id="rId24"/>
+    <sheet name="テスト・シナリオ1_別紙 _20230728" sheetId="14" r:id="rId25"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId26"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId25"/>
-    <externalReference r:id="rId26"/>
     <externalReference r:id="rId27"/>
     <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" hidden="1">'[1]１．InfoCube (YKCH0010)案１:１．InfoCube (YKCH0010) 案２'!$W$5:$W$5</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Order2" hidden="1">255</definedName>
-    <definedName name="_Regression_X" localSheetId="19" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="22" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="6" hidden="1">#REF!</definedName>
-    <definedName name="_Regression_X" localSheetId="17" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="20" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="8" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="10" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="12" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="15" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="17" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="5" hidden="1">#REF!</definedName>
-    <definedName name="_Regression_X" localSheetId="18" hidden="1">#REF!</definedName>
-    <definedName name="_Regression_X" localSheetId="16" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="21" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="19" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="13" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="14" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="16" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
     <definedName name="a" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
@@ -80,36 +84,39 @@
     <definedName name="LOV_pol_mileage_FinExmPolicyMileageAdfDiPageDef_FuelType" hidden="1">[3]_ADFDI_LOV!$D$6:$G$6</definedName>
     <definedName name="LOV_pol_mileage_FinExmPolicyMileageAdfDiPageDef_VehicleCategory" hidden="1">[4]_ADFDI_LOV!$D$2:$F$2</definedName>
     <definedName name="LOV_pol_mileage_FinExmPolicyMileageAdfDiPageDef_VehicleType" hidden="1">[3]_ADFDI_LOV!$D$4:$I$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">テスト仕様_データ・プロファイル!$A$1:$C$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'テスト仕様_テスト結果(テスト・シナリオ1)'!$A$1:$I$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="20">'テスト仕様_テスト結果(テスト・シナリオ1)_20230728'!$A$1:$I$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="18">'テスト仕様_テスト結果(テスト・シナリオ1)_20231221'!$A$1:$I$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">'テスト仕様_テスト結果(テスト・シナリオ1)20240123'!$A$1:$I$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="23">'テスト仕様_テスト結果(テスト・シナリオ1)_20230728'!$A$1:$I$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="21">'テスト仕様_テスト結果(テスト・シナリオ1)_20231221'!$A$1:$I$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">'テスト仕様_テスト結果(テスト・シナリオ1)20240123'!$A$1:$I$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'テスト仕様_テスト結果(テスト・シナリオ2)'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'テスト仕様_テスト結果(テスト・シナリオ3)'!$A$1:$I$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'テスト仕様_テスト結果(テスト・シナリオ4)'!$A$1:$I$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'テスト仕様_テスト結果(テスト・シナリオ5)'!$A$1:$I$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">'テスト仕様_テスト結果(テスト・シナリオ6)'!$A$1:$I$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'テスト仕様_テスト結果(テスト・シナリオ7)'!$A$1:$I$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$18</definedName>
     <definedName name="wrn.仕様書表紙." hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
-    <definedName name="関連表" localSheetId="19" hidden="1">#REF!</definedName>
+    <definedName name="関連表" localSheetId="22" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="6" hidden="1">#REF!</definedName>
-    <definedName name="関連表" localSheetId="17" hidden="1">#REF!</definedName>
+    <definedName name="関連表" localSheetId="20" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="8" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="10" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="12" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="15" hidden="1">#REF!</definedName>
+    <definedName name="関連表" localSheetId="17" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="5" hidden="1">#REF!</definedName>
-    <definedName name="関連表" localSheetId="18" hidden="1">#REF!</definedName>
-    <definedName name="関連表" localSheetId="16" hidden="1">#REF!</definedName>
+    <definedName name="関連表" localSheetId="21" hidden="1">#REF!</definedName>
+    <definedName name="関連表" localSheetId="19" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="13" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="14" hidden="1">#REF!</definedName>
+    <definedName name="関連表" localSheetId="16" hidden="1">#REF!</definedName>
     <definedName name="関連表" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -119,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="329">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -1647,10 +1654,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Issue1.3</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>E_本稼動_19390_再 対応</t>
     <rPh sb="12" eb="13">
       <t>サイ</t>
@@ -1661,27 +1664,201 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>元帳割当更新/作成の確認【PT0010対応再実行】【E_本稼動_19736 対応再実行】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>【E_本稼動_19390_再 対応再実行】</t>
-    </r>
+    <t>別紙【シナリオ1登録データ】をxxccd_user_role_tmpに登録する(他のレコードは削除する)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>社員データIF_06</t>
+  </si>
+  <si>
+    <t>テーブル「非同期処理ステータス」に以下データ登録出力されること
+プロセスID：[非同期ID]
+IDタイプ：A</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トレースをオフにした状態で、
+以下パラメータで、XXCMM002A11_06を起動すること
+{
+  "asyncId" : [非同期ID],
+  "idType" : "A",
+  "filePath": "/uspg/jp1/zb/py/devoicuser/dummy"
+}
+※asyncIdにシーケンス(xxccd_async_id_seq)のNEXTVALを設定</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">正常終了する。
+非同期のため、リターン値はないこと。
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">正常終了する。
+非同期のため、リターン値はないこと。
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記のとおりであることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK細沼</t>
+    <rPh sb="4" eb="6">
+      <t>ホソヌマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Issue1.4</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>テスト・シナリオ7</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>7-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>7-3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員データIF_05</t>
+  </si>
+  <si>
+    <t>7-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トレースをオフにした状態で、
+以下パラメータで、XXCMM002A11_06を起動すること
+{
+  "asyncId" : [非同期ID],
+  "idType" : "A",
+  "filePath": "/uspg/jp1/zb/py/devoicuser/dummy"
+}
+※asyncIdにシーケンス(xxccd_async_id_seq)のNEXTVALを設定
+また、xxccd_user_role_tmpのデータは削除した状態</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>ヒドウキ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="217" eb="219">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>別紙【シナリオ7登録データ】をxxccd_user_role_tmpに登録する(他のレコードは削除する)</t>
+    <rPh sb="0" eb="2">
+      <t>ベッシ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テーブル「非同期処理ステータス」に以下データ登録されること
+プロセスID：[非同期ID]
+IDタイプ：A
+INSTANCE_ID：英数字混合の文字列</t>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>ヒドウキ</t>
+    </rPh>
+    <rPh sb="65" eb="70">
+      <t>エイスウジコンゴウ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テーブル「非同期処理ステータス」に以下データがエラーとして登録されること
+プロセスID：[非同期ID]
+IDタイプ：A
+INSTANCE_ID：英数字混合の文字列</t>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>ヒドウキ</t>
+    </rPh>
+    <rPh sb="72" eb="77">
+      <t>エイスウジコンゴウ</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シナリオ7</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>元帳割当更新/作成の確認【PT0010対応再実行】【E_本稼動_19736 対応再実行】【E_本稼動_19390_再 対応再実行】</t>
     <rPh sb="0" eb="2">
       <t>モトチョウ</t>
     </rPh>
@@ -1700,57 +1877,22 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>別紙【シナリオ1登録データ】をxxccd_user_role_tmpに登録する(他のレコードは削除する)</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>社員データIF_06</t>
-  </si>
-  <si>
-    <t>テーブル「非同期処理ステータス」に以下データ登録出力されること
-プロセスID：[非同期ID]
-IDタイプ：A</t>
+    <t>テスト・シナリオ_7別紙 のデータを用いてテストを実施します。</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>トレースをオフにした状態で、
-以下パラメータで、XXCMM002A11_06を起動すること
-{
-  "asyncId" : [非同期ID],
-  "idType" : "A",
-  "filePath": "/uspg/jp1/zb/py/devoicuser/dummy"
-}
-※asyncIdにシーケンス(xxccd_async_id_seq)のNEXTVALを設定</t>
-    <rPh sb="10" eb="12">
-      <t>ジョウタイ</t>
+    <t>左記のとおりであることを確認</t>
+    <rPh sb="0" eb="1">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>1-3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1-4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">正常終了する。
-非同期のため、リターン値はないこと。
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">正常終了する。
-非同期のため、リターン値はないこと。
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>左記のとおりであることを確認</t>
-    <rPh sb="0" eb="2">
+    <rPh sb="1" eb="2">
       <t>サキ</t>
     </rPh>
     <rPh sb="12" eb="14">
@@ -1760,42 +1902,46 @@
   </si>
   <si>
     <t>OK</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>SCSK細沼</t>
-    <rPh sb="4" eb="6">
+    <rPh sb="3" eb="5">
       <t>ホソヌマ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>OK</t>
+    <t>2024/5/14</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>-</t>
+    <t>E_本稼動_19992 OIC3アップグレード 対応</t>
+    <rPh sb="24" eb="26">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非同期処理ステータステーブルの登録・更新確認【E_本稼動_19992 対応】</t>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>コウシンカクニン</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1994,22 +2140,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF00FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF00FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FFFF00FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -3063,20 +3194,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -3087,6 +3212,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3129,6 +3260,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFFFCC99"/>
       <color rgb="FFFF99FF"/>
@@ -3501,6 +3633,731 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="30552390"/>
+          <a:ext cx="7581900" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="33314640"/>
+          <a:ext cx="7581900" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="29714190"/>
+          <a:ext cx="3400425" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>160</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -8576,6 +9433,731 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="30889575"/>
+          <a:ext cx="7581900" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="33651825"/>
+          <a:ext cx="7581900" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="30051375"/>
+          <a:ext cx="3400425" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>166</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
@@ -9219,731 +10801,6 @@
         <a:xfrm>
           <a:off x="28575" y="28944570"/>
           <a:ext cx="3303270" cy="459105"/>
-        </a:xfrm>
-        <a:prstGeom prst="foldedCorner">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 12500"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>         記述します。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fPrintsWithSheet="0"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="30552390"/>
-          <a:ext cx="7581900" cy="2667000"/>
-        </a:xfrm>
-        <a:prstGeom prst="foldedCorner">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 12500"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>【TE.020作成時の注意点】</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>                   例：シナリオX-Xと同時検証</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fPrintsWithSheet="0"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="276225" y="33314640"/>
-          <a:ext cx="7581900" cy="2867025"/>
-        </a:xfrm>
-        <a:prstGeom prst="foldedCorner">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 12500"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>【TE.070作成時の注意点】</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>            　　・○: テスト成功</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>            　　・×: テスト失敗</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fPrintsWithSheet="0"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2447925</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="28575" y="29714190"/>
-          <a:ext cx="3400425" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -11345,7 +12202,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
@@ -11670,7 +12527,7 @@
     <col min="16134" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" ht="12" customHeight="1">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -11678,7 +12535,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" ht="6" customHeight="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -11687,7 +12544,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" ht="21">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -11696,7 +12553,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1">
       <c r="B6" s="144" t="s">
         <v>66</v>
       </c>
@@ -11707,13 +12564,13 @@
       <c r="G6" s="144"/>
       <c r="H6" s="144"/>
     </row>
-    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" ht="6" customHeight="1">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8" ht="6" customHeight="1">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" ht="58.5" customHeight="1">
       <c r="B9" s="145" t="s">
         <v>0</v>
       </c>
@@ -11724,10 +12581,10 @@
       <c r="G9" s="145"/>
       <c r="H9" s="145"/>
     </row>
-    <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8" ht="6" customHeight="1">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8" ht="58.5" customHeight="1">
       <c r="B11" s="145" t="s">
         <v>6</v>
       </c>
@@ -11738,8 +12595,8 @@
       <c r="G11" s="145"/>
       <c r="H11" s="145"/>
     </row>
-    <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" ht="6" customHeight="1"/>
+    <row r="13" spans="2:8" ht="58.5" customHeight="1">
       <c r="B13" s="145" t="s">
         <v>148</v>
       </c>
@@ -11750,13 +12607,13 @@
       <c r="G13" s="145"/>
       <c r="H13" s="145"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8">
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -11764,11 +12621,11 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="6" customHeight="1">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
@@ -11776,23 +12633,23 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="6" customHeight="1">
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>45314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="6" customHeight="1">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="B22" s="6" t="s">
         <v>69</v>
       </c>
@@ -11800,25 +12657,25 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="6" customHeight="1">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="B26" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="12" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -11830,7 +12687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="12" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -11869,7 +12726,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -12450,7 +13307,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -12461,35 +13318,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="B8" s="37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1">
       <c r="B10" s="100" t="s">
         <v>40</v>
       </c>
@@ -12515,7 +13372,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="21">
       <c r="B11" s="60" t="s">
         <v>111</v>
       </c>
@@ -12541,7 +13398,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="73.5">
       <c r="A12" s="38"/>
       <c r="B12" s="60" t="s">
         <v>112</v>
@@ -12568,7 +13425,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="31.5">
       <c r="A13" s="38"/>
       <c r="B13" s="60"/>
       <c r="C13" s="111"/>
@@ -12589,7 +13446,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="42">
       <c r="A14" s="38"/>
       <c r="B14" s="60"/>
       <c r="C14" s="42"/>
@@ -12610,7 +13467,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="31.5">
       <c r="B15" s="60"/>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
@@ -12630,7 +13487,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="21">
       <c r="B16" s="60"/>
       <c r="C16" s="109"/>
       <c r="D16" s="42"/>
@@ -12650,7 +13507,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="21">
       <c r="B17" s="60"/>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
@@ -12670,7 +13527,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="14.25" thickBot="1">
       <c r="B18" s="67"/>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
@@ -12680,7 +13537,7 @@
       <c r="H18" s="43"/>
       <c r="I18" s="72"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -12690,7 +13547,7 @@
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -12700,7 +13557,7 @@
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="6" customHeight="1">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -12710,7 +13567,7 @@
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
     </row>
-    <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="14.25">
       <c r="A22" s="32" t="s">
         <v>48</v>
       </c>
@@ -12720,7 +13577,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
@@ -12730,7 +13587,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="B24" s="113"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
@@ -12740,7 +13597,7 @@
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
@@ -12750,7 +13607,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
@@ -12760,7 +13617,7 @@
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
@@ -12770,7 +13627,7 @@
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
@@ -12800,7 +13657,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
@@ -12808,12 +13665,12 @@
     <col min="7" max="7" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20">
       <c r="A2" s="114" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20">
       <c r="B4" s="115" t="s">
         <v>90</v>
       </c>
@@ -12863,7 +13720,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20">
       <c r="B5" s="115" t="s">
         <v>59</v>
       </c>
@@ -12922,7 +13779,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="127" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="127" customFormat="1" ht="30.75" customHeight="1">
       <c r="A6"/>
       <c r="B6" s="119">
         <v>10001</v>
@@ -12988,7 +13845,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -13569,7 +14426,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -13580,35 +14437,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="B8" s="37" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1">
       <c r="B10" s="100" t="s">
         <v>40</v>
       </c>
@@ -13634,7 +14491,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="21">
       <c r="B11" s="60" t="s">
         <v>121</v>
       </c>
@@ -13660,7 +14517,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="73.5">
       <c r="A12" s="38"/>
       <c r="B12" s="60" t="s">
         <v>170</v>
@@ -13687,7 +14544,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="31.5">
       <c r="A13" s="38"/>
       <c r="B13" s="60"/>
       <c r="C13" s="111"/>
@@ -13708,7 +14565,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="31.5">
       <c r="A14" s="38"/>
       <c r="B14" s="60"/>
       <c r="C14" s="42"/>
@@ -13729,7 +14586,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="42">
       <c r="B15" s="60"/>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
@@ -13749,7 +14606,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="21">
       <c r="B16" s="60"/>
       <c r="C16" s="109"/>
       <c r="D16" s="42"/>
@@ -13769,7 +14626,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="21">
       <c r="B17" s="60"/>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
@@ -13789,7 +14646,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="14.25" thickBot="1">
       <c r="B18" s="67"/>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
@@ -13799,7 +14656,7 @@
       <c r="H18" s="43"/>
       <c r="I18" s="72"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -13809,7 +14666,7 @@
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -13819,7 +14676,7 @@
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="6" customHeight="1">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -13829,7 +14686,7 @@
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
     </row>
-    <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="14.25">
       <c r="A22" s="32" t="s">
         <v>48</v>
       </c>
@@ -13839,7 +14696,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
@@ -13849,7 +14706,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="B24" s="113"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
@@ -13859,7 +14716,7 @@
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
@@ -13869,7 +14726,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
@@ -13879,7 +14736,7 @@
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
@@ -13889,7 +14746,7 @@
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
@@ -13919,7 +14776,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
@@ -13927,12 +14784,12 @@
     <col min="7" max="7" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20">
       <c r="A2" s="114" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20">
       <c r="B4" s="115" t="s">
         <v>90</v>
       </c>
@@ -13982,7 +14839,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20">
       <c r="B5" s="115" t="s">
         <v>59</v>
       </c>
@@ -14041,7 +14898,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="127" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="127" customFormat="1" ht="30.75" customHeight="1">
       <c r="A6"/>
       <c r="B6" s="119">
         <v>10001</v>
@@ -14106,7 +14963,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -14686,7 +15543,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -14697,35 +15554,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="B8" s="37" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.25" thickBot="1">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.25" thickBot="1">
       <c r="B10" s="100" t="s">
         <v>40</v>
       </c>
@@ -14751,7 +15608,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="21">
       <c r="A11" s="38"/>
       <c r="B11" s="60" t="s">
         <v>172</v>
@@ -14779,7 +15636,7 @@
       </c>
       <c r="J11" s="123"/>
     </row>
-    <row r="12" spans="1:10" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="73.5">
       <c r="A12" s="38"/>
       <c r="B12" s="60" t="s">
         <v>173</v>
@@ -14806,7 +15663,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="B13" s="122"/>
       <c r="C13" s="51"/>
       <c r="D13" s="51"/>
@@ -14816,7 +15673,7 @@
       <c r="H13" s="42"/>
       <c r="I13" s="44"/>
     </row>
-    <row r="14" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.25" thickBot="1">
       <c r="B14" s="67"/>
       <c r="C14" s="43"/>
       <c r="D14" s="43"/>
@@ -14826,7 +15683,7 @@
       <c r="H14" s="42"/>
       <c r="I14" s="44"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
@@ -14836,7 +15693,7 @@
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
@@ -14846,7 +15703,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="6" customHeight="1">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -14856,7 +15713,7 @@
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
     </row>
-    <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="14.25">
       <c r="A18" s="32" t="s">
         <v>48</v>
       </c>
@@ -14866,7 +15723,7 @@
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -14876,7 +15733,7 @@
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="B20" s="113"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -14886,7 +15743,7 @@
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
@@ -14896,7 +15753,7 @@
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
@@ -14906,7 +15763,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
@@ -14916,7 +15773,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
@@ -14949,10 +15806,11 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B18" sqref="B18"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -15533,7 +16391,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -15544,35 +16402,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="B8" s="37" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1">
       <c r="B10" s="100" t="s">
         <v>40</v>
       </c>
@@ -15598,7 +16456,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="21">
       <c r="B11" s="60" t="s">
         <v>175</v>
       </c>
@@ -15624,7 +16482,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="73.5">
       <c r="A12" s="38"/>
       <c r="B12" s="60" t="s">
         <v>176</v>
@@ -15651,7 +16509,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="31.5">
       <c r="A13" s="38"/>
       <c r="B13" s="60"/>
       <c r="C13" s="42"/>
@@ -15672,7 +16530,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="42">
       <c r="A14" s="38"/>
       <c r="B14" s="60"/>
       <c r="C14" s="42"/>
@@ -15693,7 +16551,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="31.5">
       <c r="A15" s="38"/>
       <c r="B15" s="60"/>
       <c r="C15" s="109"/>
@@ -15714,7 +16572,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="31.5">
       <c r="A16" s="38"/>
       <c r="B16" s="60"/>
       <c r="C16" s="42"/>
@@ -15735,7 +16593,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="52.5">
       <c r="A17" s="38"/>
       <c r="B17" s="60"/>
       <c r="C17" s="42"/>
@@ -15756,7 +16614,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="52.5">
       <c r="A18" s="38"/>
       <c r="B18" s="60"/>
       <c r="C18" s="42"/>
@@ -15777,7 +16635,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="38"/>
       <c r="B19" s="60"/>
       <c r="C19" s="42"/>
@@ -15788,7 +16646,7 @@
       <c r="H19" s="42"/>
       <c r="I19" s="131"/>
     </row>
-    <row r="20" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="14.25" thickBot="1">
       <c r="B20" s="67"/>
       <c r="C20" s="43"/>
       <c r="D20" s="43"/>
@@ -15798,7 +16656,7 @@
       <c r="H20" s="43"/>
       <c r="I20" s="132"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
@@ -15808,7 +16666,7 @@
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
@@ -15818,7 +16676,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
     </row>
-    <row r="23" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="6" customHeight="1">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -15828,7 +16686,7 @@
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
     </row>
-    <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="14.25">
       <c r="A24" s="32" t="s">
         <v>48</v>
       </c>
@@ -15838,7 +16696,7 @@
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
@@ -15848,7 +16706,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="B26" s="113"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
@@ -15858,7 +16716,7 @@
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
@@ -15868,7 +16726,7 @@
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
@@ -15878,7 +16736,7 @@
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -15888,7 +16746,7 @@
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -15916,11 +16774,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -15928,12 +16784,12 @@
     <col min="7" max="7" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20">
       <c r="A2" s="114" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20">
       <c r="B4" s="115" t="s">
         <v>90</v>
       </c>
@@ -15983,7 +16839,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20">
       <c r="B5" s="115" t="s">
         <v>59</v>
       </c>
@@ -16042,7 +16898,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20">
       <c r="B6" s="119">
         <v>10001</v>
       </c>
@@ -16087,7 +16943,7 @@
       </c>
       <c r="T6" s="118"/>
     </row>
-    <row r="7" spans="1:20" s="118" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="118" customFormat="1">
       <c r="A7"/>
       <c r="B7" s="119">
         <v>10002</v>
@@ -16132,7 +16988,7 @@
         <v>INSERT INTO XXCCD_USER_ROLE_TMP (ID,USER_NAME,PERSON_NUMBER,LAST_NAME,FIRST_NAME,ROLE_ASSIGNMENT,SUPPLY_AGENT,LEDGER,DATA_ACCESS,BU,INSTANCE_ID,BEF_SUPPLY_AGENT,BEF_LEDGER,BEF_DATA_ACCESS,BEF_BU,ADD_REMOVE_ROLE) VALUES (10002,'XXCMM002A1103_TestUser17','74','l_user17','f_user17','ERROR_ROLE','','1','','','1','','','','','ADD');</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20">
       <c r="G8" s="130" t="s">
         <v>142</v>
       </c>
@@ -16147,6 +17003,2230 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="27" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="256" width="9" style="27"/>
+    <col min="257" max="257" width="3.125" style="27" customWidth="1"/>
+    <col min="258" max="258" width="9.75" style="27" customWidth="1"/>
+    <col min="259" max="259" width="40.125" style="27" customWidth="1"/>
+    <col min="260" max="260" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="261" max="262" width="21.625" style="27" customWidth="1"/>
+    <col min="263" max="263" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="10.125" style="27" customWidth="1"/>
+    <col min="265" max="265" width="11.625" style="27" customWidth="1"/>
+    <col min="266" max="512" width="9" style="27"/>
+    <col min="513" max="513" width="3.125" style="27" customWidth="1"/>
+    <col min="514" max="514" width="9.75" style="27" customWidth="1"/>
+    <col min="515" max="515" width="40.125" style="27" customWidth="1"/>
+    <col min="516" max="516" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="517" max="518" width="21.625" style="27" customWidth="1"/>
+    <col min="519" max="519" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="10.125" style="27" customWidth="1"/>
+    <col min="521" max="521" width="11.625" style="27" customWidth="1"/>
+    <col min="522" max="768" width="9" style="27"/>
+    <col min="769" max="769" width="3.125" style="27" customWidth="1"/>
+    <col min="770" max="770" width="9.75" style="27" customWidth="1"/>
+    <col min="771" max="771" width="40.125" style="27" customWidth="1"/>
+    <col min="772" max="772" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="773" max="774" width="21.625" style="27" customWidth="1"/>
+    <col min="775" max="775" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="10.125" style="27" customWidth="1"/>
+    <col min="777" max="777" width="11.625" style="27" customWidth="1"/>
+    <col min="778" max="1024" width="9" style="27"/>
+    <col min="1025" max="1025" width="3.125" style="27" customWidth="1"/>
+    <col min="1026" max="1026" width="9.75" style="27" customWidth="1"/>
+    <col min="1027" max="1027" width="40.125" style="27" customWidth="1"/>
+    <col min="1028" max="1028" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1030" width="21.625" style="27" customWidth="1"/>
+    <col min="1031" max="1031" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="10.125" style="27" customWidth="1"/>
+    <col min="1033" max="1033" width="11.625" style="27" customWidth="1"/>
+    <col min="1034" max="1280" width="9" style="27"/>
+    <col min="1281" max="1281" width="3.125" style="27" customWidth="1"/>
+    <col min="1282" max="1282" width="9.75" style="27" customWidth="1"/>
+    <col min="1283" max="1283" width="40.125" style="27" customWidth="1"/>
+    <col min="1284" max="1284" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1286" width="21.625" style="27" customWidth="1"/>
+    <col min="1287" max="1287" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="10.125" style="27" customWidth="1"/>
+    <col min="1289" max="1289" width="11.625" style="27" customWidth="1"/>
+    <col min="1290" max="1536" width="9" style="27"/>
+    <col min="1537" max="1537" width="3.125" style="27" customWidth="1"/>
+    <col min="1538" max="1538" width="9.75" style="27" customWidth="1"/>
+    <col min="1539" max="1539" width="40.125" style="27" customWidth="1"/>
+    <col min="1540" max="1540" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1542" width="21.625" style="27" customWidth="1"/>
+    <col min="1543" max="1543" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="10.125" style="27" customWidth="1"/>
+    <col min="1545" max="1545" width="11.625" style="27" customWidth="1"/>
+    <col min="1546" max="1792" width="9" style="27"/>
+    <col min="1793" max="1793" width="3.125" style="27" customWidth="1"/>
+    <col min="1794" max="1794" width="9.75" style="27" customWidth="1"/>
+    <col min="1795" max="1795" width="40.125" style="27" customWidth="1"/>
+    <col min="1796" max="1796" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1798" width="21.625" style="27" customWidth="1"/>
+    <col min="1799" max="1799" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="10.125" style="27" customWidth="1"/>
+    <col min="1801" max="1801" width="11.625" style="27" customWidth="1"/>
+    <col min="1802" max="2048" width="9" style="27"/>
+    <col min="2049" max="2049" width="3.125" style="27" customWidth="1"/>
+    <col min="2050" max="2050" width="9.75" style="27" customWidth="1"/>
+    <col min="2051" max="2051" width="40.125" style="27" customWidth="1"/>
+    <col min="2052" max="2052" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2054" width="21.625" style="27" customWidth="1"/>
+    <col min="2055" max="2055" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="10.125" style="27" customWidth="1"/>
+    <col min="2057" max="2057" width="11.625" style="27" customWidth="1"/>
+    <col min="2058" max="2304" width="9" style="27"/>
+    <col min="2305" max="2305" width="3.125" style="27" customWidth="1"/>
+    <col min="2306" max="2306" width="9.75" style="27" customWidth="1"/>
+    <col min="2307" max="2307" width="40.125" style="27" customWidth="1"/>
+    <col min="2308" max="2308" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2310" width="21.625" style="27" customWidth="1"/>
+    <col min="2311" max="2311" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="10.125" style="27" customWidth="1"/>
+    <col min="2313" max="2313" width="11.625" style="27" customWidth="1"/>
+    <col min="2314" max="2560" width="9" style="27"/>
+    <col min="2561" max="2561" width="3.125" style="27" customWidth="1"/>
+    <col min="2562" max="2562" width="9.75" style="27" customWidth="1"/>
+    <col min="2563" max="2563" width="40.125" style="27" customWidth="1"/>
+    <col min="2564" max="2564" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2566" width="21.625" style="27" customWidth="1"/>
+    <col min="2567" max="2567" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="10.125" style="27" customWidth="1"/>
+    <col min="2569" max="2569" width="11.625" style="27" customWidth="1"/>
+    <col min="2570" max="2816" width="9" style="27"/>
+    <col min="2817" max="2817" width="3.125" style="27" customWidth="1"/>
+    <col min="2818" max="2818" width="9.75" style="27" customWidth="1"/>
+    <col min="2819" max="2819" width="40.125" style="27" customWidth="1"/>
+    <col min="2820" max="2820" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2822" width="21.625" style="27" customWidth="1"/>
+    <col min="2823" max="2823" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="10.125" style="27" customWidth="1"/>
+    <col min="2825" max="2825" width="11.625" style="27" customWidth="1"/>
+    <col min="2826" max="3072" width="9" style="27"/>
+    <col min="3073" max="3073" width="3.125" style="27" customWidth="1"/>
+    <col min="3074" max="3074" width="9.75" style="27" customWidth="1"/>
+    <col min="3075" max="3075" width="40.125" style="27" customWidth="1"/>
+    <col min="3076" max="3076" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3078" width="21.625" style="27" customWidth="1"/>
+    <col min="3079" max="3079" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="10.125" style="27" customWidth="1"/>
+    <col min="3081" max="3081" width="11.625" style="27" customWidth="1"/>
+    <col min="3082" max="3328" width="9" style="27"/>
+    <col min="3329" max="3329" width="3.125" style="27" customWidth="1"/>
+    <col min="3330" max="3330" width="9.75" style="27" customWidth="1"/>
+    <col min="3331" max="3331" width="40.125" style="27" customWidth="1"/>
+    <col min="3332" max="3332" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3334" width="21.625" style="27" customWidth="1"/>
+    <col min="3335" max="3335" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="10.125" style="27" customWidth="1"/>
+    <col min="3337" max="3337" width="11.625" style="27" customWidth="1"/>
+    <col min="3338" max="3584" width="9" style="27"/>
+    <col min="3585" max="3585" width="3.125" style="27" customWidth="1"/>
+    <col min="3586" max="3586" width="9.75" style="27" customWidth="1"/>
+    <col min="3587" max="3587" width="40.125" style="27" customWidth="1"/>
+    <col min="3588" max="3588" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3590" width="21.625" style="27" customWidth="1"/>
+    <col min="3591" max="3591" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="10.125" style="27" customWidth="1"/>
+    <col min="3593" max="3593" width="11.625" style="27" customWidth="1"/>
+    <col min="3594" max="3840" width="9" style="27"/>
+    <col min="3841" max="3841" width="3.125" style="27" customWidth="1"/>
+    <col min="3842" max="3842" width="9.75" style="27" customWidth="1"/>
+    <col min="3843" max="3843" width="40.125" style="27" customWidth="1"/>
+    <col min="3844" max="3844" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3846" width="21.625" style="27" customWidth="1"/>
+    <col min="3847" max="3847" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="10.125" style="27" customWidth="1"/>
+    <col min="3849" max="3849" width="11.625" style="27" customWidth="1"/>
+    <col min="3850" max="4096" width="9" style="27"/>
+    <col min="4097" max="4097" width="3.125" style="27" customWidth="1"/>
+    <col min="4098" max="4098" width="9.75" style="27" customWidth="1"/>
+    <col min="4099" max="4099" width="40.125" style="27" customWidth="1"/>
+    <col min="4100" max="4100" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4102" width="21.625" style="27" customWidth="1"/>
+    <col min="4103" max="4103" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="10.125" style="27" customWidth="1"/>
+    <col min="4105" max="4105" width="11.625" style="27" customWidth="1"/>
+    <col min="4106" max="4352" width="9" style="27"/>
+    <col min="4353" max="4353" width="3.125" style="27" customWidth="1"/>
+    <col min="4354" max="4354" width="9.75" style="27" customWidth="1"/>
+    <col min="4355" max="4355" width="40.125" style="27" customWidth="1"/>
+    <col min="4356" max="4356" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4358" width="21.625" style="27" customWidth="1"/>
+    <col min="4359" max="4359" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="10.125" style="27" customWidth="1"/>
+    <col min="4361" max="4361" width="11.625" style="27" customWidth="1"/>
+    <col min="4362" max="4608" width="9" style="27"/>
+    <col min="4609" max="4609" width="3.125" style="27" customWidth="1"/>
+    <col min="4610" max="4610" width="9.75" style="27" customWidth="1"/>
+    <col min="4611" max="4611" width="40.125" style="27" customWidth="1"/>
+    <col min="4612" max="4612" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4614" width="21.625" style="27" customWidth="1"/>
+    <col min="4615" max="4615" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="10.125" style="27" customWidth="1"/>
+    <col min="4617" max="4617" width="11.625" style="27" customWidth="1"/>
+    <col min="4618" max="4864" width="9" style="27"/>
+    <col min="4865" max="4865" width="3.125" style="27" customWidth="1"/>
+    <col min="4866" max="4866" width="9.75" style="27" customWidth="1"/>
+    <col min="4867" max="4867" width="40.125" style="27" customWidth="1"/>
+    <col min="4868" max="4868" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4870" width="21.625" style="27" customWidth="1"/>
+    <col min="4871" max="4871" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="10.125" style="27" customWidth="1"/>
+    <col min="4873" max="4873" width="11.625" style="27" customWidth="1"/>
+    <col min="4874" max="5120" width="9" style="27"/>
+    <col min="5121" max="5121" width="3.125" style="27" customWidth="1"/>
+    <col min="5122" max="5122" width="9.75" style="27" customWidth="1"/>
+    <col min="5123" max="5123" width="40.125" style="27" customWidth="1"/>
+    <col min="5124" max="5124" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5126" width="21.625" style="27" customWidth="1"/>
+    <col min="5127" max="5127" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="10.125" style="27" customWidth="1"/>
+    <col min="5129" max="5129" width="11.625" style="27" customWidth="1"/>
+    <col min="5130" max="5376" width="9" style="27"/>
+    <col min="5377" max="5377" width="3.125" style="27" customWidth="1"/>
+    <col min="5378" max="5378" width="9.75" style="27" customWidth="1"/>
+    <col min="5379" max="5379" width="40.125" style="27" customWidth="1"/>
+    <col min="5380" max="5380" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5382" width="21.625" style="27" customWidth="1"/>
+    <col min="5383" max="5383" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="10.125" style="27" customWidth="1"/>
+    <col min="5385" max="5385" width="11.625" style="27" customWidth="1"/>
+    <col min="5386" max="5632" width="9" style="27"/>
+    <col min="5633" max="5633" width="3.125" style="27" customWidth="1"/>
+    <col min="5634" max="5634" width="9.75" style="27" customWidth="1"/>
+    <col min="5635" max="5635" width="40.125" style="27" customWidth="1"/>
+    <col min="5636" max="5636" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5638" width="21.625" style="27" customWidth="1"/>
+    <col min="5639" max="5639" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="10.125" style="27" customWidth="1"/>
+    <col min="5641" max="5641" width="11.625" style="27" customWidth="1"/>
+    <col min="5642" max="5888" width="9" style="27"/>
+    <col min="5889" max="5889" width="3.125" style="27" customWidth="1"/>
+    <col min="5890" max="5890" width="9.75" style="27" customWidth="1"/>
+    <col min="5891" max="5891" width="40.125" style="27" customWidth="1"/>
+    <col min="5892" max="5892" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5894" width="21.625" style="27" customWidth="1"/>
+    <col min="5895" max="5895" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="10.125" style="27" customWidth="1"/>
+    <col min="5897" max="5897" width="11.625" style="27" customWidth="1"/>
+    <col min="5898" max="6144" width="9" style="27"/>
+    <col min="6145" max="6145" width="3.125" style="27" customWidth="1"/>
+    <col min="6146" max="6146" width="9.75" style="27" customWidth="1"/>
+    <col min="6147" max="6147" width="40.125" style="27" customWidth="1"/>
+    <col min="6148" max="6148" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6150" width="21.625" style="27" customWidth="1"/>
+    <col min="6151" max="6151" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="10.125" style="27" customWidth="1"/>
+    <col min="6153" max="6153" width="11.625" style="27" customWidth="1"/>
+    <col min="6154" max="6400" width="9" style="27"/>
+    <col min="6401" max="6401" width="3.125" style="27" customWidth="1"/>
+    <col min="6402" max="6402" width="9.75" style="27" customWidth="1"/>
+    <col min="6403" max="6403" width="40.125" style="27" customWidth="1"/>
+    <col min="6404" max="6404" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6406" width="21.625" style="27" customWidth="1"/>
+    <col min="6407" max="6407" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="10.125" style="27" customWidth="1"/>
+    <col min="6409" max="6409" width="11.625" style="27" customWidth="1"/>
+    <col min="6410" max="6656" width="9" style="27"/>
+    <col min="6657" max="6657" width="3.125" style="27" customWidth="1"/>
+    <col min="6658" max="6658" width="9.75" style="27" customWidth="1"/>
+    <col min="6659" max="6659" width="40.125" style="27" customWidth="1"/>
+    <col min="6660" max="6660" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6662" width="21.625" style="27" customWidth="1"/>
+    <col min="6663" max="6663" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="10.125" style="27" customWidth="1"/>
+    <col min="6665" max="6665" width="11.625" style="27" customWidth="1"/>
+    <col min="6666" max="6912" width="9" style="27"/>
+    <col min="6913" max="6913" width="3.125" style="27" customWidth="1"/>
+    <col min="6914" max="6914" width="9.75" style="27" customWidth="1"/>
+    <col min="6915" max="6915" width="40.125" style="27" customWidth="1"/>
+    <col min="6916" max="6916" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6918" width="21.625" style="27" customWidth="1"/>
+    <col min="6919" max="6919" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="10.125" style="27" customWidth="1"/>
+    <col min="6921" max="6921" width="11.625" style="27" customWidth="1"/>
+    <col min="6922" max="7168" width="9" style="27"/>
+    <col min="7169" max="7169" width="3.125" style="27" customWidth="1"/>
+    <col min="7170" max="7170" width="9.75" style="27" customWidth="1"/>
+    <col min="7171" max="7171" width="40.125" style="27" customWidth="1"/>
+    <col min="7172" max="7172" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7174" width="21.625" style="27" customWidth="1"/>
+    <col min="7175" max="7175" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="10.125" style="27" customWidth="1"/>
+    <col min="7177" max="7177" width="11.625" style="27" customWidth="1"/>
+    <col min="7178" max="7424" width="9" style="27"/>
+    <col min="7425" max="7425" width="3.125" style="27" customWidth="1"/>
+    <col min="7426" max="7426" width="9.75" style="27" customWidth="1"/>
+    <col min="7427" max="7427" width="40.125" style="27" customWidth="1"/>
+    <col min="7428" max="7428" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7430" width="21.625" style="27" customWidth="1"/>
+    <col min="7431" max="7431" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="10.125" style="27" customWidth="1"/>
+    <col min="7433" max="7433" width="11.625" style="27" customWidth="1"/>
+    <col min="7434" max="7680" width="9" style="27"/>
+    <col min="7681" max="7681" width="3.125" style="27" customWidth="1"/>
+    <col min="7682" max="7682" width="9.75" style="27" customWidth="1"/>
+    <col min="7683" max="7683" width="40.125" style="27" customWidth="1"/>
+    <col min="7684" max="7684" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7686" width="21.625" style="27" customWidth="1"/>
+    <col min="7687" max="7687" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="10.125" style="27" customWidth="1"/>
+    <col min="7689" max="7689" width="11.625" style="27" customWidth="1"/>
+    <col min="7690" max="7936" width="9" style="27"/>
+    <col min="7937" max="7937" width="3.125" style="27" customWidth="1"/>
+    <col min="7938" max="7938" width="9.75" style="27" customWidth="1"/>
+    <col min="7939" max="7939" width="40.125" style="27" customWidth="1"/>
+    <col min="7940" max="7940" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7942" width="21.625" style="27" customWidth="1"/>
+    <col min="7943" max="7943" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="10.125" style="27" customWidth="1"/>
+    <col min="7945" max="7945" width="11.625" style="27" customWidth="1"/>
+    <col min="7946" max="8192" width="9" style="27"/>
+    <col min="8193" max="8193" width="3.125" style="27" customWidth="1"/>
+    <col min="8194" max="8194" width="9.75" style="27" customWidth="1"/>
+    <col min="8195" max="8195" width="40.125" style="27" customWidth="1"/>
+    <col min="8196" max="8196" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8198" width="21.625" style="27" customWidth="1"/>
+    <col min="8199" max="8199" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="10.125" style="27" customWidth="1"/>
+    <col min="8201" max="8201" width="11.625" style="27" customWidth="1"/>
+    <col min="8202" max="8448" width="9" style="27"/>
+    <col min="8449" max="8449" width="3.125" style="27" customWidth="1"/>
+    <col min="8450" max="8450" width="9.75" style="27" customWidth="1"/>
+    <col min="8451" max="8451" width="40.125" style="27" customWidth="1"/>
+    <col min="8452" max="8452" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8454" width="21.625" style="27" customWidth="1"/>
+    <col min="8455" max="8455" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="10.125" style="27" customWidth="1"/>
+    <col min="8457" max="8457" width="11.625" style="27" customWidth="1"/>
+    <col min="8458" max="8704" width="9" style="27"/>
+    <col min="8705" max="8705" width="3.125" style="27" customWidth="1"/>
+    <col min="8706" max="8706" width="9.75" style="27" customWidth="1"/>
+    <col min="8707" max="8707" width="40.125" style="27" customWidth="1"/>
+    <col min="8708" max="8708" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8710" width="21.625" style="27" customWidth="1"/>
+    <col min="8711" max="8711" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="10.125" style="27" customWidth="1"/>
+    <col min="8713" max="8713" width="11.625" style="27" customWidth="1"/>
+    <col min="8714" max="8960" width="9" style="27"/>
+    <col min="8961" max="8961" width="3.125" style="27" customWidth="1"/>
+    <col min="8962" max="8962" width="9.75" style="27" customWidth="1"/>
+    <col min="8963" max="8963" width="40.125" style="27" customWidth="1"/>
+    <col min="8964" max="8964" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8966" width="21.625" style="27" customWidth="1"/>
+    <col min="8967" max="8967" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="10.125" style="27" customWidth="1"/>
+    <col min="8969" max="8969" width="11.625" style="27" customWidth="1"/>
+    <col min="8970" max="9216" width="9" style="27"/>
+    <col min="9217" max="9217" width="3.125" style="27" customWidth="1"/>
+    <col min="9218" max="9218" width="9.75" style="27" customWidth="1"/>
+    <col min="9219" max="9219" width="40.125" style="27" customWidth="1"/>
+    <col min="9220" max="9220" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9222" width="21.625" style="27" customWidth="1"/>
+    <col min="9223" max="9223" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="10.125" style="27" customWidth="1"/>
+    <col min="9225" max="9225" width="11.625" style="27" customWidth="1"/>
+    <col min="9226" max="9472" width="9" style="27"/>
+    <col min="9473" max="9473" width="3.125" style="27" customWidth="1"/>
+    <col min="9474" max="9474" width="9.75" style="27" customWidth="1"/>
+    <col min="9475" max="9475" width="40.125" style="27" customWidth="1"/>
+    <col min="9476" max="9476" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9478" width="21.625" style="27" customWidth="1"/>
+    <col min="9479" max="9479" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="10.125" style="27" customWidth="1"/>
+    <col min="9481" max="9481" width="11.625" style="27" customWidth="1"/>
+    <col min="9482" max="9728" width="9" style="27"/>
+    <col min="9729" max="9729" width="3.125" style="27" customWidth="1"/>
+    <col min="9730" max="9730" width="9.75" style="27" customWidth="1"/>
+    <col min="9731" max="9731" width="40.125" style="27" customWidth="1"/>
+    <col min="9732" max="9732" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9734" width="21.625" style="27" customWidth="1"/>
+    <col min="9735" max="9735" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="10.125" style="27" customWidth="1"/>
+    <col min="9737" max="9737" width="11.625" style="27" customWidth="1"/>
+    <col min="9738" max="9984" width="9" style="27"/>
+    <col min="9985" max="9985" width="3.125" style="27" customWidth="1"/>
+    <col min="9986" max="9986" width="9.75" style="27" customWidth="1"/>
+    <col min="9987" max="9987" width="40.125" style="27" customWidth="1"/>
+    <col min="9988" max="9988" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9990" width="21.625" style="27" customWidth="1"/>
+    <col min="9991" max="9991" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="10.125" style="27" customWidth="1"/>
+    <col min="9993" max="9993" width="11.625" style="27" customWidth="1"/>
+    <col min="9994" max="10240" width="9" style="27"/>
+    <col min="10241" max="10241" width="3.125" style="27" customWidth="1"/>
+    <col min="10242" max="10242" width="9.75" style="27" customWidth="1"/>
+    <col min="10243" max="10243" width="40.125" style="27" customWidth="1"/>
+    <col min="10244" max="10244" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10246" width="21.625" style="27" customWidth="1"/>
+    <col min="10247" max="10247" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="10.125" style="27" customWidth="1"/>
+    <col min="10249" max="10249" width="11.625" style="27" customWidth="1"/>
+    <col min="10250" max="10496" width="9" style="27"/>
+    <col min="10497" max="10497" width="3.125" style="27" customWidth="1"/>
+    <col min="10498" max="10498" width="9.75" style="27" customWidth="1"/>
+    <col min="10499" max="10499" width="40.125" style="27" customWidth="1"/>
+    <col min="10500" max="10500" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10502" width="21.625" style="27" customWidth="1"/>
+    <col min="10503" max="10503" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="10.125" style="27" customWidth="1"/>
+    <col min="10505" max="10505" width="11.625" style="27" customWidth="1"/>
+    <col min="10506" max="10752" width="9" style="27"/>
+    <col min="10753" max="10753" width="3.125" style="27" customWidth="1"/>
+    <col min="10754" max="10754" width="9.75" style="27" customWidth="1"/>
+    <col min="10755" max="10755" width="40.125" style="27" customWidth="1"/>
+    <col min="10756" max="10756" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10758" width="21.625" style="27" customWidth="1"/>
+    <col min="10759" max="10759" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="10.125" style="27" customWidth="1"/>
+    <col min="10761" max="10761" width="11.625" style="27" customWidth="1"/>
+    <col min="10762" max="11008" width="9" style="27"/>
+    <col min="11009" max="11009" width="3.125" style="27" customWidth="1"/>
+    <col min="11010" max="11010" width="9.75" style="27" customWidth="1"/>
+    <col min="11011" max="11011" width="40.125" style="27" customWidth="1"/>
+    <col min="11012" max="11012" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11014" width="21.625" style="27" customWidth="1"/>
+    <col min="11015" max="11015" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="10.125" style="27" customWidth="1"/>
+    <col min="11017" max="11017" width="11.625" style="27" customWidth="1"/>
+    <col min="11018" max="11264" width="9" style="27"/>
+    <col min="11265" max="11265" width="3.125" style="27" customWidth="1"/>
+    <col min="11266" max="11266" width="9.75" style="27" customWidth="1"/>
+    <col min="11267" max="11267" width="40.125" style="27" customWidth="1"/>
+    <col min="11268" max="11268" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11270" width="21.625" style="27" customWidth="1"/>
+    <col min="11271" max="11271" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="10.125" style="27" customWidth="1"/>
+    <col min="11273" max="11273" width="11.625" style="27" customWidth="1"/>
+    <col min="11274" max="11520" width="9" style="27"/>
+    <col min="11521" max="11521" width="3.125" style="27" customWidth="1"/>
+    <col min="11522" max="11522" width="9.75" style="27" customWidth="1"/>
+    <col min="11523" max="11523" width="40.125" style="27" customWidth="1"/>
+    <col min="11524" max="11524" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11526" width="21.625" style="27" customWidth="1"/>
+    <col min="11527" max="11527" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="10.125" style="27" customWidth="1"/>
+    <col min="11529" max="11529" width="11.625" style="27" customWidth="1"/>
+    <col min="11530" max="11776" width="9" style="27"/>
+    <col min="11777" max="11777" width="3.125" style="27" customWidth="1"/>
+    <col min="11778" max="11778" width="9.75" style="27" customWidth="1"/>
+    <col min="11779" max="11779" width="40.125" style="27" customWidth="1"/>
+    <col min="11780" max="11780" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11782" width="21.625" style="27" customWidth="1"/>
+    <col min="11783" max="11783" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="10.125" style="27" customWidth="1"/>
+    <col min="11785" max="11785" width="11.625" style="27" customWidth="1"/>
+    <col min="11786" max="12032" width="9" style="27"/>
+    <col min="12033" max="12033" width="3.125" style="27" customWidth="1"/>
+    <col min="12034" max="12034" width="9.75" style="27" customWidth="1"/>
+    <col min="12035" max="12035" width="40.125" style="27" customWidth="1"/>
+    <col min="12036" max="12036" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12038" width="21.625" style="27" customWidth="1"/>
+    <col min="12039" max="12039" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="10.125" style="27" customWidth="1"/>
+    <col min="12041" max="12041" width="11.625" style="27" customWidth="1"/>
+    <col min="12042" max="12288" width="9" style="27"/>
+    <col min="12289" max="12289" width="3.125" style="27" customWidth="1"/>
+    <col min="12290" max="12290" width="9.75" style="27" customWidth="1"/>
+    <col min="12291" max="12291" width="40.125" style="27" customWidth="1"/>
+    <col min="12292" max="12292" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12294" width="21.625" style="27" customWidth="1"/>
+    <col min="12295" max="12295" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="10.125" style="27" customWidth="1"/>
+    <col min="12297" max="12297" width="11.625" style="27" customWidth="1"/>
+    <col min="12298" max="12544" width="9" style="27"/>
+    <col min="12545" max="12545" width="3.125" style="27" customWidth="1"/>
+    <col min="12546" max="12546" width="9.75" style="27" customWidth="1"/>
+    <col min="12547" max="12547" width="40.125" style="27" customWidth="1"/>
+    <col min="12548" max="12548" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12550" width="21.625" style="27" customWidth="1"/>
+    <col min="12551" max="12551" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="10.125" style="27" customWidth="1"/>
+    <col min="12553" max="12553" width="11.625" style="27" customWidth="1"/>
+    <col min="12554" max="12800" width="9" style="27"/>
+    <col min="12801" max="12801" width="3.125" style="27" customWidth="1"/>
+    <col min="12802" max="12802" width="9.75" style="27" customWidth="1"/>
+    <col min="12803" max="12803" width="40.125" style="27" customWidth="1"/>
+    <col min="12804" max="12804" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12806" width="21.625" style="27" customWidth="1"/>
+    <col min="12807" max="12807" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="10.125" style="27" customWidth="1"/>
+    <col min="12809" max="12809" width="11.625" style="27" customWidth="1"/>
+    <col min="12810" max="13056" width="9" style="27"/>
+    <col min="13057" max="13057" width="3.125" style="27" customWidth="1"/>
+    <col min="13058" max="13058" width="9.75" style="27" customWidth="1"/>
+    <col min="13059" max="13059" width="40.125" style="27" customWidth="1"/>
+    <col min="13060" max="13060" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13062" width="21.625" style="27" customWidth="1"/>
+    <col min="13063" max="13063" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="10.125" style="27" customWidth="1"/>
+    <col min="13065" max="13065" width="11.625" style="27" customWidth="1"/>
+    <col min="13066" max="13312" width="9" style="27"/>
+    <col min="13313" max="13313" width="3.125" style="27" customWidth="1"/>
+    <col min="13314" max="13314" width="9.75" style="27" customWidth="1"/>
+    <col min="13315" max="13315" width="40.125" style="27" customWidth="1"/>
+    <col min="13316" max="13316" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13318" width="21.625" style="27" customWidth="1"/>
+    <col min="13319" max="13319" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="10.125" style="27" customWidth="1"/>
+    <col min="13321" max="13321" width="11.625" style="27" customWidth="1"/>
+    <col min="13322" max="13568" width="9" style="27"/>
+    <col min="13569" max="13569" width="3.125" style="27" customWidth="1"/>
+    <col min="13570" max="13570" width="9.75" style="27" customWidth="1"/>
+    <col min="13571" max="13571" width="40.125" style="27" customWidth="1"/>
+    <col min="13572" max="13572" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13574" width="21.625" style="27" customWidth="1"/>
+    <col min="13575" max="13575" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="10.125" style="27" customWidth="1"/>
+    <col min="13577" max="13577" width="11.625" style="27" customWidth="1"/>
+    <col min="13578" max="13824" width="9" style="27"/>
+    <col min="13825" max="13825" width="3.125" style="27" customWidth="1"/>
+    <col min="13826" max="13826" width="9.75" style="27" customWidth="1"/>
+    <col min="13827" max="13827" width="40.125" style="27" customWidth="1"/>
+    <col min="13828" max="13828" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13830" width="21.625" style="27" customWidth="1"/>
+    <col min="13831" max="13831" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="10.125" style="27" customWidth="1"/>
+    <col min="13833" max="13833" width="11.625" style="27" customWidth="1"/>
+    <col min="13834" max="14080" width="9" style="27"/>
+    <col min="14081" max="14081" width="3.125" style="27" customWidth="1"/>
+    <col min="14082" max="14082" width="9.75" style="27" customWidth="1"/>
+    <col min="14083" max="14083" width="40.125" style="27" customWidth="1"/>
+    <col min="14084" max="14084" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14086" width="21.625" style="27" customWidth="1"/>
+    <col min="14087" max="14087" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="10.125" style="27" customWidth="1"/>
+    <col min="14089" max="14089" width="11.625" style="27" customWidth="1"/>
+    <col min="14090" max="14336" width="9" style="27"/>
+    <col min="14337" max="14337" width="3.125" style="27" customWidth="1"/>
+    <col min="14338" max="14338" width="9.75" style="27" customWidth="1"/>
+    <col min="14339" max="14339" width="40.125" style="27" customWidth="1"/>
+    <col min="14340" max="14340" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14342" width="21.625" style="27" customWidth="1"/>
+    <col min="14343" max="14343" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="10.125" style="27" customWidth="1"/>
+    <col min="14345" max="14345" width="11.625" style="27" customWidth="1"/>
+    <col min="14346" max="14592" width="9" style="27"/>
+    <col min="14593" max="14593" width="3.125" style="27" customWidth="1"/>
+    <col min="14594" max="14594" width="9.75" style="27" customWidth="1"/>
+    <col min="14595" max="14595" width="40.125" style="27" customWidth="1"/>
+    <col min="14596" max="14596" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14598" width="21.625" style="27" customWidth="1"/>
+    <col min="14599" max="14599" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="10.125" style="27" customWidth="1"/>
+    <col min="14601" max="14601" width="11.625" style="27" customWidth="1"/>
+    <col min="14602" max="14848" width="9" style="27"/>
+    <col min="14849" max="14849" width="3.125" style="27" customWidth="1"/>
+    <col min="14850" max="14850" width="9.75" style="27" customWidth="1"/>
+    <col min="14851" max="14851" width="40.125" style="27" customWidth="1"/>
+    <col min="14852" max="14852" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14854" width="21.625" style="27" customWidth="1"/>
+    <col min="14855" max="14855" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="10.125" style="27" customWidth="1"/>
+    <col min="14857" max="14857" width="11.625" style="27" customWidth="1"/>
+    <col min="14858" max="15104" width="9" style="27"/>
+    <col min="15105" max="15105" width="3.125" style="27" customWidth="1"/>
+    <col min="15106" max="15106" width="9.75" style="27" customWidth="1"/>
+    <col min="15107" max="15107" width="40.125" style="27" customWidth="1"/>
+    <col min="15108" max="15108" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15110" width="21.625" style="27" customWidth="1"/>
+    <col min="15111" max="15111" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="10.125" style="27" customWidth="1"/>
+    <col min="15113" max="15113" width="11.625" style="27" customWidth="1"/>
+    <col min="15114" max="15360" width="9" style="27"/>
+    <col min="15361" max="15361" width="3.125" style="27" customWidth="1"/>
+    <col min="15362" max="15362" width="9.75" style="27" customWidth="1"/>
+    <col min="15363" max="15363" width="40.125" style="27" customWidth="1"/>
+    <col min="15364" max="15364" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15366" width="21.625" style="27" customWidth="1"/>
+    <col min="15367" max="15367" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="10.125" style="27" customWidth="1"/>
+    <col min="15369" max="15369" width="11.625" style="27" customWidth="1"/>
+    <col min="15370" max="15616" width="9" style="27"/>
+    <col min="15617" max="15617" width="3.125" style="27" customWidth="1"/>
+    <col min="15618" max="15618" width="9.75" style="27" customWidth="1"/>
+    <col min="15619" max="15619" width="40.125" style="27" customWidth="1"/>
+    <col min="15620" max="15620" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15622" width="21.625" style="27" customWidth="1"/>
+    <col min="15623" max="15623" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="10.125" style="27" customWidth="1"/>
+    <col min="15625" max="15625" width="11.625" style="27" customWidth="1"/>
+    <col min="15626" max="15872" width="9" style="27"/>
+    <col min="15873" max="15873" width="3.125" style="27" customWidth="1"/>
+    <col min="15874" max="15874" width="9.75" style="27" customWidth="1"/>
+    <col min="15875" max="15875" width="40.125" style="27" customWidth="1"/>
+    <col min="15876" max="15876" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15878" width="21.625" style="27" customWidth="1"/>
+    <col min="15879" max="15879" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="10.125" style="27" customWidth="1"/>
+    <col min="15881" max="15881" width="11.625" style="27" customWidth="1"/>
+    <col min="15882" max="16128" width="9" style="27"/>
+    <col min="16129" max="16129" width="3.125" style="27" customWidth="1"/>
+    <col min="16130" max="16130" width="9.75" style="27" customWidth="1"/>
+    <col min="16131" max="16131" width="40.125" style="27" customWidth="1"/>
+    <col min="16132" max="16132" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16134" width="21.625" style="27" customWidth="1"/>
+    <col min="16135" max="16135" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="10.125" style="27" customWidth="1"/>
+    <col min="16137" max="16137" width="11.625" style="27" customWidth="1"/>
+    <col min="16138" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="6" customHeight="1">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.25">
+      <c r="A2" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" thickBot="1">
+      <c r="B9" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" thickBot="1">
+      <c r="B10" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="102" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="94.5">
+      <c r="B11" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="D11" s="116" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" s="116" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" s="116" t="s">
+        <v>322</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="H11" s="116" t="s">
+        <v>325</v>
+      </c>
+      <c r="I11" s="116" t="s">
+        <v>326</v>
+      </c>
+      <c r="J11" s="123"/>
+    </row>
+    <row r="12" spans="1:10" ht="52.5">
+      <c r="A12" s="38"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="110" t="s">
+        <v>317</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="H12" s="116" t="s">
+        <v>325</v>
+      </c>
+      <c r="I12" s="116" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21">
+      <c r="B13" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="14" spans="1:10" ht="84">
+      <c r="A14" s="38"/>
+      <c r="B14" s="60" t="s">
+        <v>312</v>
+      </c>
+      <c r="C14" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="116" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="H14" s="116" t="s">
+        <v>325</v>
+      </c>
+      <c r="I14" s="116" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="52.5">
+      <c r="A15" s="38"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="110" t="s">
+        <v>318</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="H15" s="116" t="s">
+        <v>325</v>
+      </c>
+      <c r="I15" s="116" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="38"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="71"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="38"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="71"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="38"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="71"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="38"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="71"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="38"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="71"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="38"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="131"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B22" s="67"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="132"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="1:9" ht="6" customHeight="1">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.25">
+      <c r="A26" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="113"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G12 G14:G22">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+  </sheetPr>
+  <dimension ref="A2:T6"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="7" max="7" width="44.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20">
+      <c r="A2" s="114" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="B4" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="115" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="115" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="115" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="115" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="115" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" s="115" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="B5" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="115" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="115" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="115" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="115" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5" t="s">
+        <v>152</v>
+      </c>
+      <c r="S5" t="s">
+        <v>153</v>
+      </c>
+      <c r="T5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="118" customFormat="1">
+      <c r="A6"/>
+      <c r="B6" s="119">
+        <v>10001</v>
+      </c>
+      <c r="C6" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="119">
+        <v>74</v>
+      </c>
+      <c r="E6" s="117" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="117" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" s="129" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121">
+        <v>1</v>
+      </c>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="119">
+        <v>1</v>
+      </c>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="R6" s="133" t="str">
+        <f>B6&amp;",'"&amp;C6&amp;"','"&amp;D6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"','"&amp;G6&amp;"','"&amp;H6&amp;"','"&amp;I6&amp;"','"&amp;J6&amp;"','"&amp;K6&amp;"','"&amp;L6&amp;"','"&amp;M6&amp;"','"&amp;N6&amp;"','"&amp;O6&amp;"','"&amp;P6&amp;"','"&amp;Q6&amp;"');"</f>
+        <v>10001,'XXCMM002A1103_TestUser17','74','l_user17','f_user17','ERROR_ROLE','','1','','','1','','','','','ADD');</v>
+      </c>
+      <c r="S6" s="133" t="str">
+        <f>$R$5&amp;$S$5&amp;$T$5&amp;R6</f>
+        <v>INSERT INTO XXCCD_USER_ROLE_TMP (ID,USER_NAME,PERSON_NUMBER,LAST_NAME,FIRST_NAME,ROLE_ASSIGNMENT,SUPPLY_AGENT,LEDGER,DATA_ACCESS,BU,INSTANCE_ID,BEF_SUPPLY_AGENT,BEF_LEDGER,BEF_DATA_ACCESS,BEF_BU,ADD_REMOVE_ROLE) VALUES (10001,'XXCMM002A1103_TestUser17','74','l_user17','f_user17','ERROR_ROLE','','1','','','1','','','','','ADD');</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="2" max="3" width="9.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="30" style="27" customWidth="1"/>
+    <col min="6" max="8" width="13.125" style="27" customWidth="1"/>
+    <col min="9" max="256" width="9" style="27"/>
+    <col min="257" max="257" width="3.125" style="27" customWidth="1"/>
+    <col min="258" max="259" width="9.125" style="27" customWidth="1"/>
+    <col min="260" max="260" width="30.625" style="27" customWidth="1"/>
+    <col min="261" max="261" width="30" style="27" customWidth="1"/>
+    <col min="262" max="264" width="13.125" style="27" customWidth="1"/>
+    <col min="265" max="512" width="9" style="27"/>
+    <col min="513" max="513" width="3.125" style="27" customWidth="1"/>
+    <col min="514" max="515" width="9.125" style="27" customWidth="1"/>
+    <col min="516" max="516" width="30.625" style="27" customWidth="1"/>
+    <col min="517" max="517" width="30" style="27" customWidth="1"/>
+    <col min="518" max="520" width="13.125" style="27" customWidth="1"/>
+    <col min="521" max="768" width="9" style="27"/>
+    <col min="769" max="769" width="3.125" style="27" customWidth="1"/>
+    <col min="770" max="771" width="9.125" style="27" customWidth="1"/>
+    <col min="772" max="772" width="30.625" style="27" customWidth="1"/>
+    <col min="773" max="773" width="30" style="27" customWidth="1"/>
+    <col min="774" max="776" width="13.125" style="27" customWidth="1"/>
+    <col min="777" max="1024" width="9" style="27"/>
+    <col min="1025" max="1025" width="3.125" style="27" customWidth="1"/>
+    <col min="1026" max="1027" width="9.125" style="27" customWidth="1"/>
+    <col min="1028" max="1028" width="30.625" style="27" customWidth="1"/>
+    <col min="1029" max="1029" width="30" style="27" customWidth="1"/>
+    <col min="1030" max="1032" width="13.125" style="27" customWidth="1"/>
+    <col min="1033" max="1280" width="9" style="27"/>
+    <col min="1281" max="1281" width="3.125" style="27" customWidth="1"/>
+    <col min="1282" max="1283" width="9.125" style="27" customWidth="1"/>
+    <col min="1284" max="1284" width="30.625" style="27" customWidth="1"/>
+    <col min="1285" max="1285" width="30" style="27" customWidth="1"/>
+    <col min="1286" max="1288" width="13.125" style="27" customWidth="1"/>
+    <col min="1289" max="1536" width="9" style="27"/>
+    <col min="1537" max="1537" width="3.125" style="27" customWidth="1"/>
+    <col min="1538" max="1539" width="9.125" style="27" customWidth="1"/>
+    <col min="1540" max="1540" width="30.625" style="27" customWidth="1"/>
+    <col min="1541" max="1541" width="30" style="27" customWidth="1"/>
+    <col min="1542" max="1544" width="13.125" style="27" customWidth="1"/>
+    <col min="1545" max="1792" width="9" style="27"/>
+    <col min="1793" max="1793" width="3.125" style="27" customWidth="1"/>
+    <col min="1794" max="1795" width="9.125" style="27" customWidth="1"/>
+    <col min="1796" max="1796" width="30.625" style="27" customWidth="1"/>
+    <col min="1797" max="1797" width="30" style="27" customWidth="1"/>
+    <col min="1798" max="1800" width="13.125" style="27" customWidth="1"/>
+    <col min="1801" max="2048" width="9" style="27"/>
+    <col min="2049" max="2049" width="3.125" style="27" customWidth="1"/>
+    <col min="2050" max="2051" width="9.125" style="27" customWidth="1"/>
+    <col min="2052" max="2052" width="30.625" style="27" customWidth="1"/>
+    <col min="2053" max="2053" width="30" style="27" customWidth="1"/>
+    <col min="2054" max="2056" width="13.125" style="27" customWidth="1"/>
+    <col min="2057" max="2304" width="9" style="27"/>
+    <col min="2305" max="2305" width="3.125" style="27" customWidth="1"/>
+    <col min="2306" max="2307" width="9.125" style="27" customWidth="1"/>
+    <col min="2308" max="2308" width="30.625" style="27" customWidth="1"/>
+    <col min="2309" max="2309" width="30" style="27" customWidth="1"/>
+    <col min="2310" max="2312" width="13.125" style="27" customWidth="1"/>
+    <col min="2313" max="2560" width="9" style="27"/>
+    <col min="2561" max="2561" width="3.125" style="27" customWidth="1"/>
+    <col min="2562" max="2563" width="9.125" style="27" customWidth="1"/>
+    <col min="2564" max="2564" width="30.625" style="27" customWidth="1"/>
+    <col min="2565" max="2565" width="30" style="27" customWidth="1"/>
+    <col min="2566" max="2568" width="13.125" style="27" customWidth="1"/>
+    <col min="2569" max="2816" width="9" style="27"/>
+    <col min="2817" max="2817" width="3.125" style="27" customWidth="1"/>
+    <col min="2818" max="2819" width="9.125" style="27" customWidth="1"/>
+    <col min="2820" max="2820" width="30.625" style="27" customWidth="1"/>
+    <col min="2821" max="2821" width="30" style="27" customWidth="1"/>
+    <col min="2822" max="2824" width="13.125" style="27" customWidth="1"/>
+    <col min="2825" max="3072" width="9" style="27"/>
+    <col min="3073" max="3073" width="3.125" style="27" customWidth="1"/>
+    <col min="3074" max="3075" width="9.125" style="27" customWidth="1"/>
+    <col min="3076" max="3076" width="30.625" style="27" customWidth="1"/>
+    <col min="3077" max="3077" width="30" style="27" customWidth="1"/>
+    <col min="3078" max="3080" width="13.125" style="27" customWidth="1"/>
+    <col min="3081" max="3328" width="9" style="27"/>
+    <col min="3329" max="3329" width="3.125" style="27" customWidth="1"/>
+    <col min="3330" max="3331" width="9.125" style="27" customWidth="1"/>
+    <col min="3332" max="3332" width="30.625" style="27" customWidth="1"/>
+    <col min="3333" max="3333" width="30" style="27" customWidth="1"/>
+    <col min="3334" max="3336" width="13.125" style="27" customWidth="1"/>
+    <col min="3337" max="3584" width="9" style="27"/>
+    <col min="3585" max="3585" width="3.125" style="27" customWidth="1"/>
+    <col min="3586" max="3587" width="9.125" style="27" customWidth="1"/>
+    <col min="3588" max="3588" width="30.625" style="27" customWidth="1"/>
+    <col min="3589" max="3589" width="30" style="27" customWidth="1"/>
+    <col min="3590" max="3592" width="13.125" style="27" customWidth="1"/>
+    <col min="3593" max="3840" width="9" style="27"/>
+    <col min="3841" max="3841" width="3.125" style="27" customWidth="1"/>
+    <col min="3842" max="3843" width="9.125" style="27" customWidth="1"/>
+    <col min="3844" max="3844" width="30.625" style="27" customWidth="1"/>
+    <col min="3845" max="3845" width="30" style="27" customWidth="1"/>
+    <col min="3846" max="3848" width="13.125" style="27" customWidth="1"/>
+    <col min="3849" max="4096" width="9" style="27"/>
+    <col min="4097" max="4097" width="3.125" style="27" customWidth="1"/>
+    <col min="4098" max="4099" width="9.125" style="27" customWidth="1"/>
+    <col min="4100" max="4100" width="30.625" style="27" customWidth="1"/>
+    <col min="4101" max="4101" width="30" style="27" customWidth="1"/>
+    <col min="4102" max="4104" width="13.125" style="27" customWidth="1"/>
+    <col min="4105" max="4352" width="9" style="27"/>
+    <col min="4353" max="4353" width="3.125" style="27" customWidth="1"/>
+    <col min="4354" max="4355" width="9.125" style="27" customWidth="1"/>
+    <col min="4356" max="4356" width="30.625" style="27" customWidth="1"/>
+    <col min="4357" max="4357" width="30" style="27" customWidth="1"/>
+    <col min="4358" max="4360" width="13.125" style="27" customWidth="1"/>
+    <col min="4361" max="4608" width="9" style="27"/>
+    <col min="4609" max="4609" width="3.125" style="27" customWidth="1"/>
+    <col min="4610" max="4611" width="9.125" style="27" customWidth="1"/>
+    <col min="4612" max="4612" width="30.625" style="27" customWidth="1"/>
+    <col min="4613" max="4613" width="30" style="27" customWidth="1"/>
+    <col min="4614" max="4616" width="13.125" style="27" customWidth="1"/>
+    <col min="4617" max="4864" width="9" style="27"/>
+    <col min="4865" max="4865" width="3.125" style="27" customWidth="1"/>
+    <col min="4866" max="4867" width="9.125" style="27" customWidth="1"/>
+    <col min="4868" max="4868" width="30.625" style="27" customWidth="1"/>
+    <col min="4869" max="4869" width="30" style="27" customWidth="1"/>
+    <col min="4870" max="4872" width="13.125" style="27" customWidth="1"/>
+    <col min="4873" max="5120" width="9" style="27"/>
+    <col min="5121" max="5121" width="3.125" style="27" customWidth="1"/>
+    <col min="5122" max="5123" width="9.125" style="27" customWidth="1"/>
+    <col min="5124" max="5124" width="30.625" style="27" customWidth="1"/>
+    <col min="5125" max="5125" width="30" style="27" customWidth="1"/>
+    <col min="5126" max="5128" width="13.125" style="27" customWidth="1"/>
+    <col min="5129" max="5376" width="9" style="27"/>
+    <col min="5377" max="5377" width="3.125" style="27" customWidth="1"/>
+    <col min="5378" max="5379" width="9.125" style="27" customWidth="1"/>
+    <col min="5380" max="5380" width="30.625" style="27" customWidth="1"/>
+    <col min="5381" max="5381" width="30" style="27" customWidth="1"/>
+    <col min="5382" max="5384" width="13.125" style="27" customWidth="1"/>
+    <col min="5385" max="5632" width="9" style="27"/>
+    <col min="5633" max="5633" width="3.125" style="27" customWidth="1"/>
+    <col min="5634" max="5635" width="9.125" style="27" customWidth="1"/>
+    <col min="5636" max="5636" width="30.625" style="27" customWidth="1"/>
+    <col min="5637" max="5637" width="30" style="27" customWidth="1"/>
+    <col min="5638" max="5640" width="13.125" style="27" customWidth="1"/>
+    <col min="5641" max="5888" width="9" style="27"/>
+    <col min="5889" max="5889" width="3.125" style="27" customWidth="1"/>
+    <col min="5890" max="5891" width="9.125" style="27" customWidth="1"/>
+    <col min="5892" max="5892" width="30.625" style="27" customWidth="1"/>
+    <col min="5893" max="5893" width="30" style="27" customWidth="1"/>
+    <col min="5894" max="5896" width="13.125" style="27" customWidth="1"/>
+    <col min="5897" max="6144" width="9" style="27"/>
+    <col min="6145" max="6145" width="3.125" style="27" customWidth="1"/>
+    <col min="6146" max="6147" width="9.125" style="27" customWidth="1"/>
+    <col min="6148" max="6148" width="30.625" style="27" customWidth="1"/>
+    <col min="6149" max="6149" width="30" style="27" customWidth="1"/>
+    <col min="6150" max="6152" width="13.125" style="27" customWidth="1"/>
+    <col min="6153" max="6400" width="9" style="27"/>
+    <col min="6401" max="6401" width="3.125" style="27" customWidth="1"/>
+    <col min="6402" max="6403" width="9.125" style="27" customWidth="1"/>
+    <col min="6404" max="6404" width="30.625" style="27" customWidth="1"/>
+    <col min="6405" max="6405" width="30" style="27" customWidth="1"/>
+    <col min="6406" max="6408" width="13.125" style="27" customWidth="1"/>
+    <col min="6409" max="6656" width="9" style="27"/>
+    <col min="6657" max="6657" width="3.125" style="27" customWidth="1"/>
+    <col min="6658" max="6659" width="9.125" style="27" customWidth="1"/>
+    <col min="6660" max="6660" width="30.625" style="27" customWidth="1"/>
+    <col min="6661" max="6661" width="30" style="27" customWidth="1"/>
+    <col min="6662" max="6664" width="13.125" style="27" customWidth="1"/>
+    <col min="6665" max="6912" width="9" style="27"/>
+    <col min="6913" max="6913" width="3.125" style="27" customWidth="1"/>
+    <col min="6914" max="6915" width="9.125" style="27" customWidth="1"/>
+    <col min="6916" max="6916" width="30.625" style="27" customWidth="1"/>
+    <col min="6917" max="6917" width="30" style="27" customWidth="1"/>
+    <col min="6918" max="6920" width="13.125" style="27" customWidth="1"/>
+    <col min="6921" max="7168" width="9" style="27"/>
+    <col min="7169" max="7169" width="3.125" style="27" customWidth="1"/>
+    <col min="7170" max="7171" width="9.125" style="27" customWidth="1"/>
+    <col min="7172" max="7172" width="30.625" style="27" customWidth="1"/>
+    <col min="7173" max="7173" width="30" style="27" customWidth="1"/>
+    <col min="7174" max="7176" width="13.125" style="27" customWidth="1"/>
+    <col min="7177" max="7424" width="9" style="27"/>
+    <col min="7425" max="7425" width="3.125" style="27" customWidth="1"/>
+    <col min="7426" max="7427" width="9.125" style="27" customWidth="1"/>
+    <col min="7428" max="7428" width="30.625" style="27" customWidth="1"/>
+    <col min="7429" max="7429" width="30" style="27" customWidth="1"/>
+    <col min="7430" max="7432" width="13.125" style="27" customWidth="1"/>
+    <col min="7433" max="7680" width="9" style="27"/>
+    <col min="7681" max="7681" width="3.125" style="27" customWidth="1"/>
+    <col min="7682" max="7683" width="9.125" style="27" customWidth="1"/>
+    <col min="7684" max="7684" width="30.625" style="27" customWidth="1"/>
+    <col min="7685" max="7685" width="30" style="27" customWidth="1"/>
+    <col min="7686" max="7688" width="13.125" style="27" customWidth="1"/>
+    <col min="7689" max="7936" width="9" style="27"/>
+    <col min="7937" max="7937" width="3.125" style="27" customWidth="1"/>
+    <col min="7938" max="7939" width="9.125" style="27" customWidth="1"/>
+    <col min="7940" max="7940" width="30.625" style="27" customWidth="1"/>
+    <col min="7941" max="7941" width="30" style="27" customWidth="1"/>
+    <col min="7942" max="7944" width="13.125" style="27" customWidth="1"/>
+    <col min="7945" max="8192" width="9" style="27"/>
+    <col min="8193" max="8193" width="3.125" style="27" customWidth="1"/>
+    <col min="8194" max="8195" width="9.125" style="27" customWidth="1"/>
+    <col min="8196" max="8196" width="30.625" style="27" customWidth="1"/>
+    <col min="8197" max="8197" width="30" style="27" customWidth="1"/>
+    <col min="8198" max="8200" width="13.125" style="27" customWidth="1"/>
+    <col min="8201" max="8448" width="9" style="27"/>
+    <col min="8449" max="8449" width="3.125" style="27" customWidth="1"/>
+    <col min="8450" max="8451" width="9.125" style="27" customWidth="1"/>
+    <col min="8452" max="8452" width="30.625" style="27" customWidth="1"/>
+    <col min="8453" max="8453" width="30" style="27" customWidth="1"/>
+    <col min="8454" max="8456" width="13.125" style="27" customWidth="1"/>
+    <col min="8457" max="8704" width="9" style="27"/>
+    <col min="8705" max="8705" width="3.125" style="27" customWidth="1"/>
+    <col min="8706" max="8707" width="9.125" style="27" customWidth="1"/>
+    <col min="8708" max="8708" width="30.625" style="27" customWidth="1"/>
+    <col min="8709" max="8709" width="30" style="27" customWidth="1"/>
+    <col min="8710" max="8712" width="13.125" style="27" customWidth="1"/>
+    <col min="8713" max="8960" width="9" style="27"/>
+    <col min="8961" max="8961" width="3.125" style="27" customWidth="1"/>
+    <col min="8962" max="8963" width="9.125" style="27" customWidth="1"/>
+    <col min="8964" max="8964" width="30.625" style="27" customWidth="1"/>
+    <col min="8965" max="8965" width="30" style="27" customWidth="1"/>
+    <col min="8966" max="8968" width="13.125" style="27" customWidth="1"/>
+    <col min="8969" max="9216" width="9" style="27"/>
+    <col min="9217" max="9217" width="3.125" style="27" customWidth="1"/>
+    <col min="9218" max="9219" width="9.125" style="27" customWidth="1"/>
+    <col min="9220" max="9220" width="30.625" style="27" customWidth="1"/>
+    <col min="9221" max="9221" width="30" style="27" customWidth="1"/>
+    <col min="9222" max="9224" width="13.125" style="27" customWidth="1"/>
+    <col min="9225" max="9472" width="9" style="27"/>
+    <col min="9473" max="9473" width="3.125" style="27" customWidth="1"/>
+    <col min="9474" max="9475" width="9.125" style="27" customWidth="1"/>
+    <col min="9476" max="9476" width="30.625" style="27" customWidth="1"/>
+    <col min="9477" max="9477" width="30" style="27" customWidth="1"/>
+    <col min="9478" max="9480" width="13.125" style="27" customWidth="1"/>
+    <col min="9481" max="9728" width="9" style="27"/>
+    <col min="9729" max="9729" width="3.125" style="27" customWidth="1"/>
+    <col min="9730" max="9731" width="9.125" style="27" customWidth="1"/>
+    <col min="9732" max="9732" width="30.625" style="27" customWidth="1"/>
+    <col min="9733" max="9733" width="30" style="27" customWidth="1"/>
+    <col min="9734" max="9736" width="13.125" style="27" customWidth="1"/>
+    <col min="9737" max="9984" width="9" style="27"/>
+    <col min="9985" max="9985" width="3.125" style="27" customWidth="1"/>
+    <col min="9986" max="9987" width="9.125" style="27" customWidth="1"/>
+    <col min="9988" max="9988" width="30.625" style="27" customWidth="1"/>
+    <col min="9989" max="9989" width="30" style="27" customWidth="1"/>
+    <col min="9990" max="9992" width="13.125" style="27" customWidth="1"/>
+    <col min="9993" max="10240" width="9" style="27"/>
+    <col min="10241" max="10241" width="3.125" style="27" customWidth="1"/>
+    <col min="10242" max="10243" width="9.125" style="27" customWidth="1"/>
+    <col min="10244" max="10244" width="30.625" style="27" customWidth="1"/>
+    <col min="10245" max="10245" width="30" style="27" customWidth="1"/>
+    <col min="10246" max="10248" width="13.125" style="27" customWidth="1"/>
+    <col min="10249" max="10496" width="9" style="27"/>
+    <col min="10497" max="10497" width="3.125" style="27" customWidth="1"/>
+    <col min="10498" max="10499" width="9.125" style="27" customWidth="1"/>
+    <col min="10500" max="10500" width="30.625" style="27" customWidth="1"/>
+    <col min="10501" max="10501" width="30" style="27" customWidth="1"/>
+    <col min="10502" max="10504" width="13.125" style="27" customWidth="1"/>
+    <col min="10505" max="10752" width="9" style="27"/>
+    <col min="10753" max="10753" width="3.125" style="27" customWidth="1"/>
+    <col min="10754" max="10755" width="9.125" style="27" customWidth="1"/>
+    <col min="10756" max="10756" width="30.625" style="27" customWidth="1"/>
+    <col min="10757" max="10757" width="30" style="27" customWidth="1"/>
+    <col min="10758" max="10760" width="13.125" style="27" customWidth="1"/>
+    <col min="10761" max="11008" width="9" style="27"/>
+    <col min="11009" max="11009" width="3.125" style="27" customWidth="1"/>
+    <col min="11010" max="11011" width="9.125" style="27" customWidth="1"/>
+    <col min="11012" max="11012" width="30.625" style="27" customWidth="1"/>
+    <col min="11013" max="11013" width="30" style="27" customWidth="1"/>
+    <col min="11014" max="11016" width="13.125" style="27" customWidth="1"/>
+    <col min="11017" max="11264" width="9" style="27"/>
+    <col min="11265" max="11265" width="3.125" style="27" customWidth="1"/>
+    <col min="11266" max="11267" width="9.125" style="27" customWidth="1"/>
+    <col min="11268" max="11268" width="30.625" style="27" customWidth="1"/>
+    <col min="11269" max="11269" width="30" style="27" customWidth="1"/>
+    <col min="11270" max="11272" width="13.125" style="27" customWidth="1"/>
+    <col min="11273" max="11520" width="9" style="27"/>
+    <col min="11521" max="11521" width="3.125" style="27" customWidth="1"/>
+    <col min="11522" max="11523" width="9.125" style="27" customWidth="1"/>
+    <col min="11524" max="11524" width="30.625" style="27" customWidth="1"/>
+    <col min="11525" max="11525" width="30" style="27" customWidth="1"/>
+    <col min="11526" max="11528" width="13.125" style="27" customWidth="1"/>
+    <col min="11529" max="11776" width="9" style="27"/>
+    <col min="11777" max="11777" width="3.125" style="27" customWidth="1"/>
+    <col min="11778" max="11779" width="9.125" style="27" customWidth="1"/>
+    <col min="11780" max="11780" width="30.625" style="27" customWidth="1"/>
+    <col min="11781" max="11781" width="30" style="27" customWidth="1"/>
+    <col min="11782" max="11784" width="13.125" style="27" customWidth="1"/>
+    <col min="11785" max="12032" width="9" style="27"/>
+    <col min="12033" max="12033" width="3.125" style="27" customWidth="1"/>
+    <col min="12034" max="12035" width="9.125" style="27" customWidth="1"/>
+    <col min="12036" max="12036" width="30.625" style="27" customWidth="1"/>
+    <col min="12037" max="12037" width="30" style="27" customWidth="1"/>
+    <col min="12038" max="12040" width="13.125" style="27" customWidth="1"/>
+    <col min="12041" max="12288" width="9" style="27"/>
+    <col min="12289" max="12289" width="3.125" style="27" customWidth="1"/>
+    <col min="12290" max="12291" width="9.125" style="27" customWidth="1"/>
+    <col min="12292" max="12292" width="30.625" style="27" customWidth="1"/>
+    <col min="12293" max="12293" width="30" style="27" customWidth="1"/>
+    <col min="12294" max="12296" width="13.125" style="27" customWidth="1"/>
+    <col min="12297" max="12544" width="9" style="27"/>
+    <col min="12545" max="12545" width="3.125" style="27" customWidth="1"/>
+    <col min="12546" max="12547" width="9.125" style="27" customWidth="1"/>
+    <col min="12548" max="12548" width="30.625" style="27" customWidth="1"/>
+    <col min="12549" max="12549" width="30" style="27" customWidth="1"/>
+    <col min="12550" max="12552" width="13.125" style="27" customWidth="1"/>
+    <col min="12553" max="12800" width="9" style="27"/>
+    <col min="12801" max="12801" width="3.125" style="27" customWidth="1"/>
+    <col min="12802" max="12803" width="9.125" style="27" customWidth="1"/>
+    <col min="12804" max="12804" width="30.625" style="27" customWidth="1"/>
+    <col min="12805" max="12805" width="30" style="27" customWidth="1"/>
+    <col min="12806" max="12808" width="13.125" style="27" customWidth="1"/>
+    <col min="12809" max="13056" width="9" style="27"/>
+    <col min="13057" max="13057" width="3.125" style="27" customWidth="1"/>
+    <col min="13058" max="13059" width="9.125" style="27" customWidth="1"/>
+    <col min="13060" max="13060" width="30.625" style="27" customWidth="1"/>
+    <col min="13061" max="13061" width="30" style="27" customWidth="1"/>
+    <col min="13062" max="13064" width="13.125" style="27" customWidth="1"/>
+    <col min="13065" max="13312" width="9" style="27"/>
+    <col min="13313" max="13313" width="3.125" style="27" customWidth="1"/>
+    <col min="13314" max="13315" width="9.125" style="27" customWidth="1"/>
+    <col min="13316" max="13316" width="30.625" style="27" customWidth="1"/>
+    <col min="13317" max="13317" width="30" style="27" customWidth="1"/>
+    <col min="13318" max="13320" width="13.125" style="27" customWidth="1"/>
+    <col min="13321" max="13568" width="9" style="27"/>
+    <col min="13569" max="13569" width="3.125" style="27" customWidth="1"/>
+    <col min="13570" max="13571" width="9.125" style="27" customWidth="1"/>
+    <col min="13572" max="13572" width="30.625" style="27" customWidth="1"/>
+    <col min="13573" max="13573" width="30" style="27" customWidth="1"/>
+    <col min="13574" max="13576" width="13.125" style="27" customWidth="1"/>
+    <col min="13577" max="13824" width="9" style="27"/>
+    <col min="13825" max="13825" width="3.125" style="27" customWidth="1"/>
+    <col min="13826" max="13827" width="9.125" style="27" customWidth="1"/>
+    <col min="13828" max="13828" width="30.625" style="27" customWidth="1"/>
+    <col min="13829" max="13829" width="30" style="27" customWidth="1"/>
+    <col min="13830" max="13832" width="13.125" style="27" customWidth="1"/>
+    <col min="13833" max="14080" width="9" style="27"/>
+    <col min="14081" max="14081" width="3.125" style="27" customWidth="1"/>
+    <col min="14082" max="14083" width="9.125" style="27" customWidth="1"/>
+    <col min="14084" max="14084" width="30.625" style="27" customWidth="1"/>
+    <col min="14085" max="14085" width="30" style="27" customWidth="1"/>
+    <col min="14086" max="14088" width="13.125" style="27" customWidth="1"/>
+    <col min="14089" max="14336" width="9" style="27"/>
+    <col min="14337" max="14337" width="3.125" style="27" customWidth="1"/>
+    <col min="14338" max="14339" width="9.125" style="27" customWidth="1"/>
+    <col min="14340" max="14340" width="30.625" style="27" customWidth="1"/>
+    <col min="14341" max="14341" width="30" style="27" customWidth="1"/>
+    <col min="14342" max="14344" width="13.125" style="27" customWidth="1"/>
+    <col min="14345" max="14592" width="9" style="27"/>
+    <col min="14593" max="14593" width="3.125" style="27" customWidth="1"/>
+    <col min="14594" max="14595" width="9.125" style="27" customWidth="1"/>
+    <col min="14596" max="14596" width="30.625" style="27" customWidth="1"/>
+    <col min="14597" max="14597" width="30" style="27" customWidth="1"/>
+    <col min="14598" max="14600" width="13.125" style="27" customWidth="1"/>
+    <col min="14601" max="14848" width="9" style="27"/>
+    <col min="14849" max="14849" width="3.125" style="27" customWidth="1"/>
+    <col min="14850" max="14851" width="9.125" style="27" customWidth="1"/>
+    <col min="14852" max="14852" width="30.625" style="27" customWidth="1"/>
+    <col min="14853" max="14853" width="30" style="27" customWidth="1"/>
+    <col min="14854" max="14856" width="13.125" style="27" customWidth="1"/>
+    <col min="14857" max="15104" width="9" style="27"/>
+    <col min="15105" max="15105" width="3.125" style="27" customWidth="1"/>
+    <col min="15106" max="15107" width="9.125" style="27" customWidth="1"/>
+    <col min="15108" max="15108" width="30.625" style="27" customWidth="1"/>
+    <col min="15109" max="15109" width="30" style="27" customWidth="1"/>
+    <col min="15110" max="15112" width="13.125" style="27" customWidth="1"/>
+    <col min="15113" max="15360" width="9" style="27"/>
+    <col min="15361" max="15361" width="3.125" style="27" customWidth="1"/>
+    <col min="15362" max="15363" width="9.125" style="27" customWidth="1"/>
+    <col min="15364" max="15364" width="30.625" style="27" customWidth="1"/>
+    <col min="15365" max="15365" width="30" style="27" customWidth="1"/>
+    <col min="15366" max="15368" width="13.125" style="27" customWidth="1"/>
+    <col min="15369" max="15616" width="9" style="27"/>
+    <col min="15617" max="15617" width="3.125" style="27" customWidth="1"/>
+    <col min="15618" max="15619" width="9.125" style="27" customWidth="1"/>
+    <col min="15620" max="15620" width="30.625" style="27" customWidth="1"/>
+    <col min="15621" max="15621" width="30" style="27" customWidth="1"/>
+    <col min="15622" max="15624" width="13.125" style="27" customWidth="1"/>
+    <col min="15625" max="15872" width="9" style="27"/>
+    <col min="15873" max="15873" width="3.125" style="27" customWidth="1"/>
+    <col min="15874" max="15875" width="9.125" style="27" customWidth="1"/>
+    <col min="15876" max="15876" width="30.625" style="27" customWidth="1"/>
+    <col min="15877" max="15877" width="30" style="27" customWidth="1"/>
+    <col min="15878" max="15880" width="13.125" style="27" customWidth="1"/>
+    <col min="15881" max="16128" width="9" style="27"/>
+    <col min="16129" max="16129" width="3.125" style="27" customWidth="1"/>
+    <col min="16130" max="16131" width="9.125" style="27" customWidth="1"/>
+    <col min="16132" max="16132" width="30.625" style="27" customWidth="1"/>
+    <col min="16133" max="16133" width="30" style="27" customWidth="1"/>
+    <col min="16134" max="16136" width="13.125" style="27" customWidth="1"/>
+    <col min="16137" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="6" customHeight="1">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25">
+      <c r="A2" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" thickBot="1">
+      <c r="B4" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="148" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="103" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="150" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="152" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="150" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="152" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="146" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" thickBot="1">
+      <c r="B6" s="149"/>
+      <c r="C6" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="151"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="147"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="65"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="65"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="65"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="65"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="65"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="63"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="65"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="63"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="66"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="63"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="65"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="63"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="66"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="63"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="64"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="63"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="65"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="63"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="64"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="63"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="65"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="63"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="64"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="63"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="65"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="63"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="64"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="62"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="64"/>
+    </row>
+    <row r="24" spans="2:8" ht="14.25" thickBot="1">
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H24">
+      <formula1>"起票,対応中,対応済"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
+    <col min="5" max="257" width="9" style="15"/>
+    <col min="258" max="258" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="15.625" style="15" customWidth="1"/>
+    <col min="260" max="260" width="7.625" style="15" customWidth="1"/>
+    <col min="261" max="513" width="9" style="15"/>
+    <col min="514" max="514" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="15.625" style="15" customWidth="1"/>
+    <col min="516" max="516" width="7.625" style="15" customWidth="1"/>
+    <col min="517" max="769" width="9" style="15"/>
+    <col min="770" max="770" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="15.625" style="15" customWidth="1"/>
+    <col min="772" max="772" width="7.625" style="15" customWidth="1"/>
+    <col min="773" max="1025" width="9" style="15"/>
+    <col min="1026" max="1026" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="15.625" style="15" customWidth="1"/>
+    <col min="1028" max="1028" width="7.625" style="15" customWidth="1"/>
+    <col min="1029" max="1281" width="9" style="15"/>
+    <col min="1282" max="1282" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="15.625" style="15" customWidth="1"/>
+    <col min="1284" max="1284" width="7.625" style="15" customWidth="1"/>
+    <col min="1285" max="1537" width="9" style="15"/>
+    <col min="1538" max="1538" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="15.625" style="15" customWidth="1"/>
+    <col min="1540" max="1540" width="7.625" style="15" customWidth="1"/>
+    <col min="1541" max="1793" width="9" style="15"/>
+    <col min="1794" max="1794" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="15.625" style="15" customWidth="1"/>
+    <col min="1796" max="1796" width="7.625" style="15" customWidth="1"/>
+    <col min="1797" max="2049" width="9" style="15"/>
+    <col min="2050" max="2050" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="15.625" style="15" customWidth="1"/>
+    <col min="2052" max="2052" width="7.625" style="15" customWidth="1"/>
+    <col min="2053" max="2305" width="9" style="15"/>
+    <col min="2306" max="2306" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="15.625" style="15" customWidth="1"/>
+    <col min="2308" max="2308" width="7.625" style="15" customWidth="1"/>
+    <col min="2309" max="2561" width="9" style="15"/>
+    <col min="2562" max="2562" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="15.625" style="15" customWidth="1"/>
+    <col min="2564" max="2564" width="7.625" style="15" customWidth="1"/>
+    <col min="2565" max="2817" width="9" style="15"/>
+    <col min="2818" max="2818" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="15.625" style="15" customWidth="1"/>
+    <col min="2820" max="2820" width="7.625" style="15" customWidth="1"/>
+    <col min="2821" max="3073" width="9" style="15"/>
+    <col min="3074" max="3074" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="15.625" style="15" customWidth="1"/>
+    <col min="3076" max="3076" width="7.625" style="15" customWidth="1"/>
+    <col min="3077" max="3329" width="9" style="15"/>
+    <col min="3330" max="3330" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="15.625" style="15" customWidth="1"/>
+    <col min="3332" max="3332" width="7.625" style="15" customWidth="1"/>
+    <col min="3333" max="3585" width="9" style="15"/>
+    <col min="3586" max="3586" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="15.625" style="15" customWidth="1"/>
+    <col min="3588" max="3588" width="7.625" style="15" customWidth="1"/>
+    <col min="3589" max="3841" width="9" style="15"/>
+    <col min="3842" max="3842" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="15.625" style="15" customWidth="1"/>
+    <col min="3844" max="3844" width="7.625" style="15" customWidth="1"/>
+    <col min="3845" max="4097" width="9" style="15"/>
+    <col min="4098" max="4098" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="15.625" style="15" customWidth="1"/>
+    <col min="4100" max="4100" width="7.625" style="15" customWidth="1"/>
+    <col min="4101" max="4353" width="9" style="15"/>
+    <col min="4354" max="4354" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="15.625" style="15" customWidth="1"/>
+    <col min="4356" max="4356" width="7.625" style="15" customWidth="1"/>
+    <col min="4357" max="4609" width="9" style="15"/>
+    <col min="4610" max="4610" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="15.625" style="15" customWidth="1"/>
+    <col min="4612" max="4612" width="7.625" style="15" customWidth="1"/>
+    <col min="4613" max="4865" width="9" style="15"/>
+    <col min="4866" max="4866" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="15.625" style="15" customWidth="1"/>
+    <col min="4868" max="4868" width="7.625" style="15" customWidth="1"/>
+    <col min="4869" max="5121" width="9" style="15"/>
+    <col min="5122" max="5122" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="15.625" style="15" customWidth="1"/>
+    <col min="5124" max="5124" width="7.625" style="15" customWidth="1"/>
+    <col min="5125" max="5377" width="9" style="15"/>
+    <col min="5378" max="5378" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="15.625" style="15" customWidth="1"/>
+    <col min="5380" max="5380" width="7.625" style="15" customWidth="1"/>
+    <col min="5381" max="5633" width="9" style="15"/>
+    <col min="5634" max="5634" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="15.625" style="15" customWidth="1"/>
+    <col min="5636" max="5636" width="7.625" style="15" customWidth="1"/>
+    <col min="5637" max="5889" width="9" style="15"/>
+    <col min="5890" max="5890" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="15.625" style="15" customWidth="1"/>
+    <col min="5892" max="5892" width="7.625" style="15" customWidth="1"/>
+    <col min="5893" max="6145" width="9" style="15"/>
+    <col min="6146" max="6146" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="15.625" style="15" customWidth="1"/>
+    <col min="6148" max="6148" width="7.625" style="15" customWidth="1"/>
+    <col min="6149" max="6401" width="9" style="15"/>
+    <col min="6402" max="6402" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="15.625" style="15" customWidth="1"/>
+    <col min="6404" max="6404" width="7.625" style="15" customWidth="1"/>
+    <col min="6405" max="6657" width="9" style="15"/>
+    <col min="6658" max="6658" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="15.625" style="15" customWidth="1"/>
+    <col min="6660" max="6660" width="7.625" style="15" customWidth="1"/>
+    <col min="6661" max="6913" width="9" style="15"/>
+    <col min="6914" max="6914" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="15.625" style="15" customWidth="1"/>
+    <col min="6916" max="6916" width="7.625" style="15" customWidth="1"/>
+    <col min="6917" max="7169" width="9" style="15"/>
+    <col min="7170" max="7170" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="15.625" style="15" customWidth="1"/>
+    <col min="7172" max="7172" width="7.625" style="15" customWidth="1"/>
+    <col min="7173" max="7425" width="9" style="15"/>
+    <col min="7426" max="7426" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="15.625" style="15" customWidth="1"/>
+    <col min="7428" max="7428" width="7.625" style="15" customWidth="1"/>
+    <col min="7429" max="7681" width="9" style="15"/>
+    <col min="7682" max="7682" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="15.625" style="15" customWidth="1"/>
+    <col min="7684" max="7684" width="7.625" style="15" customWidth="1"/>
+    <col min="7685" max="7937" width="9" style="15"/>
+    <col min="7938" max="7938" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="15.625" style="15" customWidth="1"/>
+    <col min="7940" max="7940" width="7.625" style="15" customWidth="1"/>
+    <col min="7941" max="8193" width="9" style="15"/>
+    <col min="8194" max="8194" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="15.625" style="15" customWidth="1"/>
+    <col min="8196" max="8196" width="7.625" style="15" customWidth="1"/>
+    <col min="8197" max="8449" width="9" style="15"/>
+    <col min="8450" max="8450" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="15.625" style="15" customWidth="1"/>
+    <col min="8452" max="8452" width="7.625" style="15" customWidth="1"/>
+    <col min="8453" max="8705" width="9" style="15"/>
+    <col min="8706" max="8706" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="15.625" style="15" customWidth="1"/>
+    <col min="8708" max="8708" width="7.625" style="15" customWidth="1"/>
+    <col min="8709" max="8961" width="9" style="15"/>
+    <col min="8962" max="8962" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="15.625" style="15" customWidth="1"/>
+    <col min="8964" max="8964" width="7.625" style="15" customWidth="1"/>
+    <col min="8965" max="9217" width="9" style="15"/>
+    <col min="9218" max="9218" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="15.625" style="15" customWidth="1"/>
+    <col min="9220" max="9220" width="7.625" style="15" customWidth="1"/>
+    <col min="9221" max="9473" width="9" style="15"/>
+    <col min="9474" max="9474" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="15.625" style="15" customWidth="1"/>
+    <col min="9476" max="9476" width="7.625" style="15" customWidth="1"/>
+    <col min="9477" max="9729" width="9" style="15"/>
+    <col min="9730" max="9730" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="15.625" style="15" customWidth="1"/>
+    <col min="9732" max="9732" width="7.625" style="15" customWidth="1"/>
+    <col min="9733" max="9985" width="9" style="15"/>
+    <col min="9986" max="9986" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="15.625" style="15" customWidth="1"/>
+    <col min="9988" max="9988" width="7.625" style="15" customWidth="1"/>
+    <col min="9989" max="10241" width="9" style="15"/>
+    <col min="10242" max="10242" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="15.625" style="15" customWidth="1"/>
+    <col min="10244" max="10244" width="7.625" style="15" customWidth="1"/>
+    <col min="10245" max="10497" width="9" style="15"/>
+    <col min="10498" max="10498" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="15.625" style="15" customWidth="1"/>
+    <col min="10500" max="10500" width="7.625" style="15" customWidth="1"/>
+    <col min="10501" max="10753" width="9" style="15"/>
+    <col min="10754" max="10754" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="15.625" style="15" customWidth="1"/>
+    <col min="10756" max="10756" width="7.625" style="15" customWidth="1"/>
+    <col min="10757" max="11009" width="9" style="15"/>
+    <col min="11010" max="11010" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="15.625" style="15" customWidth="1"/>
+    <col min="11012" max="11012" width="7.625" style="15" customWidth="1"/>
+    <col min="11013" max="11265" width="9" style="15"/>
+    <col min="11266" max="11266" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="15.625" style="15" customWidth="1"/>
+    <col min="11268" max="11268" width="7.625" style="15" customWidth="1"/>
+    <col min="11269" max="11521" width="9" style="15"/>
+    <col min="11522" max="11522" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="15.625" style="15" customWidth="1"/>
+    <col min="11524" max="11524" width="7.625" style="15" customWidth="1"/>
+    <col min="11525" max="11777" width="9" style="15"/>
+    <col min="11778" max="11778" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="15.625" style="15" customWidth="1"/>
+    <col min="11780" max="11780" width="7.625" style="15" customWidth="1"/>
+    <col min="11781" max="12033" width="9" style="15"/>
+    <col min="12034" max="12034" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="15.625" style="15" customWidth="1"/>
+    <col min="12036" max="12036" width="7.625" style="15" customWidth="1"/>
+    <col min="12037" max="12289" width="9" style="15"/>
+    <col min="12290" max="12290" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="15.625" style="15" customWidth="1"/>
+    <col min="12292" max="12292" width="7.625" style="15" customWidth="1"/>
+    <col min="12293" max="12545" width="9" style="15"/>
+    <col min="12546" max="12546" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="15.625" style="15" customWidth="1"/>
+    <col min="12548" max="12548" width="7.625" style="15" customWidth="1"/>
+    <col min="12549" max="12801" width="9" style="15"/>
+    <col min="12802" max="12802" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="15.625" style="15" customWidth="1"/>
+    <col min="12804" max="12804" width="7.625" style="15" customWidth="1"/>
+    <col min="12805" max="13057" width="9" style="15"/>
+    <col min="13058" max="13058" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="15.625" style="15" customWidth="1"/>
+    <col min="13060" max="13060" width="7.625" style="15" customWidth="1"/>
+    <col min="13061" max="13313" width="9" style="15"/>
+    <col min="13314" max="13314" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="15.625" style="15" customWidth="1"/>
+    <col min="13316" max="13316" width="7.625" style="15" customWidth="1"/>
+    <col min="13317" max="13569" width="9" style="15"/>
+    <col min="13570" max="13570" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="15.625" style="15" customWidth="1"/>
+    <col min="13572" max="13572" width="7.625" style="15" customWidth="1"/>
+    <col min="13573" max="13825" width="9" style="15"/>
+    <col min="13826" max="13826" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="15.625" style="15" customWidth="1"/>
+    <col min="13828" max="13828" width="7.625" style="15" customWidth="1"/>
+    <col min="13829" max="14081" width="9" style="15"/>
+    <col min="14082" max="14082" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="15.625" style="15" customWidth="1"/>
+    <col min="14084" max="14084" width="7.625" style="15" customWidth="1"/>
+    <col min="14085" max="14337" width="9" style="15"/>
+    <col min="14338" max="14338" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="15.625" style="15" customWidth="1"/>
+    <col min="14340" max="14340" width="7.625" style="15" customWidth="1"/>
+    <col min="14341" max="14593" width="9" style="15"/>
+    <col min="14594" max="14594" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="15.625" style="15" customWidth="1"/>
+    <col min="14596" max="14596" width="7.625" style="15" customWidth="1"/>
+    <col min="14597" max="14849" width="9" style="15"/>
+    <col min="14850" max="14850" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="15.625" style="15" customWidth="1"/>
+    <col min="14852" max="14852" width="7.625" style="15" customWidth="1"/>
+    <col min="14853" max="15105" width="9" style="15"/>
+    <col min="15106" max="15106" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="15.625" style="15" customWidth="1"/>
+    <col min="15108" max="15108" width="7.625" style="15" customWidth="1"/>
+    <col min="15109" max="15361" width="9" style="15"/>
+    <col min="15362" max="15362" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="15.625" style="15" customWidth="1"/>
+    <col min="15364" max="15364" width="7.625" style="15" customWidth="1"/>
+    <col min="15365" max="15617" width="9" style="15"/>
+    <col min="15618" max="15618" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="15.625" style="15" customWidth="1"/>
+    <col min="15620" max="15620" width="7.625" style="15" customWidth="1"/>
+    <col min="15621" max="15873" width="9" style="15"/>
+    <col min="15874" max="15874" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="15.625" style="15" customWidth="1"/>
+    <col min="15876" max="15876" width="7.625" style="15" customWidth="1"/>
+    <col min="15877" max="16129" width="9" style="15"/>
+    <col min="16130" max="16130" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="15.625" style="15" customWidth="1"/>
+    <col min="16132" max="16132" width="7.625" style="15" customWidth="1"/>
+    <col min="16133" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="8.1" customHeight="1">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25">
+      <c r="A2" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" ht="3.95" customHeight="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.25">
+      <c r="A5" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B7" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="97"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="86">
+        <v>45013</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="87"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="86">
+        <v>45135</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="87"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="86">
+        <v>45281</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="87"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="86">
+        <v>45314</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="87"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="86">
+        <v>45575</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="87"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="93"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="17"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="17"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="17"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.86614173228346458" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter xml:space="preserve">&amp;C&amp;10　
+&amp;R
+</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -16154,11 +19234,11 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection activeCell="G31" sqref="G31"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -16739,7 +19819,7 @@
     <col min="16138" max="16384" width="8.875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -16750,35 +19830,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="B8" s="37" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.25" thickBot="1">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.25" thickBot="1">
       <c r="B10" s="100" t="s">
         <v>40</v>
       </c>
@@ -16804,7 +19884,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="21">
       <c r="B11" s="60" t="s">
         <v>110</v>
       </c>
@@ -16831,7 +19911,7 @@
       </c>
       <c r="J11" s="123"/>
     </row>
-    <row r="12" spans="1:10" ht="83.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="83.45" customHeight="1">
       <c r="A12" s="38"/>
       <c r="B12" s="60" t="s">
         <v>161</v>
@@ -16858,7 +19938,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="38"/>
       <c r="B13" s="60"/>
       <c r="C13" s="42"/>
@@ -16879,7 +19959,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="21">
       <c r="A14" s="38"/>
       <c r="B14" s="60"/>
       <c r="C14" s="42"/>
@@ -16900,7 +19980,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="31.5">
       <c r="A15" s="38"/>
       <c r="B15" s="60" t="s">
         <v>273</v>
@@ -16919,7 +19999,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="73"/>
     </row>
-    <row r="16" spans="1:10" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="73.5">
       <c r="A16" s="38"/>
       <c r="B16" s="60" t="s">
         <v>274</v>
@@ -16946,7 +20026,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="38"/>
       <c r="B17" s="60"/>
       <c r="C17" s="42"/>
@@ -16967,7 +20047,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="21">
       <c r="A18" s="38"/>
       <c r="B18" s="60"/>
       <c r="C18" s="42"/>
@@ -16988,7 +20068,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="38"/>
       <c r="B19" s="60"/>
       <c r="C19" s="42"/>
@@ -16999,7 +20079,7 @@
       <c r="H19" s="39"/>
       <c r="I19" s="73"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="38"/>
       <c r="B20" s="60"/>
       <c r="C20" s="42"/>
@@ -17010,7 +20090,7 @@
       <c r="H20" s="39"/>
       <c r="I20" s="73"/>
     </row>
-    <row r="21" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="14.25" thickBot="1">
       <c r="B21" s="67"/>
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
@@ -17020,7 +20100,7 @@
       <c r="H21" s="43"/>
       <c r="I21" s="72"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
@@ -17030,7 +20110,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
@@ -17040,7 +20120,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="6" customHeight="1">
       <c r="A24" s="28"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -17050,7 +20130,7 @@
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
     </row>
-    <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="14.25">
       <c r="A25" s="32" t="s">
         <v>48</v>
       </c>
@@ -17060,7 +20140,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
@@ -17070,7 +20150,7 @@
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="B27" s="113"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
@@ -17080,7 +20160,7 @@
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
@@ -17090,7 +20170,7 @@
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -17100,7 +20180,7 @@
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -17110,7 +20190,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -17134,134 +20214,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
   <dimension ref="A2:T11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="142" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="140" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="7" max="7" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" s="141" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" s="139" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" s="141"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="141"/>
-    </row>
-    <row r="5" spans="1:20" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="139" t="s">
+    <row r="3" spans="1:20">
+      <c r="A3" s="139"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="139"/>
+    </row>
+    <row r="5" spans="1:20" ht="40.5">
+      <c r="B5" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="E5" s="137" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="139" t="s">
+      <c r="F5" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="139" t="s">
+      <c r="G5" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="139" t="s">
+      <c r="H5" s="137" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="139" t="s">
+      <c r="I5" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="139" t="s">
+      <c r="J5" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="139" t="s">
+      <c r="K5" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="L5" s="139" t="s">
+      <c r="L5" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="M5" s="139" t="s">
+      <c r="M5" s="137" t="s">
         <v>101</v>
       </c>
-      <c r="N5" s="139" t="s">
+      <c r="N5" s="137" t="s">
         <v>102</v>
       </c>
-      <c r="O5" s="139" t="s">
+      <c r="O5" s="137" t="s">
         <v>103</v>
       </c>
-      <c r="P5" s="139" t="s">
+      <c r="P5" s="137" t="s">
         <v>104</v>
       </c>
-      <c r="Q5" s="139" t="s">
+      <c r="Q5" s="137" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="139" t="s">
+    <row r="6" spans="1:20" ht="40.5">
+      <c r="B6" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="139" t="s">
+      <c r="D6" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="139" t="s">
+      <c r="E6" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="139" t="s">
+      <c r="F6" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="139" t="s">
+      <c r="G6" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="139" t="s">
+      <c r="H6" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="139" t="s">
+      <c r="I6" s="137" t="s">
         <v>261</v>
       </c>
-      <c r="J6" s="139" t="s">
+      <c r="J6" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="139" t="s">
+      <c r="K6" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="139" t="s">
+      <c r="L6" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="139" t="s">
+      <c r="M6" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="N6" s="139" t="s">
+      <c r="N6" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="139" t="s">
+      <c r="O6" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="P6" s="139" t="s">
+      <c r="P6" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="Q6" s="139" t="s">
+      <c r="Q6" s="137" t="s">
         <v>89</v>
       </c>
       <c r="R6" t="s">
@@ -17274,8 +20352,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="118" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="143" t="s">
+    <row r="7" spans="1:20" s="118" customFormat="1" ht="27">
+      <c r="A7" s="141" t="s">
         <v>139</v>
       </c>
       <c r="B7" s="121">
@@ -17287,10 +20365,10 @@
       <c r="D7" s="121" t="s">
         <v>263</v>
       </c>
-      <c r="E7" s="140" t="s">
+      <c r="E7" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="F7" s="140" t="s">
+      <c r="F7" s="138" t="s">
         <v>265</v>
       </c>
       <c r="G7" s="120" t="s">
@@ -17327,8 +20405,8 @@
         <v>INSERT INTO XXCCD_USER_ROLE_TMP (ID,USER_NAME,PERSON_NUMBER,LAST_NAME,FIRST_NAME,ROLE_ASSIGNMENT,SUPPLY_AGENT,LEDGER,DATA_ACCESS,BU,INSTANCE_ID,BEF_SUPPLY_AGENT,BEF_LEDGER,BEF_DATA_ACCESS,BEF_BU,ADD_REMOVE_ROLE) VALUES (1,'XXCMM002A1103_TestUser368','TestUser368','l_user368','f_user368','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="118" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="143" t="s">
+    <row r="8" spans="1:20" s="118" customFormat="1" ht="27">
+      <c r="A8" s="141" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="121">
@@ -17340,10 +20418,10 @@
       <c r="D8" s="121" t="s">
         <v>269</v>
       </c>
-      <c r="E8" s="140" t="s">
+      <c r="E8" s="138" t="s">
         <v>270</v>
       </c>
-      <c r="F8" s="140" t="s">
+      <c r="F8" s="138" t="s">
         <v>271</v>
       </c>
       <c r="G8" s="120" t="s">
@@ -17380,8 +20458,8 @@
         <v>INSERT INTO XXCCD_USER_ROLE_TMP (ID,USER_NAME,PERSON_NUMBER,LAST_NAME,FIRST_NAME,ROLE_ASSIGNMENT,SUPPLY_AGENT,LEDGER,DATA_ACCESS,BU,INSTANCE_ID,BEF_SUPPLY_AGENT,BEF_LEDGER,BEF_DATA_ACCESS,BEF_BU,ADD_REMOVE_ROLE) VALUES (2,'XXCMM002A1103_TestUser369','TestUser369','l_user369','f_user369','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="141"/>
+    <row r="11" spans="1:20">
+      <c r="A11" s="139"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -17390,10 +20468,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="0" tint="-0.249977111117893"/>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J29"/>
@@ -17401,10 +20479,10 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G31" sqref="G31"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -17985,7 +21063,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -17996,35 +21074,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="B8" s="37" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.25" thickBot="1">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.25" thickBot="1">
       <c r="B10" s="100" t="s">
         <v>40</v>
       </c>
@@ -18050,7 +21128,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="21">
       <c r="B11" s="60" t="s">
         <v>110</v>
       </c>
@@ -18077,7 +21155,7 @@
       </c>
       <c r="J11" s="123"/>
     </row>
-    <row r="12" spans="1:10" ht="83.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="83.45" customHeight="1">
       <c r="A12" s="38"/>
       <c r="B12" s="60" t="s">
         <v>161</v>
@@ -18104,7 +21182,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="31.5">
       <c r="A13" s="38"/>
       <c r="B13" s="60"/>
       <c r="C13" s="42"/>
@@ -18125,7 +21203,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="42">
       <c r="A14" s="38"/>
       <c r="B14" s="60"/>
       <c r="C14" s="109"/>
@@ -18146,7 +21224,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="31.5">
       <c r="A15" s="38"/>
       <c r="B15" s="60"/>
       <c r="C15" s="42"/>
@@ -18167,7 +21245,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="31.5">
       <c r="A16" s="38"/>
       <c r="B16" s="60"/>
       <c r="C16" s="42"/>
@@ -18188,7 +21266,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="31.5">
       <c r="A17" s="38"/>
       <c r="B17" s="60"/>
       <c r="C17" s="42"/>
@@ -18209,7 +21287,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="48.6" customHeight="1">
       <c r="A18" s="38"/>
       <c r="B18" s="60"/>
       <c r="C18" s="42"/>
@@ -18230,7 +21308,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="14.25" thickBot="1">
       <c r="B19" s="67"/>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
@@ -18240,7 +21318,7 @@
       <c r="H19" s="43"/>
       <c r="I19" s="72"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -18250,7 +21328,7 @@
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
@@ -18260,7 +21338,7 @@
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
     </row>
-    <row r="22" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="6" customHeight="1">
       <c r="A22" s="28"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -18270,7 +21348,7 @@
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
     </row>
-    <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="14.25">
       <c r="A23" s="32" t="s">
         <v>48</v>
       </c>
@@ -18280,7 +21358,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
@@ -18290,7 +21368,7 @@
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="B25" s="113"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
@@ -18300,7 +21378,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
@@ -18310,7 +21388,7 @@
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
@@ -18320,7 +21398,7 @@
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
@@ -18330,7 +21408,7 @@
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -18354,443 +21432,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
-    <col min="5" max="257" width="9" style="15"/>
-    <col min="258" max="258" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="15.625" style="15" customWidth="1"/>
-    <col min="260" max="260" width="7.625" style="15" customWidth="1"/>
-    <col min="261" max="513" width="9" style="15"/>
-    <col min="514" max="514" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="15.625" style="15" customWidth="1"/>
-    <col min="516" max="516" width="7.625" style="15" customWidth="1"/>
-    <col min="517" max="769" width="9" style="15"/>
-    <col min="770" max="770" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="15.625" style="15" customWidth="1"/>
-    <col min="772" max="772" width="7.625" style="15" customWidth="1"/>
-    <col min="773" max="1025" width="9" style="15"/>
-    <col min="1026" max="1026" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="15.625" style="15" customWidth="1"/>
-    <col min="1028" max="1028" width="7.625" style="15" customWidth="1"/>
-    <col min="1029" max="1281" width="9" style="15"/>
-    <col min="1282" max="1282" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="15.625" style="15" customWidth="1"/>
-    <col min="1284" max="1284" width="7.625" style="15" customWidth="1"/>
-    <col min="1285" max="1537" width="9" style="15"/>
-    <col min="1538" max="1538" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="15.625" style="15" customWidth="1"/>
-    <col min="1540" max="1540" width="7.625" style="15" customWidth="1"/>
-    <col min="1541" max="1793" width="9" style="15"/>
-    <col min="1794" max="1794" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="15.625" style="15" customWidth="1"/>
-    <col min="1796" max="1796" width="7.625" style="15" customWidth="1"/>
-    <col min="1797" max="2049" width="9" style="15"/>
-    <col min="2050" max="2050" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="15.625" style="15" customWidth="1"/>
-    <col min="2052" max="2052" width="7.625" style="15" customWidth="1"/>
-    <col min="2053" max="2305" width="9" style="15"/>
-    <col min="2306" max="2306" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="15.625" style="15" customWidth="1"/>
-    <col min="2308" max="2308" width="7.625" style="15" customWidth="1"/>
-    <col min="2309" max="2561" width="9" style="15"/>
-    <col min="2562" max="2562" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="15.625" style="15" customWidth="1"/>
-    <col min="2564" max="2564" width="7.625" style="15" customWidth="1"/>
-    <col min="2565" max="2817" width="9" style="15"/>
-    <col min="2818" max="2818" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="15.625" style="15" customWidth="1"/>
-    <col min="2820" max="2820" width="7.625" style="15" customWidth="1"/>
-    <col min="2821" max="3073" width="9" style="15"/>
-    <col min="3074" max="3074" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="15.625" style="15" customWidth="1"/>
-    <col min="3076" max="3076" width="7.625" style="15" customWidth="1"/>
-    <col min="3077" max="3329" width="9" style="15"/>
-    <col min="3330" max="3330" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="15.625" style="15" customWidth="1"/>
-    <col min="3332" max="3332" width="7.625" style="15" customWidth="1"/>
-    <col min="3333" max="3585" width="9" style="15"/>
-    <col min="3586" max="3586" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="15.625" style="15" customWidth="1"/>
-    <col min="3588" max="3588" width="7.625" style="15" customWidth="1"/>
-    <col min="3589" max="3841" width="9" style="15"/>
-    <col min="3842" max="3842" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="15.625" style="15" customWidth="1"/>
-    <col min="3844" max="3844" width="7.625" style="15" customWidth="1"/>
-    <col min="3845" max="4097" width="9" style="15"/>
-    <col min="4098" max="4098" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="15.625" style="15" customWidth="1"/>
-    <col min="4100" max="4100" width="7.625" style="15" customWidth="1"/>
-    <col min="4101" max="4353" width="9" style="15"/>
-    <col min="4354" max="4354" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="15.625" style="15" customWidth="1"/>
-    <col min="4356" max="4356" width="7.625" style="15" customWidth="1"/>
-    <col min="4357" max="4609" width="9" style="15"/>
-    <col min="4610" max="4610" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="15.625" style="15" customWidth="1"/>
-    <col min="4612" max="4612" width="7.625" style="15" customWidth="1"/>
-    <col min="4613" max="4865" width="9" style="15"/>
-    <col min="4866" max="4866" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="15.625" style="15" customWidth="1"/>
-    <col min="4868" max="4868" width="7.625" style="15" customWidth="1"/>
-    <col min="4869" max="5121" width="9" style="15"/>
-    <col min="5122" max="5122" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="15.625" style="15" customWidth="1"/>
-    <col min="5124" max="5124" width="7.625" style="15" customWidth="1"/>
-    <col min="5125" max="5377" width="9" style="15"/>
-    <col min="5378" max="5378" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="15.625" style="15" customWidth="1"/>
-    <col min="5380" max="5380" width="7.625" style="15" customWidth="1"/>
-    <col min="5381" max="5633" width="9" style="15"/>
-    <col min="5634" max="5634" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="15.625" style="15" customWidth="1"/>
-    <col min="5636" max="5636" width="7.625" style="15" customWidth="1"/>
-    <col min="5637" max="5889" width="9" style="15"/>
-    <col min="5890" max="5890" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="15.625" style="15" customWidth="1"/>
-    <col min="5892" max="5892" width="7.625" style="15" customWidth="1"/>
-    <col min="5893" max="6145" width="9" style="15"/>
-    <col min="6146" max="6146" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="15.625" style="15" customWidth="1"/>
-    <col min="6148" max="6148" width="7.625" style="15" customWidth="1"/>
-    <col min="6149" max="6401" width="9" style="15"/>
-    <col min="6402" max="6402" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="15.625" style="15" customWidth="1"/>
-    <col min="6404" max="6404" width="7.625" style="15" customWidth="1"/>
-    <col min="6405" max="6657" width="9" style="15"/>
-    <col min="6658" max="6658" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="15.625" style="15" customWidth="1"/>
-    <col min="6660" max="6660" width="7.625" style="15" customWidth="1"/>
-    <col min="6661" max="6913" width="9" style="15"/>
-    <col min="6914" max="6914" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="15.625" style="15" customWidth="1"/>
-    <col min="6916" max="6916" width="7.625" style="15" customWidth="1"/>
-    <col min="6917" max="7169" width="9" style="15"/>
-    <col min="7170" max="7170" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="15.625" style="15" customWidth="1"/>
-    <col min="7172" max="7172" width="7.625" style="15" customWidth="1"/>
-    <col min="7173" max="7425" width="9" style="15"/>
-    <col min="7426" max="7426" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="15.625" style="15" customWidth="1"/>
-    <col min="7428" max="7428" width="7.625" style="15" customWidth="1"/>
-    <col min="7429" max="7681" width="9" style="15"/>
-    <col min="7682" max="7682" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="15.625" style="15" customWidth="1"/>
-    <col min="7684" max="7684" width="7.625" style="15" customWidth="1"/>
-    <col min="7685" max="7937" width="9" style="15"/>
-    <col min="7938" max="7938" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="15.625" style="15" customWidth="1"/>
-    <col min="7940" max="7940" width="7.625" style="15" customWidth="1"/>
-    <col min="7941" max="8193" width="9" style="15"/>
-    <col min="8194" max="8194" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="15.625" style="15" customWidth="1"/>
-    <col min="8196" max="8196" width="7.625" style="15" customWidth="1"/>
-    <col min="8197" max="8449" width="9" style="15"/>
-    <col min="8450" max="8450" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="15.625" style="15" customWidth="1"/>
-    <col min="8452" max="8452" width="7.625" style="15" customWidth="1"/>
-    <col min="8453" max="8705" width="9" style="15"/>
-    <col min="8706" max="8706" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="15.625" style="15" customWidth="1"/>
-    <col min="8708" max="8708" width="7.625" style="15" customWidth="1"/>
-    <col min="8709" max="8961" width="9" style="15"/>
-    <col min="8962" max="8962" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="15.625" style="15" customWidth="1"/>
-    <col min="8964" max="8964" width="7.625" style="15" customWidth="1"/>
-    <col min="8965" max="9217" width="9" style="15"/>
-    <col min="9218" max="9218" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="15.625" style="15" customWidth="1"/>
-    <col min="9220" max="9220" width="7.625" style="15" customWidth="1"/>
-    <col min="9221" max="9473" width="9" style="15"/>
-    <col min="9474" max="9474" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="15.625" style="15" customWidth="1"/>
-    <col min="9476" max="9476" width="7.625" style="15" customWidth="1"/>
-    <col min="9477" max="9729" width="9" style="15"/>
-    <col min="9730" max="9730" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="15.625" style="15" customWidth="1"/>
-    <col min="9732" max="9732" width="7.625" style="15" customWidth="1"/>
-    <col min="9733" max="9985" width="9" style="15"/>
-    <col min="9986" max="9986" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="15.625" style="15" customWidth="1"/>
-    <col min="9988" max="9988" width="7.625" style="15" customWidth="1"/>
-    <col min="9989" max="10241" width="9" style="15"/>
-    <col min="10242" max="10242" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="15.625" style="15" customWidth="1"/>
-    <col min="10244" max="10244" width="7.625" style="15" customWidth="1"/>
-    <col min="10245" max="10497" width="9" style="15"/>
-    <col min="10498" max="10498" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="15.625" style="15" customWidth="1"/>
-    <col min="10500" max="10500" width="7.625" style="15" customWidth="1"/>
-    <col min="10501" max="10753" width="9" style="15"/>
-    <col min="10754" max="10754" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="15.625" style="15" customWidth="1"/>
-    <col min="10756" max="10756" width="7.625" style="15" customWidth="1"/>
-    <col min="10757" max="11009" width="9" style="15"/>
-    <col min="11010" max="11010" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="15.625" style="15" customWidth="1"/>
-    <col min="11012" max="11012" width="7.625" style="15" customWidth="1"/>
-    <col min="11013" max="11265" width="9" style="15"/>
-    <col min="11266" max="11266" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="15.625" style="15" customWidth="1"/>
-    <col min="11268" max="11268" width="7.625" style="15" customWidth="1"/>
-    <col min="11269" max="11521" width="9" style="15"/>
-    <col min="11522" max="11522" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="15.625" style="15" customWidth="1"/>
-    <col min="11524" max="11524" width="7.625" style="15" customWidth="1"/>
-    <col min="11525" max="11777" width="9" style="15"/>
-    <col min="11778" max="11778" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="15.625" style="15" customWidth="1"/>
-    <col min="11780" max="11780" width="7.625" style="15" customWidth="1"/>
-    <col min="11781" max="12033" width="9" style="15"/>
-    <col min="12034" max="12034" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="15.625" style="15" customWidth="1"/>
-    <col min="12036" max="12036" width="7.625" style="15" customWidth="1"/>
-    <col min="12037" max="12289" width="9" style="15"/>
-    <col min="12290" max="12290" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="15.625" style="15" customWidth="1"/>
-    <col min="12292" max="12292" width="7.625" style="15" customWidth="1"/>
-    <col min="12293" max="12545" width="9" style="15"/>
-    <col min="12546" max="12546" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="15.625" style="15" customWidth="1"/>
-    <col min="12548" max="12548" width="7.625" style="15" customWidth="1"/>
-    <col min="12549" max="12801" width="9" style="15"/>
-    <col min="12802" max="12802" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="15.625" style="15" customWidth="1"/>
-    <col min="12804" max="12804" width="7.625" style="15" customWidth="1"/>
-    <col min="12805" max="13057" width="9" style="15"/>
-    <col min="13058" max="13058" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="15.625" style="15" customWidth="1"/>
-    <col min="13060" max="13060" width="7.625" style="15" customWidth="1"/>
-    <col min="13061" max="13313" width="9" style="15"/>
-    <col min="13314" max="13314" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="15.625" style="15" customWidth="1"/>
-    <col min="13316" max="13316" width="7.625" style="15" customWidth="1"/>
-    <col min="13317" max="13569" width="9" style="15"/>
-    <col min="13570" max="13570" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="15.625" style="15" customWidth="1"/>
-    <col min="13572" max="13572" width="7.625" style="15" customWidth="1"/>
-    <col min="13573" max="13825" width="9" style="15"/>
-    <col min="13826" max="13826" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="15.625" style="15" customWidth="1"/>
-    <col min="13828" max="13828" width="7.625" style="15" customWidth="1"/>
-    <col min="13829" max="14081" width="9" style="15"/>
-    <col min="14082" max="14082" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="15.625" style="15" customWidth="1"/>
-    <col min="14084" max="14084" width="7.625" style="15" customWidth="1"/>
-    <col min="14085" max="14337" width="9" style="15"/>
-    <col min="14338" max="14338" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="15.625" style="15" customWidth="1"/>
-    <col min="14340" max="14340" width="7.625" style="15" customWidth="1"/>
-    <col min="14341" max="14593" width="9" style="15"/>
-    <col min="14594" max="14594" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="15.625" style="15" customWidth="1"/>
-    <col min="14596" max="14596" width="7.625" style="15" customWidth="1"/>
-    <col min="14597" max="14849" width="9" style="15"/>
-    <col min="14850" max="14850" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="15.625" style="15" customWidth="1"/>
-    <col min="14852" max="14852" width="7.625" style="15" customWidth="1"/>
-    <col min="14853" max="15105" width="9" style="15"/>
-    <col min="15106" max="15106" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="15.625" style="15" customWidth="1"/>
-    <col min="15108" max="15108" width="7.625" style="15" customWidth="1"/>
-    <col min="15109" max="15361" width="9" style="15"/>
-    <col min="15362" max="15362" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="15.625" style="15" customWidth="1"/>
-    <col min="15364" max="15364" width="7.625" style="15" customWidth="1"/>
-    <col min="15365" max="15617" width="9" style="15"/>
-    <col min="15618" max="15618" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="15.625" style="15" customWidth="1"/>
-    <col min="15620" max="15620" width="7.625" style="15" customWidth="1"/>
-    <col min="15621" max="15873" width="9" style="15"/>
-    <col min="15874" max="15874" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="15.625" style="15" customWidth="1"/>
-    <col min="15876" max="15876" width="7.625" style="15" customWidth="1"/>
-    <col min="15877" max="16129" width="9" style="15"/>
-    <col min="16130" max="16130" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="15.625" style="15" customWidth="1"/>
-    <col min="16132" max="16132" width="7.625" style="15" customWidth="1"/>
-    <col min="16133" max="16384" width="9" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="95" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="97"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="86">
-        <v>45013</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="87"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="86">
-        <v>45135</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="87"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="86">
-        <v>45281</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="87"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="86">
-        <v>45314</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="87"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="88"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.86614173228346458" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter xml:space="preserve">&amp;C&amp;10　
-&amp;R
-</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="0" tint="-0.249977111117893"/>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
   <dimension ref="A2:T8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
@@ -18799,12 +21450,12 @@
     <col min="7" max="7" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20">
       <c r="A2" s="114" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20">
       <c r="B3" s="115" t="s">
         <v>90</v>
       </c>
@@ -18854,7 +21505,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20">
       <c r="B4" s="115" t="s">
         <v>59</v>
       </c>
@@ -18913,7 +21564,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="118" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="118" customFormat="1">
       <c r="A5" s="124" t="s">
         <v>253</v>
       </c>
@@ -18960,7 +21611,7 @@
         <v>INSERT INTO XXCCD_USER_ROLE_TMP (ID,USER_NAME,PERSON_NUMBER,LAST_NAME,FIRST_NAME,ROLE_ASSIGNMENT,SUPPLY_AGENT,LEDGER,DATA_ACCESS,BU,INSTANCE_ID,BEF_SUPPLY_AGENT,BEF_LEDGER,BEF_DATA_ACCESS,BEF_BU,ADD_REMOVE_ROLE) VALUES (1,'XXCMM002A1103_TestUser3','38','l_user3','f_user3','KI_1011_ZAIMU_REPORT_GL','','1','','','1','','','','','ADD');</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="118" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="118" customFormat="1">
       <c r="A6" s="124" t="s">
         <v>253</v>
       </c>
@@ -19009,7 +21660,7 @@
         <v>INSERT INTO XXCCD_USER_ROLE_TMP (ID,USER_NAME,PERSON_NUMBER,LAST_NAME,FIRST_NAME,ROLE_ASSIGNMENT,SUPPLY_AGENT,LEDGER,DATA_ACCESS,BU,INSTANCE_ID,BEF_SUPPLY_AGENT,BEF_LEDGER,BEF_DATA_ACCESS,BEF_BU,ADD_REMOVE_ROLE) VALUES (2,'XXCMM002A1103_TestUser4','39','l_user4','f_user4','KI_1011_ZAIMU_REPORT_GL','','3','','','1','','2','','','ADD');</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="27">
       <c r="A7" s="128" t="s">
         <v>139</v>
       </c>
@@ -19057,7 +21708,7 @@
       </c>
       <c r="T7" s="118"/>
     </row>
-    <row r="8" spans="1:20" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="27">
       <c r="A8" s="128" t="s">
         <v>139</v>
       </c>
@@ -19111,10 +21762,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="0" tint="-0.249977111117893"/>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J29"/>
@@ -19122,10 +21773,10 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G31" sqref="G31"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -19706,7 +22357,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -19717,35 +22368,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="B8" s="37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.25" thickBot="1">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.25" thickBot="1">
       <c r="B10" s="100" t="s">
         <v>40</v>
       </c>
@@ -19771,7 +22422,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="21">
       <c r="B11" s="60" t="s">
         <v>110</v>
       </c>
@@ -19798,7 +22449,7 @@
       </c>
       <c r="J11" s="123"/>
     </row>
-    <row r="12" spans="1:10" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="73.5">
       <c r="A12" s="38"/>
       <c r="B12" s="60" t="s">
         <v>161</v>
@@ -19817,7 +22468,7 @@
       <c r="H12" s="39"/>
       <c r="I12" s="73"/>
     </row>
-    <row r="13" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="31.5">
       <c r="A13" s="38"/>
       <c r="B13" s="60"/>
       <c r="C13" s="42"/>
@@ -19830,7 +22481,7 @@
       <c r="H13" s="53"/>
       <c r="I13" s="71"/>
     </row>
-    <row r="14" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="42">
       <c r="A14" s="38"/>
       <c r="B14" s="60"/>
       <c r="C14" s="109"/>
@@ -19851,7 +22502,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="31.5">
       <c r="A15" s="38"/>
       <c r="B15" s="60"/>
       <c r="C15" s="42"/>
@@ -19872,7 +22523,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="63" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="63">
       <c r="A16" s="38"/>
       <c r="B16" s="60"/>
       <c r="C16" s="42"/>
@@ -19893,7 +22544,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="63" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="63">
       <c r="A17" s="38"/>
       <c r="B17" s="60"/>
       <c r="C17" s="42"/>
@@ -19914,7 +22565,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="52.5">
       <c r="A18" s="38"/>
       <c r="B18" s="60"/>
       <c r="C18" s="42"/>
@@ -19935,7 +22586,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="14.25" thickBot="1">
       <c r="B19" s="67"/>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
@@ -19945,7 +22596,7 @@
       <c r="H19" s="43"/>
       <c r="I19" s="72"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -19955,7 +22606,7 @@
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
@@ -19965,7 +22616,7 @@
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
     </row>
-    <row r="22" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="6" customHeight="1">
       <c r="A22" s="28"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -19975,7 +22626,7 @@
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
     </row>
-    <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="14.25">
       <c r="A23" s="32" t="s">
         <v>48</v>
       </c>
@@ -19985,7 +22636,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
@@ -19995,7 +22646,7 @@
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="B25" s="113"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
@@ -20005,7 +22656,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
@@ -20015,7 +22666,7 @@
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
@@ -20025,7 +22676,7 @@
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
@@ -20035,7 +22686,7 @@
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -20059,18 +22710,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="0" tint="-0.249977111117893"/>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
   <dimension ref="A2:T8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
@@ -20078,12 +22727,12 @@
     <col min="7" max="7" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20">
       <c r="A2" s="114" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20">
       <c r="B4" s="115" t="s">
         <v>90</v>
       </c>
@@ -20133,7 +22782,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20">
       <c r="B5" s="115" t="s">
         <v>59</v>
       </c>
@@ -20192,7 +22841,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="118" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="118" customFormat="1">
       <c r="A6" s="124" t="s">
         <v>157</v>
       </c>
@@ -20239,7 +22888,7 @@
         <v>INSERT INTO XXCCD_USER_ROLE_TMP (ID,USER_NAME,PERSON_NUMBER,LAST_NAME,FIRST_NAME,ROLE_ASSIGNMENT,SUPPLY_AGENT,LEDGER,DATA_ACCESS,BU,INSTANCE_ID,BEF_SUPPLY_AGENT,BEF_LEDGER,BEF_DATA_ACCESS,BEF_BU,ADD_REMOVE_ROLE) VALUES (10001,'XXCMM002A1103_TestUser12','64','l_user12','f_user12','XXCMM002A1103','','1','','','1','','','','','ADD');</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="118" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="118" customFormat="1">
       <c r="A7" s="124" t="s">
         <v>156</v>
       </c>
@@ -20288,7 +22937,7 @@
         <v>INSERT INTO XXCCD_USER_ROLE_TMP (ID,USER_NAME,PERSON_NUMBER,LAST_NAME,FIRST_NAME,ROLE_ASSIGNMENT,SUPPLY_AGENT,LEDGER,DATA_ACCESS,BU,INSTANCE_ID,BEF_SUPPLY_AGENT,BEF_LEDGER,BEF_DATA_ACCESS,BEF_BU,ADD_REMOVE_ROLE) VALUES (10002,'XXCMM002A1103_TestUser2','37','l_user2','f_user2','XXCMM002A1103','','3','','','1','','2','','','ADD');</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="27">
       <c r="A8" s="128" t="s">
         <v>139</v>
       </c>
@@ -20343,648 +22992,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
-    <col min="2" max="3" width="9.125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="30" style="27" customWidth="1"/>
-    <col min="6" max="8" width="13.125" style="27" customWidth="1"/>
-    <col min="9" max="256" width="9" style="27"/>
-    <col min="257" max="257" width="3.125" style="27" customWidth="1"/>
-    <col min="258" max="259" width="9.125" style="27" customWidth="1"/>
-    <col min="260" max="260" width="30.625" style="27" customWidth="1"/>
-    <col min="261" max="261" width="30" style="27" customWidth="1"/>
-    <col min="262" max="264" width="13.125" style="27" customWidth="1"/>
-    <col min="265" max="512" width="9" style="27"/>
-    <col min="513" max="513" width="3.125" style="27" customWidth="1"/>
-    <col min="514" max="515" width="9.125" style="27" customWidth="1"/>
-    <col min="516" max="516" width="30.625" style="27" customWidth="1"/>
-    <col min="517" max="517" width="30" style="27" customWidth="1"/>
-    <col min="518" max="520" width="13.125" style="27" customWidth="1"/>
-    <col min="521" max="768" width="9" style="27"/>
-    <col min="769" max="769" width="3.125" style="27" customWidth="1"/>
-    <col min="770" max="771" width="9.125" style="27" customWidth="1"/>
-    <col min="772" max="772" width="30.625" style="27" customWidth="1"/>
-    <col min="773" max="773" width="30" style="27" customWidth="1"/>
-    <col min="774" max="776" width="13.125" style="27" customWidth="1"/>
-    <col min="777" max="1024" width="9" style="27"/>
-    <col min="1025" max="1025" width="3.125" style="27" customWidth="1"/>
-    <col min="1026" max="1027" width="9.125" style="27" customWidth="1"/>
-    <col min="1028" max="1028" width="30.625" style="27" customWidth="1"/>
-    <col min="1029" max="1029" width="30" style="27" customWidth="1"/>
-    <col min="1030" max="1032" width="13.125" style="27" customWidth="1"/>
-    <col min="1033" max="1280" width="9" style="27"/>
-    <col min="1281" max="1281" width="3.125" style="27" customWidth="1"/>
-    <col min="1282" max="1283" width="9.125" style="27" customWidth="1"/>
-    <col min="1284" max="1284" width="30.625" style="27" customWidth="1"/>
-    <col min="1285" max="1285" width="30" style="27" customWidth="1"/>
-    <col min="1286" max="1288" width="13.125" style="27" customWidth="1"/>
-    <col min="1289" max="1536" width="9" style="27"/>
-    <col min="1537" max="1537" width="3.125" style="27" customWidth="1"/>
-    <col min="1538" max="1539" width="9.125" style="27" customWidth="1"/>
-    <col min="1540" max="1540" width="30.625" style="27" customWidth="1"/>
-    <col min="1541" max="1541" width="30" style="27" customWidth="1"/>
-    <col min="1542" max="1544" width="13.125" style="27" customWidth="1"/>
-    <col min="1545" max="1792" width="9" style="27"/>
-    <col min="1793" max="1793" width="3.125" style="27" customWidth="1"/>
-    <col min="1794" max="1795" width="9.125" style="27" customWidth="1"/>
-    <col min="1796" max="1796" width="30.625" style="27" customWidth="1"/>
-    <col min="1797" max="1797" width="30" style="27" customWidth="1"/>
-    <col min="1798" max="1800" width="13.125" style="27" customWidth="1"/>
-    <col min="1801" max="2048" width="9" style="27"/>
-    <col min="2049" max="2049" width="3.125" style="27" customWidth="1"/>
-    <col min="2050" max="2051" width="9.125" style="27" customWidth="1"/>
-    <col min="2052" max="2052" width="30.625" style="27" customWidth="1"/>
-    <col min="2053" max="2053" width="30" style="27" customWidth="1"/>
-    <col min="2054" max="2056" width="13.125" style="27" customWidth="1"/>
-    <col min="2057" max="2304" width="9" style="27"/>
-    <col min="2305" max="2305" width="3.125" style="27" customWidth="1"/>
-    <col min="2306" max="2307" width="9.125" style="27" customWidth="1"/>
-    <col min="2308" max="2308" width="30.625" style="27" customWidth="1"/>
-    <col min="2309" max="2309" width="30" style="27" customWidth="1"/>
-    <col min="2310" max="2312" width="13.125" style="27" customWidth="1"/>
-    <col min="2313" max="2560" width="9" style="27"/>
-    <col min="2561" max="2561" width="3.125" style="27" customWidth="1"/>
-    <col min="2562" max="2563" width="9.125" style="27" customWidth="1"/>
-    <col min="2564" max="2564" width="30.625" style="27" customWidth="1"/>
-    <col min="2565" max="2565" width="30" style="27" customWidth="1"/>
-    <col min="2566" max="2568" width="13.125" style="27" customWidth="1"/>
-    <col min="2569" max="2816" width="9" style="27"/>
-    <col min="2817" max="2817" width="3.125" style="27" customWidth="1"/>
-    <col min="2818" max="2819" width="9.125" style="27" customWidth="1"/>
-    <col min="2820" max="2820" width="30.625" style="27" customWidth="1"/>
-    <col min="2821" max="2821" width="30" style="27" customWidth="1"/>
-    <col min="2822" max="2824" width="13.125" style="27" customWidth="1"/>
-    <col min="2825" max="3072" width="9" style="27"/>
-    <col min="3073" max="3073" width="3.125" style="27" customWidth="1"/>
-    <col min="3074" max="3075" width="9.125" style="27" customWidth="1"/>
-    <col min="3076" max="3076" width="30.625" style="27" customWidth="1"/>
-    <col min="3077" max="3077" width="30" style="27" customWidth="1"/>
-    <col min="3078" max="3080" width="13.125" style="27" customWidth="1"/>
-    <col min="3081" max="3328" width="9" style="27"/>
-    <col min="3329" max="3329" width="3.125" style="27" customWidth="1"/>
-    <col min="3330" max="3331" width="9.125" style="27" customWidth="1"/>
-    <col min="3332" max="3332" width="30.625" style="27" customWidth="1"/>
-    <col min="3333" max="3333" width="30" style="27" customWidth="1"/>
-    <col min="3334" max="3336" width="13.125" style="27" customWidth="1"/>
-    <col min="3337" max="3584" width="9" style="27"/>
-    <col min="3585" max="3585" width="3.125" style="27" customWidth="1"/>
-    <col min="3586" max="3587" width="9.125" style="27" customWidth="1"/>
-    <col min="3588" max="3588" width="30.625" style="27" customWidth="1"/>
-    <col min="3589" max="3589" width="30" style="27" customWidth="1"/>
-    <col min="3590" max="3592" width="13.125" style="27" customWidth="1"/>
-    <col min="3593" max="3840" width="9" style="27"/>
-    <col min="3841" max="3841" width="3.125" style="27" customWidth="1"/>
-    <col min="3842" max="3843" width="9.125" style="27" customWidth="1"/>
-    <col min="3844" max="3844" width="30.625" style="27" customWidth="1"/>
-    <col min="3845" max="3845" width="30" style="27" customWidth="1"/>
-    <col min="3846" max="3848" width="13.125" style="27" customWidth="1"/>
-    <col min="3849" max="4096" width="9" style="27"/>
-    <col min="4097" max="4097" width="3.125" style="27" customWidth="1"/>
-    <col min="4098" max="4099" width="9.125" style="27" customWidth="1"/>
-    <col min="4100" max="4100" width="30.625" style="27" customWidth="1"/>
-    <col min="4101" max="4101" width="30" style="27" customWidth="1"/>
-    <col min="4102" max="4104" width="13.125" style="27" customWidth="1"/>
-    <col min="4105" max="4352" width="9" style="27"/>
-    <col min="4353" max="4353" width="3.125" style="27" customWidth="1"/>
-    <col min="4354" max="4355" width="9.125" style="27" customWidth="1"/>
-    <col min="4356" max="4356" width="30.625" style="27" customWidth="1"/>
-    <col min="4357" max="4357" width="30" style="27" customWidth="1"/>
-    <col min="4358" max="4360" width="13.125" style="27" customWidth="1"/>
-    <col min="4361" max="4608" width="9" style="27"/>
-    <col min="4609" max="4609" width="3.125" style="27" customWidth="1"/>
-    <col min="4610" max="4611" width="9.125" style="27" customWidth="1"/>
-    <col min="4612" max="4612" width="30.625" style="27" customWidth="1"/>
-    <col min="4613" max="4613" width="30" style="27" customWidth="1"/>
-    <col min="4614" max="4616" width="13.125" style="27" customWidth="1"/>
-    <col min="4617" max="4864" width="9" style="27"/>
-    <col min="4865" max="4865" width="3.125" style="27" customWidth="1"/>
-    <col min="4866" max="4867" width="9.125" style="27" customWidth="1"/>
-    <col min="4868" max="4868" width="30.625" style="27" customWidth="1"/>
-    <col min="4869" max="4869" width="30" style="27" customWidth="1"/>
-    <col min="4870" max="4872" width="13.125" style="27" customWidth="1"/>
-    <col min="4873" max="5120" width="9" style="27"/>
-    <col min="5121" max="5121" width="3.125" style="27" customWidth="1"/>
-    <col min="5122" max="5123" width="9.125" style="27" customWidth="1"/>
-    <col min="5124" max="5124" width="30.625" style="27" customWidth="1"/>
-    <col min="5125" max="5125" width="30" style="27" customWidth="1"/>
-    <col min="5126" max="5128" width="13.125" style="27" customWidth="1"/>
-    <col min="5129" max="5376" width="9" style="27"/>
-    <col min="5377" max="5377" width="3.125" style="27" customWidth="1"/>
-    <col min="5378" max="5379" width="9.125" style="27" customWidth="1"/>
-    <col min="5380" max="5380" width="30.625" style="27" customWidth="1"/>
-    <col min="5381" max="5381" width="30" style="27" customWidth="1"/>
-    <col min="5382" max="5384" width="13.125" style="27" customWidth="1"/>
-    <col min="5385" max="5632" width="9" style="27"/>
-    <col min="5633" max="5633" width="3.125" style="27" customWidth="1"/>
-    <col min="5634" max="5635" width="9.125" style="27" customWidth="1"/>
-    <col min="5636" max="5636" width="30.625" style="27" customWidth="1"/>
-    <col min="5637" max="5637" width="30" style="27" customWidth="1"/>
-    <col min="5638" max="5640" width="13.125" style="27" customWidth="1"/>
-    <col min="5641" max="5888" width="9" style="27"/>
-    <col min="5889" max="5889" width="3.125" style="27" customWidth="1"/>
-    <col min="5890" max="5891" width="9.125" style="27" customWidth="1"/>
-    <col min="5892" max="5892" width="30.625" style="27" customWidth="1"/>
-    <col min="5893" max="5893" width="30" style="27" customWidth="1"/>
-    <col min="5894" max="5896" width="13.125" style="27" customWidth="1"/>
-    <col min="5897" max="6144" width="9" style="27"/>
-    <col min="6145" max="6145" width="3.125" style="27" customWidth="1"/>
-    <col min="6146" max="6147" width="9.125" style="27" customWidth="1"/>
-    <col min="6148" max="6148" width="30.625" style="27" customWidth="1"/>
-    <col min="6149" max="6149" width="30" style="27" customWidth="1"/>
-    <col min="6150" max="6152" width="13.125" style="27" customWidth="1"/>
-    <col min="6153" max="6400" width="9" style="27"/>
-    <col min="6401" max="6401" width="3.125" style="27" customWidth="1"/>
-    <col min="6402" max="6403" width="9.125" style="27" customWidth="1"/>
-    <col min="6404" max="6404" width="30.625" style="27" customWidth="1"/>
-    <col min="6405" max="6405" width="30" style="27" customWidth="1"/>
-    <col min="6406" max="6408" width="13.125" style="27" customWidth="1"/>
-    <col min="6409" max="6656" width="9" style="27"/>
-    <col min="6657" max="6657" width="3.125" style="27" customWidth="1"/>
-    <col min="6658" max="6659" width="9.125" style="27" customWidth="1"/>
-    <col min="6660" max="6660" width="30.625" style="27" customWidth="1"/>
-    <col min="6661" max="6661" width="30" style="27" customWidth="1"/>
-    <col min="6662" max="6664" width="13.125" style="27" customWidth="1"/>
-    <col min="6665" max="6912" width="9" style="27"/>
-    <col min="6913" max="6913" width="3.125" style="27" customWidth="1"/>
-    <col min="6914" max="6915" width="9.125" style="27" customWidth="1"/>
-    <col min="6916" max="6916" width="30.625" style="27" customWidth="1"/>
-    <col min="6917" max="6917" width="30" style="27" customWidth="1"/>
-    <col min="6918" max="6920" width="13.125" style="27" customWidth="1"/>
-    <col min="6921" max="7168" width="9" style="27"/>
-    <col min="7169" max="7169" width="3.125" style="27" customWidth="1"/>
-    <col min="7170" max="7171" width="9.125" style="27" customWidth="1"/>
-    <col min="7172" max="7172" width="30.625" style="27" customWidth="1"/>
-    <col min="7173" max="7173" width="30" style="27" customWidth="1"/>
-    <col min="7174" max="7176" width="13.125" style="27" customWidth="1"/>
-    <col min="7177" max="7424" width="9" style="27"/>
-    <col min="7425" max="7425" width="3.125" style="27" customWidth="1"/>
-    <col min="7426" max="7427" width="9.125" style="27" customWidth="1"/>
-    <col min="7428" max="7428" width="30.625" style="27" customWidth="1"/>
-    <col min="7429" max="7429" width="30" style="27" customWidth="1"/>
-    <col min="7430" max="7432" width="13.125" style="27" customWidth="1"/>
-    <col min="7433" max="7680" width="9" style="27"/>
-    <col min="7681" max="7681" width="3.125" style="27" customWidth="1"/>
-    <col min="7682" max="7683" width="9.125" style="27" customWidth="1"/>
-    <col min="7684" max="7684" width="30.625" style="27" customWidth="1"/>
-    <col min="7685" max="7685" width="30" style="27" customWidth="1"/>
-    <col min="7686" max="7688" width="13.125" style="27" customWidth="1"/>
-    <col min="7689" max="7936" width="9" style="27"/>
-    <col min="7937" max="7937" width="3.125" style="27" customWidth="1"/>
-    <col min="7938" max="7939" width="9.125" style="27" customWidth="1"/>
-    <col min="7940" max="7940" width="30.625" style="27" customWidth="1"/>
-    <col min="7941" max="7941" width="30" style="27" customWidth="1"/>
-    <col min="7942" max="7944" width="13.125" style="27" customWidth="1"/>
-    <col min="7945" max="8192" width="9" style="27"/>
-    <col min="8193" max="8193" width="3.125" style="27" customWidth="1"/>
-    <col min="8194" max="8195" width="9.125" style="27" customWidth="1"/>
-    <col min="8196" max="8196" width="30.625" style="27" customWidth="1"/>
-    <col min="8197" max="8197" width="30" style="27" customWidth="1"/>
-    <col min="8198" max="8200" width="13.125" style="27" customWidth="1"/>
-    <col min="8201" max="8448" width="9" style="27"/>
-    <col min="8449" max="8449" width="3.125" style="27" customWidth="1"/>
-    <col min="8450" max="8451" width="9.125" style="27" customWidth="1"/>
-    <col min="8452" max="8452" width="30.625" style="27" customWidth="1"/>
-    <col min="8453" max="8453" width="30" style="27" customWidth="1"/>
-    <col min="8454" max="8456" width="13.125" style="27" customWidth="1"/>
-    <col min="8457" max="8704" width="9" style="27"/>
-    <col min="8705" max="8705" width="3.125" style="27" customWidth="1"/>
-    <col min="8706" max="8707" width="9.125" style="27" customWidth="1"/>
-    <col min="8708" max="8708" width="30.625" style="27" customWidth="1"/>
-    <col min="8709" max="8709" width="30" style="27" customWidth="1"/>
-    <col min="8710" max="8712" width="13.125" style="27" customWidth="1"/>
-    <col min="8713" max="8960" width="9" style="27"/>
-    <col min="8961" max="8961" width="3.125" style="27" customWidth="1"/>
-    <col min="8962" max="8963" width="9.125" style="27" customWidth="1"/>
-    <col min="8964" max="8964" width="30.625" style="27" customWidth="1"/>
-    <col min="8965" max="8965" width="30" style="27" customWidth="1"/>
-    <col min="8966" max="8968" width="13.125" style="27" customWidth="1"/>
-    <col min="8969" max="9216" width="9" style="27"/>
-    <col min="9217" max="9217" width="3.125" style="27" customWidth="1"/>
-    <col min="9218" max="9219" width="9.125" style="27" customWidth="1"/>
-    <col min="9220" max="9220" width="30.625" style="27" customWidth="1"/>
-    <col min="9221" max="9221" width="30" style="27" customWidth="1"/>
-    <col min="9222" max="9224" width="13.125" style="27" customWidth="1"/>
-    <col min="9225" max="9472" width="9" style="27"/>
-    <col min="9473" max="9473" width="3.125" style="27" customWidth="1"/>
-    <col min="9474" max="9475" width="9.125" style="27" customWidth="1"/>
-    <col min="9476" max="9476" width="30.625" style="27" customWidth="1"/>
-    <col min="9477" max="9477" width="30" style="27" customWidth="1"/>
-    <col min="9478" max="9480" width="13.125" style="27" customWidth="1"/>
-    <col min="9481" max="9728" width="9" style="27"/>
-    <col min="9729" max="9729" width="3.125" style="27" customWidth="1"/>
-    <col min="9730" max="9731" width="9.125" style="27" customWidth="1"/>
-    <col min="9732" max="9732" width="30.625" style="27" customWidth="1"/>
-    <col min="9733" max="9733" width="30" style="27" customWidth="1"/>
-    <col min="9734" max="9736" width="13.125" style="27" customWidth="1"/>
-    <col min="9737" max="9984" width="9" style="27"/>
-    <col min="9985" max="9985" width="3.125" style="27" customWidth="1"/>
-    <col min="9986" max="9987" width="9.125" style="27" customWidth="1"/>
-    <col min="9988" max="9988" width="30.625" style="27" customWidth="1"/>
-    <col min="9989" max="9989" width="30" style="27" customWidth="1"/>
-    <col min="9990" max="9992" width="13.125" style="27" customWidth="1"/>
-    <col min="9993" max="10240" width="9" style="27"/>
-    <col min="10241" max="10241" width="3.125" style="27" customWidth="1"/>
-    <col min="10242" max="10243" width="9.125" style="27" customWidth="1"/>
-    <col min="10244" max="10244" width="30.625" style="27" customWidth="1"/>
-    <col min="10245" max="10245" width="30" style="27" customWidth="1"/>
-    <col min="10246" max="10248" width="13.125" style="27" customWidth="1"/>
-    <col min="10249" max="10496" width="9" style="27"/>
-    <col min="10497" max="10497" width="3.125" style="27" customWidth="1"/>
-    <col min="10498" max="10499" width="9.125" style="27" customWidth="1"/>
-    <col min="10500" max="10500" width="30.625" style="27" customWidth="1"/>
-    <col min="10501" max="10501" width="30" style="27" customWidth="1"/>
-    <col min="10502" max="10504" width="13.125" style="27" customWidth="1"/>
-    <col min="10505" max="10752" width="9" style="27"/>
-    <col min="10753" max="10753" width="3.125" style="27" customWidth="1"/>
-    <col min="10754" max="10755" width="9.125" style="27" customWidth="1"/>
-    <col min="10756" max="10756" width="30.625" style="27" customWidth="1"/>
-    <col min="10757" max="10757" width="30" style="27" customWidth="1"/>
-    <col min="10758" max="10760" width="13.125" style="27" customWidth="1"/>
-    <col min="10761" max="11008" width="9" style="27"/>
-    <col min="11009" max="11009" width="3.125" style="27" customWidth="1"/>
-    <col min="11010" max="11011" width="9.125" style="27" customWidth="1"/>
-    <col min="11012" max="11012" width="30.625" style="27" customWidth="1"/>
-    <col min="11013" max="11013" width="30" style="27" customWidth="1"/>
-    <col min="11014" max="11016" width="13.125" style="27" customWidth="1"/>
-    <col min="11017" max="11264" width="9" style="27"/>
-    <col min="11265" max="11265" width="3.125" style="27" customWidth="1"/>
-    <col min="11266" max="11267" width="9.125" style="27" customWidth="1"/>
-    <col min="11268" max="11268" width="30.625" style="27" customWidth="1"/>
-    <col min="11269" max="11269" width="30" style="27" customWidth="1"/>
-    <col min="11270" max="11272" width="13.125" style="27" customWidth="1"/>
-    <col min="11273" max="11520" width="9" style="27"/>
-    <col min="11521" max="11521" width="3.125" style="27" customWidth="1"/>
-    <col min="11522" max="11523" width="9.125" style="27" customWidth="1"/>
-    <col min="11524" max="11524" width="30.625" style="27" customWidth="1"/>
-    <col min="11525" max="11525" width="30" style="27" customWidth="1"/>
-    <col min="11526" max="11528" width="13.125" style="27" customWidth="1"/>
-    <col min="11529" max="11776" width="9" style="27"/>
-    <col min="11777" max="11777" width="3.125" style="27" customWidth="1"/>
-    <col min="11778" max="11779" width="9.125" style="27" customWidth="1"/>
-    <col min="11780" max="11780" width="30.625" style="27" customWidth="1"/>
-    <col min="11781" max="11781" width="30" style="27" customWidth="1"/>
-    <col min="11782" max="11784" width="13.125" style="27" customWidth="1"/>
-    <col min="11785" max="12032" width="9" style="27"/>
-    <col min="12033" max="12033" width="3.125" style="27" customWidth="1"/>
-    <col min="12034" max="12035" width="9.125" style="27" customWidth="1"/>
-    <col min="12036" max="12036" width="30.625" style="27" customWidth="1"/>
-    <col min="12037" max="12037" width="30" style="27" customWidth="1"/>
-    <col min="12038" max="12040" width="13.125" style="27" customWidth="1"/>
-    <col min="12041" max="12288" width="9" style="27"/>
-    <col min="12289" max="12289" width="3.125" style="27" customWidth="1"/>
-    <col min="12290" max="12291" width="9.125" style="27" customWidth="1"/>
-    <col min="12292" max="12292" width="30.625" style="27" customWidth="1"/>
-    <col min="12293" max="12293" width="30" style="27" customWidth="1"/>
-    <col min="12294" max="12296" width="13.125" style="27" customWidth="1"/>
-    <col min="12297" max="12544" width="9" style="27"/>
-    <col min="12545" max="12545" width="3.125" style="27" customWidth="1"/>
-    <col min="12546" max="12547" width="9.125" style="27" customWidth="1"/>
-    <col min="12548" max="12548" width="30.625" style="27" customWidth="1"/>
-    <col min="12549" max="12549" width="30" style="27" customWidth="1"/>
-    <col min="12550" max="12552" width="13.125" style="27" customWidth="1"/>
-    <col min="12553" max="12800" width="9" style="27"/>
-    <col min="12801" max="12801" width="3.125" style="27" customWidth="1"/>
-    <col min="12802" max="12803" width="9.125" style="27" customWidth="1"/>
-    <col min="12804" max="12804" width="30.625" style="27" customWidth="1"/>
-    <col min="12805" max="12805" width="30" style="27" customWidth="1"/>
-    <col min="12806" max="12808" width="13.125" style="27" customWidth="1"/>
-    <col min="12809" max="13056" width="9" style="27"/>
-    <col min="13057" max="13057" width="3.125" style="27" customWidth="1"/>
-    <col min="13058" max="13059" width="9.125" style="27" customWidth="1"/>
-    <col min="13060" max="13060" width="30.625" style="27" customWidth="1"/>
-    <col min="13061" max="13061" width="30" style="27" customWidth="1"/>
-    <col min="13062" max="13064" width="13.125" style="27" customWidth="1"/>
-    <col min="13065" max="13312" width="9" style="27"/>
-    <col min="13313" max="13313" width="3.125" style="27" customWidth="1"/>
-    <col min="13314" max="13315" width="9.125" style="27" customWidth="1"/>
-    <col min="13316" max="13316" width="30.625" style="27" customWidth="1"/>
-    <col min="13317" max="13317" width="30" style="27" customWidth="1"/>
-    <col min="13318" max="13320" width="13.125" style="27" customWidth="1"/>
-    <col min="13321" max="13568" width="9" style="27"/>
-    <col min="13569" max="13569" width="3.125" style="27" customWidth="1"/>
-    <col min="13570" max="13571" width="9.125" style="27" customWidth="1"/>
-    <col min="13572" max="13572" width="30.625" style="27" customWidth="1"/>
-    <col min="13573" max="13573" width="30" style="27" customWidth="1"/>
-    <col min="13574" max="13576" width="13.125" style="27" customWidth="1"/>
-    <col min="13577" max="13824" width="9" style="27"/>
-    <col min="13825" max="13825" width="3.125" style="27" customWidth="1"/>
-    <col min="13826" max="13827" width="9.125" style="27" customWidth="1"/>
-    <col min="13828" max="13828" width="30.625" style="27" customWidth="1"/>
-    <col min="13829" max="13829" width="30" style="27" customWidth="1"/>
-    <col min="13830" max="13832" width="13.125" style="27" customWidth="1"/>
-    <col min="13833" max="14080" width="9" style="27"/>
-    <col min="14081" max="14081" width="3.125" style="27" customWidth="1"/>
-    <col min="14082" max="14083" width="9.125" style="27" customWidth="1"/>
-    <col min="14084" max="14084" width="30.625" style="27" customWidth="1"/>
-    <col min="14085" max="14085" width="30" style="27" customWidth="1"/>
-    <col min="14086" max="14088" width="13.125" style="27" customWidth="1"/>
-    <col min="14089" max="14336" width="9" style="27"/>
-    <col min="14337" max="14337" width="3.125" style="27" customWidth="1"/>
-    <col min="14338" max="14339" width="9.125" style="27" customWidth="1"/>
-    <col min="14340" max="14340" width="30.625" style="27" customWidth="1"/>
-    <col min="14341" max="14341" width="30" style="27" customWidth="1"/>
-    <col min="14342" max="14344" width="13.125" style="27" customWidth="1"/>
-    <col min="14345" max="14592" width="9" style="27"/>
-    <col min="14593" max="14593" width="3.125" style="27" customWidth="1"/>
-    <col min="14594" max="14595" width="9.125" style="27" customWidth="1"/>
-    <col min="14596" max="14596" width="30.625" style="27" customWidth="1"/>
-    <col min="14597" max="14597" width="30" style="27" customWidth="1"/>
-    <col min="14598" max="14600" width="13.125" style="27" customWidth="1"/>
-    <col min="14601" max="14848" width="9" style="27"/>
-    <col min="14849" max="14849" width="3.125" style="27" customWidth="1"/>
-    <col min="14850" max="14851" width="9.125" style="27" customWidth="1"/>
-    <col min="14852" max="14852" width="30.625" style="27" customWidth="1"/>
-    <col min="14853" max="14853" width="30" style="27" customWidth="1"/>
-    <col min="14854" max="14856" width="13.125" style="27" customWidth="1"/>
-    <col min="14857" max="15104" width="9" style="27"/>
-    <col min="15105" max="15105" width="3.125" style="27" customWidth="1"/>
-    <col min="15106" max="15107" width="9.125" style="27" customWidth="1"/>
-    <col min="15108" max="15108" width="30.625" style="27" customWidth="1"/>
-    <col min="15109" max="15109" width="30" style="27" customWidth="1"/>
-    <col min="15110" max="15112" width="13.125" style="27" customWidth="1"/>
-    <col min="15113" max="15360" width="9" style="27"/>
-    <col min="15361" max="15361" width="3.125" style="27" customWidth="1"/>
-    <col min="15362" max="15363" width="9.125" style="27" customWidth="1"/>
-    <col min="15364" max="15364" width="30.625" style="27" customWidth="1"/>
-    <col min="15365" max="15365" width="30" style="27" customWidth="1"/>
-    <col min="15366" max="15368" width="13.125" style="27" customWidth="1"/>
-    <col min="15369" max="15616" width="9" style="27"/>
-    <col min="15617" max="15617" width="3.125" style="27" customWidth="1"/>
-    <col min="15618" max="15619" width="9.125" style="27" customWidth="1"/>
-    <col min="15620" max="15620" width="30.625" style="27" customWidth="1"/>
-    <col min="15621" max="15621" width="30" style="27" customWidth="1"/>
-    <col min="15622" max="15624" width="13.125" style="27" customWidth="1"/>
-    <col min="15625" max="15872" width="9" style="27"/>
-    <col min="15873" max="15873" width="3.125" style="27" customWidth="1"/>
-    <col min="15874" max="15875" width="9.125" style="27" customWidth="1"/>
-    <col min="15876" max="15876" width="30.625" style="27" customWidth="1"/>
-    <col min="15877" max="15877" width="30" style="27" customWidth="1"/>
-    <col min="15878" max="15880" width="13.125" style="27" customWidth="1"/>
-    <col min="15881" max="16128" width="9" style="27"/>
-    <col min="16129" max="16129" width="3.125" style="27" customWidth="1"/>
-    <col min="16130" max="16131" width="9.125" style="27" customWidth="1"/>
-    <col min="16132" max="16132" width="30.625" style="27" customWidth="1"/>
-    <col min="16133" max="16133" width="30" style="27" customWidth="1"/>
-    <col min="16134" max="16136" width="13.125" style="27" customWidth="1"/>
-    <col min="16137" max="16384" width="9" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="148" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="150" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="152" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="150" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="152" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="146" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="149"/>
-      <c r="C6" s="104" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="151"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="147"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="65"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="65"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="65"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="65"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="65"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="63"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="65"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="63"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="66"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="63"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="65"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="63"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="66"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="63"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="64"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="63"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="65"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="63"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="64"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="63"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="65"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="63"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="64"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="63"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="65"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="63"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="64"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="62"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="64"/>
-    </row>
-    <row r="24" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="70"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H24">
-      <formula1>"起票,対応中,対応済"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="1.625" style="27" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="27" customWidth="1"/>
@@ -21436,7 +23451,7 @@
     <col min="16136" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="6" customHeight="1">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -21445,25 +23460,25 @@
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="6" customHeight="1">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14.25" thickBot="1">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14.25" thickBot="1">
       <c r="A7" s="55"/>
       <c r="B7" s="105" t="s">
         <v>59</v>
@@ -21484,7 +23499,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
       <c r="A8" s="35"/>
       <c r="B8" s="56" t="s">
         <v>131</v>
@@ -21497,7 +23512,7 @@
       <c r="F8" s="58"/>
       <c r="G8" s="59"/>
     </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="14.1" customHeight="1">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -21506,23 +23521,23 @@
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="6" customHeight="1">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14.25" thickBot="1">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14.25" thickBot="1">
       <c r="A14" s="55"/>
       <c r="B14" s="105" t="s">
         <v>59</v>
@@ -21543,7 +23558,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="14.1" customHeight="1">
       <c r="A15" s="35"/>
       <c r="B15" s="60"/>
       <c r="C15" s="39"/>
@@ -21552,7 +23567,7 @@
       <c r="F15" s="40"/>
       <c r="G15" s="61"/>
     </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="14.1" customHeight="1">
       <c r="A16" s="35"/>
       <c r="B16" s="60"/>
       <c r="C16" s="39"/>
@@ -21561,7 +23576,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="61"/>
     </row>
-    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="14.1" customHeight="1">
       <c r="A17" s="35"/>
       <c r="B17" s="60"/>
       <c r="C17" s="39"/>
@@ -21570,7 +23585,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="61"/>
     </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
       <c r="A18" s="35"/>
       <c r="B18" s="56"/>
       <c r="C18" s="57"/>
@@ -21598,7 +23613,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="13" width="6.625" style="27" customWidth="1"/>
     <col min="14" max="256" width="9" style="27"/>
@@ -21730,7 +23745,7 @@
     <col min="16142" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -21745,143 +23760,143 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1"/>
+    <row r="4" spans="1:13" ht="6" customHeight="1">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
       <c r="A5" s="29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1">
       <c r="A6" s="29"/>
     </row>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="14.45" customHeight="1">
       <c r="B7" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="14.45" customHeight="1"/>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1">
       <c r="B9" s="38" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="14.45" customHeight="1">
       <c r="B10" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="14.45" customHeight="1"/>
+    <row r="12" spans="1:13" ht="14.45" customHeight="1"/>
+    <row r="13" spans="1:13" ht="6" customHeight="1">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="A15" s="29"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="14.45" customHeight="1">
       <c r="B16" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="14.45" customHeight="1">
       <c r="B17" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="14.45" customHeight="1"/>
+    <row r="19" spans="1:10" ht="14.45" customHeight="1">
       <c r="B19" s="27" t="s">
         <v>21</v>
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="14.45" customHeight="1">
       <c r="B20" s="38" t="s">
         <v>74</v>
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="14.45" customHeight="1">
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="14.45" customHeight="1">
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="6" customHeight="1">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="14.45" customHeight="1">
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="14.45" customHeight="1">
       <c r="B26" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="14.45" customHeight="1">
       <c r="B27" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="14.45" customHeight="1">
       <c r="B28" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="14.45" customHeight="1">
       <c r="B29" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="14.45" customHeight="1">
       <c r="B30" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="14.45" customHeight="1">
       <c r="B31" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="14.45" customHeight="1">
       <c r="B32" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:2" ht="14.45" customHeight="1">
       <c r="B33" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:2" ht="14.45" customHeight="1">
       <c r="B34" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="2:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="2:2" ht="14.45" customHeight="1"/>
+    <row r="36" spans="2:2" ht="14.45" customHeight="1"/>
+    <row r="37" spans="2:2" ht="14.45" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.86614173228346458" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.31496062992125984"/>
@@ -21897,13 +23912,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="2.75" style="77"/>
     <col min="4" max="4" width="22.125" style="77" customWidth="1"/>
@@ -21912,7 +23928,7 @@
     <col min="7" max="16384" width="2.75" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="6" customHeight="1">
       <c r="A1" s="76"/>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -21920,7 +23936,7 @@
       <c r="E1" s="76"/>
       <c r="F1" s="76"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="17.25">
       <c r="A2" s="75" t="s">
         <v>122</v>
       </c>
@@ -21930,7 +23946,7 @@
       <c r="E2" s="74"/>
       <c r="F2" s="74"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="74"/>
       <c r="B3" s="74"/>
       <c r="C3" s="78"/>
@@ -21938,7 +23954,7 @@
       <c r="E3" s="78"/>
       <c r="F3" s="78"/>
     </row>
-    <row r="4" spans="1:6" s="80" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="80" customFormat="1" ht="11.25">
       <c r="A4" s="79"/>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -21948,7 +23964,7 @@
       <c r="E4" s="79"/>
       <c r="F4" s="79"/>
     </row>
-    <row r="5" spans="1:6" s="80" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="80" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A5" s="79"/>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
@@ -21956,7 +23972,7 @@
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
     </row>
-    <row r="6" spans="1:6" s="80" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="80" customFormat="1" ht="12">
       <c r="A6" s="79"/>
       <c r="B6" s="79"/>
       <c r="C6" s="79"/>
@@ -21968,19 +23984,19 @@
       </c>
       <c r="F6" s="79"/>
     </row>
-    <row r="7" spans="1:6" s="80" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="80" customFormat="1">
       <c r="A7" s="79"/>
       <c r="B7" s="79"/>
       <c r="C7" s="79"/>
       <c r="D7" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="81" t="s">
-        <v>294</v>
+      <c r="E7" s="142" t="s">
+        <v>320</v>
       </c>
       <c r="F7" s="79"/>
     </row>
-    <row r="8" spans="1:6" s="80" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" s="80" customFormat="1">
       <c r="A8" s="79"/>
       <c r="B8" s="79"/>
       <c r="C8" s="79"/>
@@ -21992,7 +24008,7 @@
       </c>
       <c r="F8" s="79"/>
     </row>
-    <row r="9" spans="1:6" s="80" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" s="80" customFormat="1">
       <c r="A9" s="79"/>
       <c r="B9" s="79"/>
       <c r="C9" s="79"/>
@@ -22004,7 +24020,7 @@
       </c>
       <c r="F9" s="79"/>
     </row>
-    <row r="10" spans="1:6" s="80" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" s="80" customFormat="1">
       <c r="A10" s="79"/>
       <c r="B10" s="79"/>
       <c r="C10" s="79"/>
@@ -22016,7 +24032,7 @@
       </c>
       <c r="F10" s="79"/>
     </row>
-    <row r="11" spans="1:6" s="80" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" s="80" customFormat="1">
       <c r="A11" s="79"/>
       <c r="B11" s="79"/>
       <c r="C11" s="79"/>
@@ -22028,7 +24044,7 @@
       </c>
       <c r="F11" s="79"/>
     </row>
-    <row r="12" spans="1:6" s="80" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" s="80" customFormat="1">
       <c r="A12" s="79"/>
       <c r="B12" s="79"/>
       <c r="C12" s="79"/>
@@ -22040,47 +24056,60 @@
       </c>
       <c r="F12" s="79"/>
     </row>
-    <row r="13" spans="1:6" s="80" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" s="80" customFormat="1">
       <c r="A13" s="79"/>
       <c r="B13" s="79"/>
       <c r="C13" s="79"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="138"/>
+      <c r="D13" s="112" t="s">
+        <v>319</v>
+      </c>
+      <c r="E13" s="143" t="s">
+        <v>328</v>
+      </c>
       <c r="F13" s="79"/>
     </row>
-    <row r="14" spans="1:6" s="80" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="83"/>
+    <row r="14" spans="1:6" s="80" customFormat="1">
+      <c r="A14" s="79"/>
       <c r="B14" s="79"/>
       <c r="C14" s="79"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="136"/>
       <c r="F14" s="79"/>
     </row>
-    <row r="15" spans="1:6" s="80" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="79"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-    </row>
-    <row r="16" spans="1:6" s="80" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="83"/>
+    <row r="15" spans="1:6" s="80" customFormat="1" ht="12" thickBot="1">
+      <c r="A15" s="83"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="79"/>
+    </row>
+    <row r="16" spans="1:6" s="80" customFormat="1" ht="11.25">
+      <c r="A16" s="79"/>
       <c r="B16" s="83"/>
       <c r="C16" s="83"/>
       <c r="D16" s="83"/>
       <c r="E16" s="83"/>
       <c r="F16" s="83"/>
     </row>
+    <row r="17" spans="1:6" s="80" customFormat="1" ht="11.25">
+      <c r="A17" s="83"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="D7" location="'テスト仕様_テスト結果(テスト・シナリオ1)'!A1" display="シナリオ1"/>
-    <hyperlink ref="D8:D12" location="'テスト仕様_テスト結果(テスト・シナリオ1)'!A1" display="シナリオ1"/>
+    <hyperlink ref="D8:D13" location="'テスト仕様_テスト結果(テスト・シナリオ1)'!A1" display="シナリオ1"/>
     <hyperlink ref="D8" location="'テスト仕様_テスト結果(テスト・シナリオ2)'!A1" display="シナリオ2"/>
     <hyperlink ref="D9" location="'テスト仕様_テスト結果(テスト・シナリオ3)'!A1" display="シナリオ3"/>
     <hyperlink ref="D10" location="'テスト仕様_テスト結果(テスト・シナリオ4)'!A1" display="シナリオ4"/>
     <hyperlink ref="D11" location="'テスト仕様_テスト結果(テスト・シナリオ5)'!A1" display="シナリオ5"/>
+    <hyperlink ref="D13" location="'テスト仕様_テスト結果(テスト・シナリオ7)'!A1" display="シナリオ7"/>
     <hyperlink ref="D12" location="'テスト仕様_テスト結果(テスト・シナリオ6)'!A1" display="シナリオ6"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -22101,7 +24130,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="27" customWidth="1"/>
@@ -22361,7 +24390,7 @@
     <col min="16132" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -22372,127 +24401,131 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="B4" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="B7" s="33" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="B8" s="33"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="B9" s="33"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="B10" s="34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="B11" s="33" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="B12" s="33"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="B14" s="34" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="B15" s="33" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="B16" s="33"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3">
       <c r="B17" s="33"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3">
       <c r="B18" s="34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3">
       <c r="B19" s="33" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3">
       <c r="B20" s="33"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3">
       <c r="B21" s="33"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3">
       <c r="B22" s="34" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3">
       <c r="B23" s="33" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3">
       <c r="B24" s="33"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3">
       <c r="B25" s="33"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3">
       <c r="B26" s="34" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3">
       <c r="B27" s="33" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:3">
       <c r="B28" s="33"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:3">
       <c r="B29" s="33"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B30" s="135"/>
-      <c r="C30" s="136"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B31" s="137"/>
-      <c r="C31" s="136"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:3">
+      <c r="B30" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="C30" s="135"/>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C31" s="135"/>
+    </row>
+    <row r="32" spans="2:3">
       <c r="B32" s="33"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:2">
       <c r="B33" s="33"/>
     </row>
   </sheetData>
@@ -22507,18 +24540,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF00FF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A11" sqref="A11"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -23099,7 +25131,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -23110,35 +25142,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="B8" s="37" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.25" thickBot="1">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.25" thickBot="1">
       <c r="B10" s="100" t="s">
         <v>40</v>
       </c>
@@ -23164,18 +25196,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="21">
       <c r="B11" s="60" t="s">
         <v>110</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D11" s="116" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E11" s="116" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F11" s="116" t="s">
         <v>107</v>
@@ -23191,34 +25223,34 @@
       </c>
       <c r="J11" s="123"/>
     </row>
-    <row r="12" spans="1:10" ht="83.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="83.45" customHeight="1">
       <c r="A12" s="38"/>
       <c r="B12" s="60" t="s">
         <v>161</v>
       </c>
       <c r="C12" s="109" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E12" s="110" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F12" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G12" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="G12" s="39" t="s">
-        <v>306</v>
-      </c>
       <c r="H12" s="39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I12" s="73">
         <v>45315</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="38"/>
       <c r="B13" s="60"/>
       <c r="C13" s="42"/>
@@ -23227,19 +25259,19 @@
         <v>279</v>
       </c>
       <c r="F13" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G13" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="G13" s="39" t="s">
-        <v>306</v>
-      </c>
       <c r="H13" s="39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I13" s="73">
         <v>45315</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="21">
       <c r="A14" s="38"/>
       <c r="B14" s="60"/>
       <c r="C14" s="109"/>
@@ -23248,94 +25280,94 @@
         <v>272</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I14" s="73">
         <v>45315</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="42">
       <c r="A15" s="38"/>
       <c r="B15" s="60"/>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
       <c r="E15" s="110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I15" s="73">
         <v>45315</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="31.5">
       <c r="A16" s="38"/>
       <c r="B16" s="60" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>275</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E16" s="110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I16" s="73" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="84">
       <c r="A17" s="38"/>
       <c r="B17" s="60" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C17" s="109" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E17" s="110" t="s">
+        <v>300</v>
+      </c>
+      <c r="F17" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="F17" s="39" t="s">
-        <v>304</v>
-      </c>
       <c r="G17" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="H17" s="39" t="s">
         <v>305</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>307</v>
       </c>
       <c r="I17" s="73">
         <v>45315</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="38"/>
       <c r="B18" s="60"/>
       <c r="C18" s="42"/>
@@ -23344,19 +25376,19 @@
         <v>280</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G18" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="H18" s="39" t="s">
         <v>305</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>307</v>
       </c>
       <c r="I18" s="73">
         <v>45315</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="21">
       <c r="A19" s="38"/>
       <c r="B19" s="60"/>
       <c r="C19" s="42"/>
@@ -23365,40 +25397,40 @@
         <v>272</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G19" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="H19" s="39" t="s">
         <v>305</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>307</v>
       </c>
       <c r="I19" s="73">
         <v>45315</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="42">
       <c r="A20" s="38"/>
       <c r="B20" s="60"/>
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
       <c r="E20" s="110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G20" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="H20" s="39" t="s">
         <v>305</v>
-      </c>
-      <c r="H20" s="39" t="s">
-        <v>307</v>
       </c>
       <c r="I20" s="73">
         <v>45315</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="14.25" thickBot="1">
       <c r="B21" s="67"/>
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
@@ -23408,7 +25440,7 @@
       <c r="H21" s="43"/>
       <c r="I21" s="72"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
@@ -23418,7 +25450,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
@@ -23428,7 +25460,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="6" customHeight="1">
       <c r="A24" s="28"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -23438,7 +25470,7 @@
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
     </row>
-    <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="14.25">
       <c r="A25" s="32" t="s">
         <v>48</v>
       </c>
@@ -23448,7 +25480,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
@@ -23458,7 +25490,7 @@
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="B27" s="113"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
@@ -23468,7 +25500,7 @@
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
@@ -23478,7 +25510,7 @@
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -23488,7 +25520,7 @@
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -23498,7 +25530,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -23524,14 +25556,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF00FF"/>
-  </sheetPr>
   <dimension ref="A2:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
@@ -23540,12 +25569,12 @@
     <col min="7" max="7" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20">
       <c r="A2" s="114" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20">
       <c r="B3" s="115" t="s">
         <v>90</v>
       </c>
@@ -23595,7 +25624,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20">
       <c r="B4" s="115" t="s">
         <v>59</v>
       </c>
@@ -23654,7 +25683,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="27">
       <c r="A5" s="128" t="s">
         <v>139</v>
       </c>
@@ -23667,10 +25696,10 @@
       <c r="D5" s="121" t="s">
         <v>282</v>
       </c>
-      <c r="E5" s="140" t="s">
+      <c r="E5" s="138" t="s">
         <v>283</v>
       </c>
-      <c r="F5" s="140" t="s">
+      <c r="F5" s="138" t="s">
         <v>284</v>
       </c>
       <c r="G5" s="120" t="s">
@@ -23708,7 +25737,7 @@
       </c>
       <c r="T5" s="118"/>
     </row>
-    <row r="6" spans="1:20" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" ht="27">
       <c r="A6" s="128" t="s">
         <v>139</v>
       </c>
@@ -23721,10 +25750,10 @@
       <c r="D6" s="121" t="s">
         <v>287</v>
       </c>
-      <c r="E6" s="140" t="s">
+      <c r="E6" s="138" t="s">
         <v>288</v>
       </c>
-      <c r="F6" s="140" t="s">
+      <c r="F6" s="138" t="s">
         <v>289</v>
       </c>
       <c r="G6" s="120" t="s">
@@ -23761,10 +25790,10 @@
         <v>INSERT INTO XXCCD_USER_ROLE_TMP (ID,USER_NAME,PERSON_NUMBER,LAST_NAME,FIRST_NAME,ROLE_ASSIGNMENT,SUPPLY_AGENT,LEDGER,DATA_ACCESS,BU,INSTANCE_ID,BEF_SUPPLY_AGENT,BEF_LEDGER,BEF_DATA_ACCESS,BEF_BU,ADD_REMOVE_ROLE) VALUES (2,'XXCMM002A1103_TestUser367','TestUser367','l_user367','f_user367','XXCMM002A1103','1','1','1','1','1','','','','','ADD');</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20">
       <c r="C10" s="127"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20">
       <c r="E16" s="127"/>
     </row>
   </sheetData>
@@ -23787,7 +25816,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -24368,7 +26397,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -24379,35 +26408,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="B8" s="37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1">
       <c r="B10" s="100" t="s">
         <v>40</v>
       </c>
@@ -24433,7 +26462,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="21">
       <c r="B11" s="60" t="s">
         <v>117</v>
       </c>
@@ -24459,7 +26488,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="73.5">
       <c r="A12" s="38"/>
       <c r="B12" s="60" t="s">
         <v>118</v>
@@ -24486,7 +26515,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="31.5">
       <c r="A13" s="38"/>
       <c r="B13" s="60"/>
       <c r="C13" s="42"/>
@@ -24507,7 +26536,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="31.5">
       <c r="A14" s="38"/>
       <c r="B14" s="60"/>
       <c r="C14" s="42"/>
@@ -24528,7 +26557,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="21">
       <c r="B15" s="60"/>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
@@ -24548,7 +26577,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="B16" s="60"/>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
@@ -24558,7 +26587,7 @@
       <c r="H16" s="42"/>
       <c r="I16" s="71"/>
     </row>
-    <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="14.25" thickBot="1">
       <c r="B17" s="67"/>
       <c r="C17" s="43"/>
       <c r="D17" s="43"/>
@@ -24568,7 +26597,7 @@
       <c r="H17" s="43"/>
       <c r="I17" s="72"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
@@ -24578,7 +26607,7 @@
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -24588,7 +26617,7 @@
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="6" customHeight="1">
       <c r="A20" s="28"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
@@ -24598,7 +26627,7 @@
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
     </row>
-    <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="14.25">
       <c r="A21" s="32" t="s">
         <v>48</v>
       </c>
@@ -24608,7 +26637,7 @@
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
@@ -24618,7 +26647,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="B23" s="113"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
@@ -24628,7 +26657,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
@@ -24638,7 +26667,7 @@
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
@@ -24648,7 +26677,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
@@ -24658,7 +26687,7 @@
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
@@ -24688,7 +26717,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
@@ -24696,12 +26725,12 @@
     <col min="7" max="7" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20">
       <c r="A2" s="114" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20">
       <c r="B4" s="115" t="s">
         <v>90</v>
       </c>
@@ -24751,7 +26780,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20">
       <c r="B5" s="115" t="s">
         <v>59</v>
       </c>
@@ -24810,7 +26839,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="127" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="127" customFormat="1" ht="30.75" customHeight="1">
       <c r="A6" s="125" t="s">
         <v>138</v>
       </c>
@@ -24858,7 +26887,7 @@
       </c>
       <c r="T6" s="118"/>
     </row>
-    <row r="7" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="30.75" customHeight="1">
       <c r="A7" s="125" t="s">
         <v>155</v>
       </c>
@@ -24904,7 +26933,7 @@
       </c>
       <c r="T7" s="118"/>
     </row>
-    <row r="8" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="30.75" customHeight="1">
       <c r="A8" s="125" t="s">
         <v>158</v>
       </c>
